--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao khach hang moi theo nhan vien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao KH moi theo nhan vien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="245">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2126,9 +2126,6 @@
     <t>ASOFT - CRM</t>
   </si>
   <si>
-    <t>CRMFXXX1</t>
-  </si>
-  <si>
     <t>Báo cáo Khách hàng mới theo nhân viên</t>
   </si>
   <si>
@@ -2314,9 +2311,6 @@
   </si>
   <si>
     <t>CRMF3010</t>
-  </si>
-  <si>
-    <t>Nhận tham số @ReportID từ màn hình Báo cáo biểu đồ CRMT3000 để mởi màn hình CRMF3010</t>
   </si>
   <si>
     <t>Click vào Link Báo cáo Khách hàng mới theo nhân viên</t>
@@ -2341,9 +2335,6 @@
   </si>
   <si>
     <t>Thực thi @SQL0001 , @SQL0002 đổ nguồn cho Dropdownchecklist</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0003, @SQL0004 phụ thuộc vào @DivisionID của câu @SQL0002</t>
   </si>
   <si>
     <t>Click vào BttnClose thực thi đóng màn hình CRMF3010 trở về màn hình CRMF3000</t>
@@ -2405,6 +2396,18 @@
     <t>Menu [Báo cáo] -&gt; MenuItem[Báo cáo Thống kê] 
 -&gt; Click vào Link Báo cáo KH mới theo nhân viên 
 -&gt;Pop [Báo cáo khách hàng mới theo nhân viên_CRMF3010]</t>
+  </si>
+  <si>
+    <t>Nhận tham số @FormID từ màn hình Báo cáo biểu đồ CRMF3000 để mởi màn hình CRMF3010</t>
+  </si>
+  <si>
+    <t>Đổ nguồn DropdownCheckList đơn vị</t>
+  </si>
+  <si>
+    <t>Đổ nguồn DropdownCheckList chọn kỳ</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0003, @SQL0004 phụ thuộc vào @DivisionID của câu @SQL0001</t>
   </si>
 </sst>
 </file>
@@ -3272,9 +3275,27 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3320,23 +3341,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3377,9 +3383,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3441,6 +3444,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3448,18 +3463,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4410,65 +4413,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="142"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="144" t="s">
+      <c r="A1" s="148"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="143" t="s">
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143" t="s">
+      <c r="H1" s="149"/>
+      <c r="I1" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="143"/>
+      <c r="J1" s="149"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="143" t="s">
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="139" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="145" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="146"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="117"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="118"/>
       <c r="L13" s="118"/>
       <c r="M13" s="118"/>
@@ -4479,56 +4482,56 @@
       <c r="R13" s="118"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="141"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="141"/>
+      <c r="R15" s="141"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
       <c r="M16" s="119"/>
@@ -4539,384 +4542,384 @@
       <c r="R16" s="119"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="141"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="137"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="141"/>
+      <c r="R20" s="141"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="137"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="141"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="153"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="139"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="157"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="156"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="156"/>
-      <c r="AH28" s="156"/>
-      <c r="AI28" s="156"/>
-      <c r="AJ28" s="156"/>
-      <c r="AK28" s="156"/>
-      <c r="AL28" s="156"/>
-      <c r="AM28" s="156"/>
-      <c r="AN28" s="156"/>
-      <c r="AO28" s="156"/>
-      <c r="AP28" s="156"/>
-      <c r="AQ28" s="156"/>
-      <c r="AR28" s="156"/>
-      <c r="AS28" s="156"/>
-      <c r="AT28" s="156"/>
-      <c r="AU28" s="156"/>
-      <c r="AV28" s="156"/>
-      <c r="AW28" s="156"/>
-      <c r="AX28" s="156"/>
-      <c r="AY28" s="156"/>
-      <c r="AZ28" s="156"/>
-      <c r="BA28" s="156"/>
-      <c r="BB28" s="156"/>
-      <c r="BC28" s="156"/>
-      <c r="BD28" s="156"/>
-      <c r="BE28" s="156"/>
-      <c r="BF28" s="156"/>
-      <c r="BG28" s="156"/>
-      <c r="BH28" s="156"/>
-      <c r="BI28" s="156"/>
-      <c r="BJ28" s="156"/>
-      <c r="BK28" s="156"/>
-      <c r="BL28" s="156"/>
-      <c r="BM28" s="156"/>
-      <c r="BN28" s="156"/>
-      <c r="BO28" s="156"/>
-      <c r="BP28" s="156"/>
-      <c r="BQ28" s="156"/>
-      <c r="BR28" s="156"/>
-      <c r="BS28" s="156"/>
-      <c r="BT28" s="156"/>
-      <c r="BU28" s="156"/>
-      <c r="BV28" s="156"/>
-      <c r="BW28" s="156"/>
-      <c r="BX28" s="156"/>
-      <c r="BY28" s="156"/>
-      <c r="BZ28" s="156"/>
-      <c r="CA28" s="156"/>
-      <c r="CB28" s="156"/>
-      <c r="CC28" s="156"/>
-      <c r="CD28" s="156"/>
-      <c r="CE28" s="156"/>
-      <c r="CF28" s="156"/>
-      <c r="CG28" s="156"/>
-      <c r="CH28" s="156"/>
-      <c r="CI28" s="156"/>
-      <c r="CJ28" s="156"/>
-      <c r="CK28" s="156"/>
-      <c r="CL28" s="156"/>
-      <c r="CM28" s="156"/>
-      <c r="CN28" s="156"/>
-      <c r="CO28" s="156"/>
-      <c r="CP28" s="156"/>
-      <c r="CQ28" s="156"/>
-      <c r="CR28" s="156"/>
-      <c r="CS28" s="156"/>
-      <c r="CT28" s="156"/>
-      <c r="CU28" s="156"/>
-      <c r="CV28" s="156"/>
-      <c r="CW28" s="156"/>
-      <c r="CX28" s="156"/>
-      <c r="CY28" s="156"/>
-      <c r="CZ28" s="156"/>
-      <c r="DA28" s="156"/>
-      <c r="DB28" s="156"/>
-      <c r="DC28" s="156"/>
-      <c r="DD28" s="156"/>
-      <c r="DE28" s="156"/>
-      <c r="DF28" s="156"/>
-      <c r="DG28" s="156"/>
-      <c r="DH28" s="156"/>
-      <c r="DI28" s="156"/>
-      <c r="DJ28" s="156"/>
-      <c r="DK28" s="156"/>
-      <c r="DL28" s="156"/>
-      <c r="DM28" s="156"/>
-      <c r="DN28" s="156"/>
-      <c r="DO28" s="156"/>
-      <c r="DP28" s="156"/>
-      <c r="DQ28" s="156"/>
-      <c r="DR28" s="156"/>
-      <c r="DS28" s="156"/>
-      <c r="DT28" s="156"/>
-      <c r="DU28" s="156"/>
-      <c r="DV28" s="156"/>
-      <c r="DW28" s="156"/>
-      <c r="DX28" s="156"/>
-      <c r="DY28" s="156"/>
-      <c r="DZ28" s="156"/>
-      <c r="EA28" s="156"/>
-      <c r="EB28" s="156"/>
-      <c r="EC28" s="156"/>
-      <c r="ED28" s="156"/>
-      <c r="EE28" s="156"/>
-      <c r="EF28" s="156"/>
-      <c r="EG28" s="156"/>
-      <c r="EH28" s="156"/>
-      <c r="EI28" s="156"/>
-      <c r="EJ28" s="156"/>
-      <c r="EK28" s="156"/>
-      <c r="EL28" s="156"/>
-      <c r="EM28" s="156"/>
-      <c r="EN28" s="156"/>
-      <c r="EO28" s="156"/>
-      <c r="EP28" s="156"/>
-      <c r="EQ28" s="156"/>
-      <c r="ER28" s="156"/>
-      <c r="ES28" s="156"/>
-      <c r="ET28" s="156"/>
-      <c r="EU28" s="156"/>
-      <c r="EV28" s="156"/>
-      <c r="EW28" s="156"/>
-      <c r="EX28" s="156"/>
-      <c r="EY28" s="156"/>
-      <c r="EZ28" s="156"/>
-      <c r="FA28" s="156"/>
-      <c r="FB28" s="156"/>
-      <c r="FC28" s="156"/>
-      <c r="FD28" s="156"/>
-      <c r="FE28" s="156"/>
-      <c r="FF28" s="156"/>
-      <c r="FG28" s="156"/>
-      <c r="FH28" s="156"/>
-      <c r="FI28" s="156"/>
-      <c r="FJ28" s="156"/>
-      <c r="FK28" s="156"/>
-      <c r="FL28" s="156"/>
-      <c r="FM28" s="156"/>
-      <c r="FN28" s="156"/>
-      <c r="FO28" s="156"/>
-      <c r="FP28" s="156"/>
-      <c r="FQ28" s="156"/>
-      <c r="FR28" s="156"/>
-      <c r="FS28" s="156"/>
-      <c r="FT28" s="156"/>
-      <c r="FU28" s="156"/>
-      <c r="FV28" s="156"/>
-      <c r="FW28" s="156"/>
-      <c r="FX28" s="156"/>
-      <c r="FY28" s="156"/>
-      <c r="FZ28" s="156"/>
-      <c r="GA28" s="156"/>
-      <c r="GB28" s="156"/>
-      <c r="GC28" s="156"/>
-      <c r="GD28" s="156"/>
-      <c r="GE28" s="156"/>
-      <c r="GF28" s="156"/>
-      <c r="GG28" s="156"/>
-      <c r="GH28" s="156"/>
-      <c r="GI28" s="156"/>
-      <c r="GJ28" s="156"/>
-      <c r="GK28" s="156"/>
-      <c r="GL28" s="156"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="138"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="138"/>
+      <c r="Z28" s="138"/>
+      <c r="AA28" s="138"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="138"/>
+      <c r="AJ28" s="138"/>
+      <c r="AK28" s="138"/>
+      <c r="AL28" s="138"/>
+      <c r="AM28" s="138"/>
+      <c r="AN28" s="138"/>
+      <c r="AO28" s="138"/>
+      <c r="AP28" s="138"/>
+      <c r="AQ28" s="138"/>
+      <c r="AR28" s="138"/>
+      <c r="AS28" s="138"/>
+      <c r="AT28" s="138"/>
+      <c r="AU28" s="138"/>
+      <c r="AV28" s="138"/>
+      <c r="AW28" s="138"/>
+      <c r="AX28" s="138"/>
+      <c r="AY28" s="138"/>
+      <c r="AZ28" s="138"/>
+      <c r="BA28" s="138"/>
+      <c r="BB28" s="138"/>
+      <c r="BC28" s="138"/>
+      <c r="BD28" s="138"/>
+      <c r="BE28" s="138"/>
+      <c r="BF28" s="138"/>
+      <c r="BG28" s="138"/>
+      <c r="BH28" s="138"/>
+      <c r="BI28" s="138"/>
+      <c r="BJ28" s="138"/>
+      <c r="BK28" s="138"/>
+      <c r="BL28" s="138"/>
+      <c r="BM28" s="138"/>
+      <c r="BN28" s="138"/>
+      <c r="BO28" s="138"/>
+      <c r="BP28" s="138"/>
+      <c r="BQ28" s="138"/>
+      <c r="BR28" s="138"/>
+      <c r="BS28" s="138"/>
+      <c r="BT28" s="138"/>
+      <c r="BU28" s="138"/>
+      <c r="BV28" s="138"/>
+      <c r="BW28" s="138"/>
+      <c r="BX28" s="138"/>
+      <c r="BY28" s="138"/>
+      <c r="BZ28" s="138"/>
+      <c r="CA28" s="138"/>
+      <c r="CB28" s="138"/>
+      <c r="CC28" s="138"/>
+      <c r="CD28" s="138"/>
+      <c r="CE28" s="138"/>
+      <c r="CF28" s="138"/>
+      <c r="CG28" s="138"/>
+      <c r="CH28" s="138"/>
+      <c r="CI28" s="138"/>
+      <c r="CJ28" s="138"/>
+      <c r="CK28" s="138"/>
+      <c r="CL28" s="138"/>
+      <c r="CM28" s="138"/>
+      <c r="CN28" s="138"/>
+      <c r="CO28" s="138"/>
+      <c r="CP28" s="138"/>
+      <c r="CQ28" s="138"/>
+      <c r="CR28" s="138"/>
+      <c r="CS28" s="138"/>
+      <c r="CT28" s="138"/>
+      <c r="CU28" s="138"/>
+      <c r="CV28" s="138"/>
+      <c r="CW28" s="138"/>
+      <c r="CX28" s="138"/>
+      <c r="CY28" s="138"/>
+      <c r="CZ28" s="138"/>
+      <c r="DA28" s="138"/>
+      <c r="DB28" s="138"/>
+      <c r="DC28" s="138"/>
+      <c r="DD28" s="138"/>
+      <c r="DE28" s="138"/>
+      <c r="DF28" s="138"/>
+      <c r="DG28" s="138"/>
+      <c r="DH28" s="138"/>
+      <c r="DI28" s="138"/>
+      <c r="DJ28" s="138"/>
+      <c r="DK28" s="138"/>
+      <c r="DL28" s="138"/>
+      <c r="DM28" s="138"/>
+      <c r="DN28" s="138"/>
+      <c r="DO28" s="138"/>
+      <c r="DP28" s="138"/>
+      <c r="DQ28" s="138"/>
+      <c r="DR28" s="138"/>
+      <c r="DS28" s="138"/>
+      <c r="DT28" s="138"/>
+      <c r="DU28" s="138"/>
+      <c r="DV28" s="138"/>
+      <c r="DW28" s="138"/>
+      <c r="DX28" s="138"/>
+      <c r="DY28" s="138"/>
+      <c r="DZ28" s="138"/>
+      <c r="EA28" s="138"/>
+      <c r="EB28" s="138"/>
+      <c r="EC28" s="138"/>
+      <c r="ED28" s="138"/>
+      <c r="EE28" s="138"/>
+      <c r="EF28" s="138"/>
+      <c r="EG28" s="138"/>
+      <c r="EH28" s="138"/>
+      <c r="EI28" s="138"/>
+      <c r="EJ28" s="138"/>
+      <c r="EK28" s="138"/>
+      <c r="EL28" s="138"/>
+      <c r="EM28" s="138"/>
+      <c r="EN28" s="138"/>
+      <c r="EO28" s="138"/>
+      <c r="EP28" s="138"/>
+      <c r="EQ28" s="138"/>
+      <c r="ER28" s="138"/>
+      <c r="ES28" s="138"/>
+      <c r="ET28" s="138"/>
+      <c r="EU28" s="138"/>
+      <c r="EV28" s="138"/>
+      <c r="EW28" s="138"/>
+      <c r="EX28" s="138"/>
+      <c r="EY28" s="138"/>
+      <c r="EZ28" s="138"/>
+      <c r="FA28" s="138"/>
+      <c r="FB28" s="138"/>
+      <c r="FC28" s="138"/>
+      <c r="FD28" s="138"/>
+      <c r="FE28" s="138"/>
+      <c r="FF28" s="138"/>
+      <c r="FG28" s="138"/>
+      <c r="FH28" s="138"/>
+      <c r="FI28" s="138"/>
+      <c r="FJ28" s="138"/>
+      <c r="FK28" s="138"/>
+      <c r="FL28" s="138"/>
+      <c r="FM28" s="138"/>
+      <c r="FN28" s="138"/>
+      <c r="FO28" s="138"/>
+      <c r="FP28" s="138"/>
+      <c r="FQ28" s="138"/>
+      <c r="FR28" s="138"/>
+      <c r="FS28" s="138"/>
+      <c r="FT28" s="138"/>
+      <c r="FU28" s="138"/>
+      <c r="FV28" s="138"/>
+      <c r="FW28" s="138"/>
+      <c r="FX28" s="138"/>
+      <c r="FY28" s="138"/>
+      <c r="FZ28" s="138"/>
+      <c r="GA28" s="138"/>
+      <c r="GB28" s="138"/>
+      <c r="GC28" s="138"/>
+      <c r="GD28" s="138"/>
+      <c r="GE28" s="138"/>
+      <c r="GF28" s="138"/>
+      <c r="GG28" s="138"/>
+      <c r="GH28" s="138"/>
+      <c r="GI28" s="138"/>
+      <c r="GJ28" s="138"/>
+      <c r="GK28" s="138"/>
+      <c r="GL28" s="138"/>
       <c r="GM28" s="120"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="155"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="139"/>
+      <c r="R29" s="139"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="158"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
       <c r="K30" s="121"/>
       <c r="L30" s="121"/>
       <c r="M30" s="121"/>
@@ -4927,16 +4930,16 @@
       <c r="R30" s="121"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="158"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
       <c r="K31" s="121"/>
       <c r="L31" s="121"/>
       <c r="M31" s="121"/>
@@ -4948,28 +4951,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4983,6 +4964,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5537,10 +5540,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5551,24 +5554,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5607,14 +5610,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="128">
@@ -5627,16 +5630,16 @@
         <v>42396</v>
       </c>
       <c r="D5" s="130" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="167" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
+        <v>161</v>
+      </c>
+      <c r="E5" s="168" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="91">
@@ -5647,12 +5650,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="92">
@@ -5663,12 +5666,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="93">
@@ -5679,12 +5682,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="94">
@@ -5695,12 +5698,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="162"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="95">
@@ -5711,12 +5714,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="96">
@@ -5727,12 +5730,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="97">
@@ -5743,12 +5746,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="98">
@@ -5759,12 +5762,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="161"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="99">
@@ -5775,12 +5778,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="161"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5791,12 +5794,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="91">
@@ -5807,12 +5810,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="92">
@@ -5823,12 +5826,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="93">
@@ -5839,12 +5842,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="94">
@@ -5855,12 +5858,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="95">
@@ -5871,12 +5874,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="96">
@@ -5887,12 +5890,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="97">
@@ -5903,12 +5906,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="98">
@@ -5919,12 +5922,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="99">
@@ -5935,12 +5938,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5951,12 +5954,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5967,12 +5970,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="91">
@@ -5983,12 +5986,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="92">
@@ -5999,12 +6002,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="93">
@@ -6015,12 +6018,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="94">
@@ -6031,12 +6034,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="95">
@@ -6047,12 +6050,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="96">
@@ -6063,12 +6066,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="97">
@@ -6079,12 +6082,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="98">
@@ -6095,12 +6098,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="99">
@@ -6111,12 +6114,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6127,12 +6130,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="91">
@@ -6143,12 +6146,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="159"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="92">
@@ -6159,12 +6162,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="93">
@@ -6175,12 +6178,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="159"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="94">
@@ -6191,12 +6194,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="159"/>
+      <c r="J40" s="159"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="95">
@@ -6207,12 +6210,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="159"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="96">
@@ -6223,32 +6226,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6264,14 +6258,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6296,8 +6299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6316,10 +6319,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6345,12 +6348,12 @@
         <v>7</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6405,7 +6408,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="182" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J5" s="183"/>
     </row>
@@ -6493,7 +6496,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="176" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J12" s="177"/>
     </row>
@@ -6901,7 +6904,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6926,13 +6929,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6945,7 +6948,7 @@
       </c>
       <c r="I1" s="189"/>
       <c r="J1" s="190" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="K1" s="191"/>
       <c r="L1" s="192"/>
@@ -6960,15 +6963,15 @@
         <v>7</v>
       </c>
       <c r="P1" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7005,10 +7008,10 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -7058,7 +7061,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="33">
         <v>1</v>
@@ -7092,21 +7095,21 @@
         <v>51</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="33">
         <v>2</v>
       </c>
       <c r="E6" s="59"/>
       <c r="F6" s="88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6" s="88"/>
       <c r="H6" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -7124,25 +7127,25 @@
         <v>51</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="33">
         <v>3</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F7" s="88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
@@ -7162,25 +7165,25 @@
         <v>51</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="33">
         <v>4</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="127" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
@@ -7200,21 +7203,21 @@
         <v>51</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="33">
         <v>5</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G9" s="127"/>
       <c r="H9" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
@@ -7232,25 +7235,25 @@
         <v>51</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="33">
         <v>6</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
@@ -7270,25 +7273,25 @@
         <v>51</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="33">
         <v>7</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" s="88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G11" s="127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J11" s="62">
         <v>50</v>
@@ -7308,25 +7311,25 @@
         <v>51</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="33">
         <v>8</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G12" s="133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J12" s="62">
         <v>50</v>
@@ -7339,7 +7342,7 @@
       <c r="N12" s="133"/>
       <c r="O12" s="133"/>
       <c r="P12" s="133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7350,25 +7353,25 @@
         <v>51</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="33">
         <v>9</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G13" s="133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J13" s="62">
         <v>50</v>
@@ -7388,25 +7391,25 @@
         <v>51</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="33">
         <v>10</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G14" s="133" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J14" s="62">
         <v>50</v>
@@ -7419,7 +7422,7 @@
       <c r="N14" s="133"/>
       <c r="O14" s="133"/>
       <c r="P14" s="133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7430,25 +7433,25 @@
         <v>51</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="33">
         <v>11</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G15" s="133" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J15" s="62">
         <v>50</v>
@@ -7468,20 +7471,20 @@
         <v>51</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="33">
         <v>12</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I16" s="40"/>
       <c r="J16" s="62"/>
@@ -7500,20 +7503,20 @@
         <v>51</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="33">
         <v>13</v>
       </c>
       <c r="E17" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="88" t="s">
         <v>216</v>
-      </c>
-      <c r="F17" s="88" t="s">
-        <v>217</v>
       </c>
       <c r="G17" s="84"/>
       <c r="H17" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I17" s="40"/>
       <c r="J17" s="62"/>
@@ -7523,7 +7526,7 @@
       <c r="N17" s="69"/>
       <c r="O17" s="69"/>
       <c r="P17" s="88" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8437,7 +8440,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K1" s="66"/>
     </row>
@@ -8478,7 +8481,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>32</v>
@@ -9416,7 +9419,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9442,7 +9445,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="135"/>
@@ -9476,7 +9479,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
+      <c r="A2" s="196"/>
       <c r="B2" s="136"/>
       <c r="C2" s="125"/>
       <c r="D2" s="31" t="s">
@@ -9512,7 +9515,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C4" s="122" t="s">
         <v>32</v>
@@ -9526,15 +9529,15 @@
       <c r="F4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165" t="s">
+      <c r="H4" s="166"/>
+      <c r="I4" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="33">
@@ -9544,22 +9547,22 @@
         <v>51</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="196" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="197"/>
-      <c r="I5" s="193" t="s">
-        <v>224</v>
-      </c>
-      <c r="J5" s="194"/>
-      <c r="K5" s="195"/>
+      <c r="G5" s="193" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" s="194"/>
+      <c r="I5" s="197" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="198"/>
+      <c r="K5" s="199"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="33">
@@ -9569,22 +9572,22 @@
         <v>51</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="131" t="s">
         <v>134</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="196" t="s">
-        <v>219</v>
-      </c>
-      <c r="H6" s="197"/>
-      <c r="I6" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="J6" s="194"/>
-      <c r="K6" s="195"/>
+      <c r="G6" s="193" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="194"/>
+      <c r="I6" s="197" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="198"/>
+      <c r="K6" s="199"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9595,11 +9598,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="195"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="198"/>
+      <c r="K7" s="199"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9610,11 +9613,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="195"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="199"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9625,11 +9628,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="199"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9640,11 +9643,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="195"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="199"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9655,11 +9658,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="195"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="199"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9670,11 +9673,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="195"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="199"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9685,11 +9688,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="195"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="199"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9700,11 +9703,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="195"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="199"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9715,11 +9718,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="195"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="199"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9730,11 +9733,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="195"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="199"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9745,11 +9748,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="195"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="199"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9760,11 +9763,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="195"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="199"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9775,11 +9778,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="195"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="199"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9790,11 +9793,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="195"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="199"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9805,11 +9808,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="195"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="199"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9820,11 +9823,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="195"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="199"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9835,11 +9838,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="195"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="199"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9850,11 +9853,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="195"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="199"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9865,11 +9868,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="195"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="199"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9880,11 +9883,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="195"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="199"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9895,11 +9898,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="195"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="199"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9910,11 +9913,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="195"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="199"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9925,11 +9928,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="195"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="198"/>
+      <c r="K29" s="199"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9940,11 +9943,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="195"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="199"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9955,11 +9958,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="195"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="199"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9970,11 +9973,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="195"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="199"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9992,11 +9995,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="195"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="199"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -10014,11 +10017,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="195"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="199"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -10036,11 +10039,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="195"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="199"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -10058,11 +10061,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="195"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="199"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -10080,11 +10083,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="195"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="198"/>
+      <c r="K37" s="199"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -10102,11 +10105,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="195"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="199"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -10124,11 +10127,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="195"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="199"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10146,11 +10149,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="195"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="199"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10168,11 +10171,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="195"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="162"/>
+      <c r="I41" s="197"/>
+      <c r="J41" s="198"/>
+      <c r="K41" s="199"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10190,11 +10193,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="195"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="198"/>
+      <c r="K42" s="199"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10212,11 +10215,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="195"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="197"/>
+      <c r="J43" s="198"/>
+      <c r="K43" s="199"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10234,11 +10237,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="195"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="197"/>
+      <c r="J44" s="198"/>
+      <c r="K44" s="199"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10256,11 +10259,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="194"/>
-      <c r="K45" s="195"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="162"/>
+      <c r="I45" s="197"/>
+      <c r="J45" s="198"/>
+      <c r="K45" s="199"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10278,11 +10281,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="194"/>
-      <c r="K46" s="195"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="197"/>
+      <c r="J46" s="198"/>
+      <c r="K46" s="199"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10300,11 +10303,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="194"/>
-      <c r="K47" s="195"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="197"/>
+      <c r="J47" s="198"/>
+      <c r="K47" s="199"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10322,11 +10325,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="193"/>
-      <c r="J48" s="194"/>
-      <c r="K48" s="195"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="197"/>
+      <c r="J48" s="198"/>
+      <c r="K48" s="199"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10344,11 +10347,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="193"/>
-      <c r="J49" s="194"/>
-      <c r="K49" s="195"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="162"/>
+      <c r="I49" s="197"/>
+      <c r="J49" s="198"/>
+      <c r="K49" s="199"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10366,11 +10369,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="193"/>
-      <c r="J50" s="194"/>
-      <c r="K50" s="195"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="197"/>
+      <c r="J50" s="198"/>
+      <c r="K50" s="199"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10388,11 +10391,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
-      <c r="K51" s="195"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="162"/>
+      <c r="I51" s="197"/>
+      <c r="J51" s="198"/>
+      <c r="K51" s="199"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10410,11 +10413,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="194"/>
-      <c r="K52" s="195"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="162"/>
+      <c r="I52" s="197"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="199"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10432,11 +10435,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="193"/>
-      <c r="J53" s="194"/>
-      <c r="K53" s="195"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="162"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="198"/>
+      <c r="K53" s="199"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10454,11 +10457,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="194"/>
-      <c r="K54" s="195"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="197"/>
+      <c r="J54" s="198"/>
+      <c r="K54" s="199"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10476,11 +10479,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="193"/>
-      <c r="J55" s="194"/>
-      <c r="K55" s="195"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="197"/>
+      <c r="J55" s="198"/>
+      <c r="K55" s="199"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10498,11 +10501,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="194"/>
-      <c r="K56" s="195"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="197"/>
+      <c r="J56" s="198"/>
+      <c r="K56" s="199"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10514,25 +10517,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -10547,80 +10605,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10638,7 +10641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K9" sqref="K9:N9"/>
     </sheetView>
   </sheetViews>
@@ -10668,16 +10671,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10704,7 +10707,7 @@
         <v>7</v>
       </c>
       <c r="Q1" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R1" s="50"/>
       <c r="S1" s="35"/>
@@ -10712,14 +10715,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10758,10 +10761,10 @@
         <v>44</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C4" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>97</v>
@@ -10806,7 +10809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="5" spans="1:21" s="34" customFormat="1" ht="22.5">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -10814,50 +10817,50 @@
         <v>51</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
       <c r="G5" s="88" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I5" s="63" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K5" s="200" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L5" s="201"/>
       <c r="M5" s="201"/>
       <c r="N5" s="202"/>
       <c r="O5" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="P5" s="89" t="s">
         <v>190</v>
-      </c>
-      <c r="P5" s="89" t="s">
-        <v>191</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>106</v>
       </c>
       <c r="R5" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
     </row>
-    <row r="6" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="6" spans="1:21" s="34" customFormat="1" ht="22.5">
       <c r="A6" s="33">
         <v>2</v>
       </c>
@@ -10865,25 +10868,25 @@
         <v>51</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
       <c r="G6" s="88" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I6" s="63" t="s">
         <v>55</v>
       </c>
       <c r="J6" s="132" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K6" s="200" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L6" s="201"/>
       <c r="M6" s="201"/>
@@ -10892,16 +10895,16 @@
         <v>134</v>
       </c>
       <c r="P6" s="126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R6" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -10914,25 +10917,25 @@
         <v>51</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
       <c r="G7" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I7" s="63" t="s">
         <v>55</v>
       </c>
       <c r="J7" s="132" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K7" s="200" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L7" s="201"/>
       <c r="M7" s="201"/>
@@ -10941,14 +10944,14 @@
         <v>134</v>
       </c>
       <c r="P7" s="126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="76"/>
       <c r="R7" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S7" s="82" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
@@ -10961,25 +10964,25 @@
         <v>51</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
       <c r="G8" s="88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I8" s="63" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="132" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K8" s="200" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L8" s="201"/>
       <c r="M8" s="201"/>
@@ -10988,14 +10991,14 @@
         <v>134</v>
       </c>
       <c r="P8" s="126" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="76"/>
       <c r="R8" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S8" s="82" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
@@ -11008,43 +11011,43 @@
         <v>51</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
       <c r="G9" s="88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I9" s="63" t="s">
         <v>55</v>
       </c>
       <c r="J9" s="132" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K9" s="200" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L9" s="201"/>
       <c r="M9" s="201"/>
       <c r="N9" s="202"/>
       <c r="O9" s="126" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P9" s="126" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q9" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R9" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S9" s="133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
@@ -13118,11 +13121,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="K87:N87"/>
@@ -13139,79 +13210,11 @@
     <mergeCell ref="K74:N74"/>
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13240,8 +13243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13257,10 +13260,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13286,12 +13289,12 @@
         <v>7</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13477,7 +13480,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13548,7 +13551,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -13586,10 +13589,10 @@
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -13602,10 +13605,10 @@
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -13875,7 +13878,7 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="80" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C49" s="86"/>
       <c r="D49" s="43"/>
@@ -14373,10 +14376,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14402,12 +14405,12 @@
         <v>7</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -14433,7 +14436,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="243">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2219,12 +2219,6 @@
     <t>Biến môi trường</t>
   </si>
   <si>
-    <t>Đổ nguồn combobox đơn vị</t>
-  </si>
-  <si>
-    <t>Đổ nguồn combobox chọn kỳ</t>
-  </si>
-  <si>
     <t>Load</t>
   </si>
   <si>
@@ -2302,9 +2296,6 @@
   </si>
   <si>
     <t>Truyền tham số @DivisionID để gọi tab màn hình báo cáo khi in</t>
-  </si>
-  <si>
-    <t>@ReportID</t>
   </si>
   <si>
     <t>Click BttnPrint</t>
@@ -2408,6 +2399,9 @@
   </si>
   <si>
     <t>Thực thi @SQL0003, @SQL0004 phụ thuộc vào @DivisionID của câu @SQL0001</t>
+  </si>
+  <si>
+    <t>@FormID</t>
   </si>
 </sst>
 </file>
@@ -3275,114 +3269,114 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3444,6 +3438,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3454,15 +3457,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4413,65 +4407,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="148"/>
-      <c r="B1" s="148"/>
-      <c r="C1" s="150" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="149" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149" t="s">
+      <c r="H1" s="143"/>
+      <c r="I1" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="149"/>
+      <c r="J1" s="143"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="149" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="148"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="145" t="s">
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="146"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="117"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="147"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
       <c r="K13" s="118"/>
       <c r="L13" s="118"/>
       <c r="M13" s="118"/>
@@ -4482,56 +4476,56 @@
       <c r="R13" s="118"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="141"/>
-      <c r="R15" s="141"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
       <c r="M16" s="119"/>
@@ -4542,384 +4536,384 @@
       <c r="R16" s="119"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="141"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="141"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="137"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="142"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="153"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="139"/>
-      <c r="Q26" s="139"/>
-      <c r="R26" s="139"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="140"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="138"/>
-      <c r="Z28" s="138"/>
-      <c r="AA28" s="138"/>
-      <c r="AB28" s="138"/>
-      <c r="AC28" s="138"/>
-      <c r="AD28" s="138"/>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="138"/>
-      <c r="AG28" s="138"/>
-      <c r="AH28" s="138"/>
-      <c r="AI28" s="138"/>
-      <c r="AJ28" s="138"/>
-      <c r="AK28" s="138"/>
-      <c r="AL28" s="138"/>
-      <c r="AM28" s="138"/>
-      <c r="AN28" s="138"/>
-      <c r="AO28" s="138"/>
-      <c r="AP28" s="138"/>
-      <c r="AQ28" s="138"/>
-      <c r="AR28" s="138"/>
-      <c r="AS28" s="138"/>
-      <c r="AT28" s="138"/>
-      <c r="AU28" s="138"/>
-      <c r="AV28" s="138"/>
-      <c r="AW28" s="138"/>
-      <c r="AX28" s="138"/>
-      <c r="AY28" s="138"/>
-      <c r="AZ28" s="138"/>
-      <c r="BA28" s="138"/>
-      <c r="BB28" s="138"/>
-      <c r="BC28" s="138"/>
-      <c r="BD28" s="138"/>
-      <c r="BE28" s="138"/>
-      <c r="BF28" s="138"/>
-      <c r="BG28" s="138"/>
-      <c r="BH28" s="138"/>
-      <c r="BI28" s="138"/>
-      <c r="BJ28" s="138"/>
-      <c r="BK28" s="138"/>
-      <c r="BL28" s="138"/>
-      <c r="BM28" s="138"/>
-      <c r="BN28" s="138"/>
-      <c r="BO28" s="138"/>
-      <c r="BP28" s="138"/>
-      <c r="BQ28" s="138"/>
-      <c r="BR28" s="138"/>
-      <c r="BS28" s="138"/>
-      <c r="BT28" s="138"/>
-      <c r="BU28" s="138"/>
-      <c r="BV28" s="138"/>
-      <c r="BW28" s="138"/>
-      <c r="BX28" s="138"/>
-      <c r="BY28" s="138"/>
-      <c r="BZ28" s="138"/>
-      <c r="CA28" s="138"/>
-      <c r="CB28" s="138"/>
-      <c r="CC28" s="138"/>
-      <c r="CD28" s="138"/>
-      <c r="CE28" s="138"/>
-      <c r="CF28" s="138"/>
-      <c r="CG28" s="138"/>
-      <c r="CH28" s="138"/>
-      <c r="CI28" s="138"/>
-      <c r="CJ28" s="138"/>
-      <c r="CK28" s="138"/>
-      <c r="CL28" s="138"/>
-      <c r="CM28" s="138"/>
-      <c r="CN28" s="138"/>
-      <c r="CO28" s="138"/>
-      <c r="CP28" s="138"/>
-      <c r="CQ28" s="138"/>
-      <c r="CR28" s="138"/>
-      <c r="CS28" s="138"/>
-      <c r="CT28" s="138"/>
-      <c r="CU28" s="138"/>
-      <c r="CV28" s="138"/>
-      <c r="CW28" s="138"/>
-      <c r="CX28" s="138"/>
-      <c r="CY28" s="138"/>
-      <c r="CZ28" s="138"/>
-      <c r="DA28" s="138"/>
-      <c r="DB28" s="138"/>
-      <c r="DC28" s="138"/>
-      <c r="DD28" s="138"/>
-      <c r="DE28" s="138"/>
-      <c r="DF28" s="138"/>
-      <c r="DG28" s="138"/>
-      <c r="DH28" s="138"/>
-      <c r="DI28" s="138"/>
-      <c r="DJ28" s="138"/>
-      <c r="DK28" s="138"/>
-      <c r="DL28" s="138"/>
-      <c r="DM28" s="138"/>
-      <c r="DN28" s="138"/>
-      <c r="DO28" s="138"/>
-      <c r="DP28" s="138"/>
-      <c r="DQ28" s="138"/>
-      <c r="DR28" s="138"/>
-      <c r="DS28" s="138"/>
-      <c r="DT28" s="138"/>
-      <c r="DU28" s="138"/>
-      <c r="DV28" s="138"/>
-      <c r="DW28" s="138"/>
-      <c r="DX28" s="138"/>
-      <c r="DY28" s="138"/>
-      <c r="DZ28" s="138"/>
-      <c r="EA28" s="138"/>
-      <c r="EB28" s="138"/>
-      <c r="EC28" s="138"/>
-      <c r="ED28" s="138"/>
-      <c r="EE28" s="138"/>
-      <c r="EF28" s="138"/>
-      <c r="EG28" s="138"/>
-      <c r="EH28" s="138"/>
-      <c r="EI28" s="138"/>
-      <c r="EJ28" s="138"/>
-      <c r="EK28" s="138"/>
-      <c r="EL28" s="138"/>
-      <c r="EM28" s="138"/>
-      <c r="EN28" s="138"/>
-      <c r="EO28" s="138"/>
-      <c r="EP28" s="138"/>
-      <c r="EQ28" s="138"/>
-      <c r="ER28" s="138"/>
-      <c r="ES28" s="138"/>
-      <c r="ET28" s="138"/>
-      <c r="EU28" s="138"/>
-      <c r="EV28" s="138"/>
-      <c r="EW28" s="138"/>
-      <c r="EX28" s="138"/>
-      <c r="EY28" s="138"/>
-      <c r="EZ28" s="138"/>
-      <c r="FA28" s="138"/>
-      <c r="FB28" s="138"/>
-      <c r="FC28" s="138"/>
-      <c r="FD28" s="138"/>
-      <c r="FE28" s="138"/>
-      <c r="FF28" s="138"/>
-      <c r="FG28" s="138"/>
-      <c r="FH28" s="138"/>
-      <c r="FI28" s="138"/>
-      <c r="FJ28" s="138"/>
-      <c r="FK28" s="138"/>
-      <c r="FL28" s="138"/>
-      <c r="FM28" s="138"/>
-      <c r="FN28" s="138"/>
-      <c r="FO28" s="138"/>
-      <c r="FP28" s="138"/>
-      <c r="FQ28" s="138"/>
-      <c r="FR28" s="138"/>
-      <c r="FS28" s="138"/>
-      <c r="FT28" s="138"/>
-      <c r="FU28" s="138"/>
-      <c r="FV28" s="138"/>
-      <c r="FW28" s="138"/>
-      <c r="FX28" s="138"/>
-      <c r="FY28" s="138"/>
-      <c r="FZ28" s="138"/>
-      <c r="GA28" s="138"/>
-      <c r="GB28" s="138"/>
-      <c r="GC28" s="138"/>
-      <c r="GD28" s="138"/>
-      <c r="GE28" s="138"/>
-      <c r="GF28" s="138"/>
-      <c r="GG28" s="138"/>
-      <c r="GH28" s="138"/>
-      <c r="GI28" s="138"/>
-      <c r="GJ28" s="138"/>
-      <c r="GK28" s="138"/>
-      <c r="GL28" s="138"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="156"/>
+      <c r="AH28" s="156"/>
+      <c r="AI28" s="156"/>
+      <c r="AJ28" s="156"/>
+      <c r="AK28" s="156"/>
+      <c r="AL28" s="156"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="156"/>
+      <c r="AO28" s="156"/>
+      <c r="AP28" s="156"/>
+      <c r="AQ28" s="156"/>
+      <c r="AR28" s="156"/>
+      <c r="AS28" s="156"/>
+      <c r="AT28" s="156"/>
+      <c r="AU28" s="156"/>
+      <c r="AV28" s="156"/>
+      <c r="AW28" s="156"/>
+      <c r="AX28" s="156"/>
+      <c r="AY28" s="156"/>
+      <c r="AZ28" s="156"/>
+      <c r="BA28" s="156"/>
+      <c r="BB28" s="156"/>
+      <c r="BC28" s="156"/>
+      <c r="BD28" s="156"/>
+      <c r="BE28" s="156"/>
+      <c r="BF28" s="156"/>
+      <c r="BG28" s="156"/>
+      <c r="BH28" s="156"/>
+      <c r="BI28" s="156"/>
+      <c r="BJ28" s="156"/>
+      <c r="BK28" s="156"/>
+      <c r="BL28" s="156"/>
+      <c r="BM28" s="156"/>
+      <c r="BN28" s="156"/>
+      <c r="BO28" s="156"/>
+      <c r="BP28" s="156"/>
+      <c r="BQ28" s="156"/>
+      <c r="BR28" s="156"/>
+      <c r="BS28" s="156"/>
+      <c r="BT28" s="156"/>
+      <c r="BU28" s="156"/>
+      <c r="BV28" s="156"/>
+      <c r="BW28" s="156"/>
+      <c r="BX28" s="156"/>
+      <c r="BY28" s="156"/>
+      <c r="BZ28" s="156"/>
+      <c r="CA28" s="156"/>
+      <c r="CB28" s="156"/>
+      <c r="CC28" s="156"/>
+      <c r="CD28" s="156"/>
+      <c r="CE28" s="156"/>
+      <c r="CF28" s="156"/>
+      <c r="CG28" s="156"/>
+      <c r="CH28" s="156"/>
+      <c r="CI28" s="156"/>
+      <c r="CJ28" s="156"/>
+      <c r="CK28" s="156"/>
+      <c r="CL28" s="156"/>
+      <c r="CM28" s="156"/>
+      <c r="CN28" s="156"/>
+      <c r="CO28" s="156"/>
+      <c r="CP28" s="156"/>
+      <c r="CQ28" s="156"/>
+      <c r="CR28" s="156"/>
+      <c r="CS28" s="156"/>
+      <c r="CT28" s="156"/>
+      <c r="CU28" s="156"/>
+      <c r="CV28" s="156"/>
+      <c r="CW28" s="156"/>
+      <c r="CX28" s="156"/>
+      <c r="CY28" s="156"/>
+      <c r="CZ28" s="156"/>
+      <c r="DA28" s="156"/>
+      <c r="DB28" s="156"/>
+      <c r="DC28" s="156"/>
+      <c r="DD28" s="156"/>
+      <c r="DE28" s="156"/>
+      <c r="DF28" s="156"/>
+      <c r="DG28" s="156"/>
+      <c r="DH28" s="156"/>
+      <c r="DI28" s="156"/>
+      <c r="DJ28" s="156"/>
+      <c r="DK28" s="156"/>
+      <c r="DL28" s="156"/>
+      <c r="DM28" s="156"/>
+      <c r="DN28" s="156"/>
+      <c r="DO28" s="156"/>
+      <c r="DP28" s="156"/>
+      <c r="DQ28" s="156"/>
+      <c r="DR28" s="156"/>
+      <c r="DS28" s="156"/>
+      <c r="DT28" s="156"/>
+      <c r="DU28" s="156"/>
+      <c r="DV28" s="156"/>
+      <c r="DW28" s="156"/>
+      <c r="DX28" s="156"/>
+      <c r="DY28" s="156"/>
+      <c r="DZ28" s="156"/>
+      <c r="EA28" s="156"/>
+      <c r="EB28" s="156"/>
+      <c r="EC28" s="156"/>
+      <c r="ED28" s="156"/>
+      <c r="EE28" s="156"/>
+      <c r="EF28" s="156"/>
+      <c r="EG28" s="156"/>
+      <c r="EH28" s="156"/>
+      <c r="EI28" s="156"/>
+      <c r="EJ28" s="156"/>
+      <c r="EK28" s="156"/>
+      <c r="EL28" s="156"/>
+      <c r="EM28" s="156"/>
+      <c r="EN28" s="156"/>
+      <c r="EO28" s="156"/>
+      <c r="EP28" s="156"/>
+      <c r="EQ28" s="156"/>
+      <c r="ER28" s="156"/>
+      <c r="ES28" s="156"/>
+      <c r="ET28" s="156"/>
+      <c r="EU28" s="156"/>
+      <c r="EV28" s="156"/>
+      <c r="EW28" s="156"/>
+      <c r="EX28" s="156"/>
+      <c r="EY28" s="156"/>
+      <c r="EZ28" s="156"/>
+      <c r="FA28" s="156"/>
+      <c r="FB28" s="156"/>
+      <c r="FC28" s="156"/>
+      <c r="FD28" s="156"/>
+      <c r="FE28" s="156"/>
+      <c r="FF28" s="156"/>
+      <c r="FG28" s="156"/>
+      <c r="FH28" s="156"/>
+      <c r="FI28" s="156"/>
+      <c r="FJ28" s="156"/>
+      <c r="FK28" s="156"/>
+      <c r="FL28" s="156"/>
+      <c r="FM28" s="156"/>
+      <c r="FN28" s="156"/>
+      <c r="FO28" s="156"/>
+      <c r="FP28" s="156"/>
+      <c r="FQ28" s="156"/>
+      <c r="FR28" s="156"/>
+      <c r="FS28" s="156"/>
+      <c r="FT28" s="156"/>
+      <c r="FU28" s="156"/>
+      <c r="FV28" s="156"/>
+      <c r="FW28" s="156"/>
+      <c r="FX28" s="156"/>
+      <c r="FY28" s="156"/>
+      <c r="FZ28" s="156"/>
+      <c r="GA28" s="156"/>
+      <c r="GB28" s="156"/>
+      <c r="GC28" s="156"/>
+      <c r="GD28" s="156"/>
+      <c r="GE28" s="156"/>
+      <c r="GF28" s="156"/>
+      <c r="GG28" s="156"/>
+      <c r="GH28" s="156"/>
+      <c r="GI28" s="156"/>
+      <c r="GJ28" s="156"/>
+      <c r="GK28" s="156"/>
+      <c r="GL28" s="156"/>
       <c r="GM28" s="120"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="139"/>
-      <c r="Q29" s="139"/>
-      <c r="R29" s="139"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="155"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="137"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
       <c r="K30" s="121"/>
       <c r="L30" s="121"/>
       <c r="M30" s="121"/>
@@ -4930,16 +4924,16 @@
       <c r="R30" s="121"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="137"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
       <c r="K31" s="121"/>
       <c r="L31" s="121"/>
       <c r="M31" s="121"/>
@@ -4951,6 +4945,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4964,28 +4980,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5524,7 +5518,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:J34"/>
+      <selection activeCell="E5" sqref="E5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -5540,10 +5534,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5554,7 +5548,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5570,8 +5564,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5610,14 +5604,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="128">
@@ -5632,14 +5626,14 @@
       <c r="D5" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="168" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
+      <c r="E5" s="167" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="91">
@@ -5650,12 +5644,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="92">
@@ -5666,12 +5660,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="162"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="93">
@@ -5682,12 +5676,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="164"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="94">
@@ -5698,12 +5692,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="95">
@@ -5714,12 +5708,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="161"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="96">
@@ -5730,12 +5724,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="162"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="161"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="97">
@@ -5746,12 +5740,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="98">
@@ -5762,12 +5756,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="162"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="161"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="99">
@@ -5778,12 +5772,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="161"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5794,12 +5788,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="91">
@@ -5810,12 +5804,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="92">
@@ -5826,12 +5820,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="93">
@@ -5842,12 +5836,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="94">
@@ -5858,12 +5852,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="95">
@@ -5874,12 +5868,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="96">
@@ -5890,12 +5884,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="97">
@@ -5906,12 +5900,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="98">
@@ -5922,12 +5916,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="99">
@@ -5938,12 +5932,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5954,12 +5948,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="159"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5970,12 +5964,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="91">
@@ -5986,12 +5980,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="92">
@@ -6002,12 +5996,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="93">
@@ -6018,12 +6012,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="159"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="94">
@@ -6034,12 +6028,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="95">
@@ -6050,12 +6044,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="159"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="96">
@@ -6066,12 +6060,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="97">
@@ -6082,12 +6076,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="98">
@@ -6098,12 +6092,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="159"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="99">
@@ -6114,12 +6108,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="159"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6130,12 +6124,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="91">
@@ -6146,12 +6140,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="159"/>
-      <c r="I37" s="159"/>
-      <c r="J37" s="159"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="92">
@@ -6162,12 +6156,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="159"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="159"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="93">
@@ -6178,12 +6172,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="159"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="159"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="94">
@@ -6194,12 +6188,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="159"/>
-      <c r="I40" s="159"/>
-      <c r="J40" s="159"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="172"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="95">
@@ -6210,12 +6204,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="159"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="96">
@@ -6226,23 +6220,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="159"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="159"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6258,23 +6261,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6300,7 +6294,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6319,10 +6313,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6352,8 +6346,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6408,7 +6402,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="182" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J5" s="183"/>
     </row>
@@ -6496,7 +6490,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="176" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J12" s="177"/>
     </row>
@@ -6929,13 +6923,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6948,7 +6942,7 @@
       </c>
       <c r="I1" s="189"/>
       <c r="J1" s="190" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K1" s="191"/>
       <c r="L1" s="192"/>
@@ -6967,11 +6961,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7008,7 +7002,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>163</v>
@@ -7250,10 +7244,10 @@
         <v>175</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
@@ -7288,10 +7282,10 @@
         <v>176</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J11" s="62">
         <v>50</v>
@@ -7317,13 +7311,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G12" s="133" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>171</v>
@@ -7342,7 +7336,7 @@
       <c r="N12" s="133"/>
       <c r="O12" s="133"/>
       <c r="P12" s="133" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7359,13 +7353,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G13" s="133" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>171</v>
@@ -7397,13 +7391,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G14" s="133" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H14" s="40" t="s">
         <v>171</v>
@@ -7422,7 +7416,7 @@
       <c r="N14" s="133"/>
       <c r="O14" s="133"/>
       <c r="P14" s="133" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7439,13 +7433,13 @@
         <v>11</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G15" s="133" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H15" s="40" t="s">
         <v>171</v>
@@ -7509,10 +7503,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F17" s="88" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G17" s="84"/>
       <c r="H17" s="40" t="s">
@@ -7526,7 +7520,7 @@
       <c r="N17" s="69"/>
       <c r="O17" s="69"/>
       <c r="P17" s="88" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8481,7 +8475,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>32</v>
@@ -9419,7 +9413,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:K5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9445,7 +9439,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="135"/>
@@ -9479,7 +9473,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="196"/>
+      <c r="A2" s="199"/>
       <c r="B2" s="136"/>
       <c r="C2" s="125"/>
       <c r="D2" s="31" t="s">
@@ -9515,7 +9509,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C4" s="122" t="s">
         <v>32</v>
@@ -9529,15 +9523,15 @@
       <c r="F4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="166" t="s">
+      <c r="G4" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166" t="s">
+      <c r="H4" s="165"/>
+      <c r="I4" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="33">
@@ -9551,18 +9545,18 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="131" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="196" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="197"/>
+      <c r="I5" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="193" t="s">
-        <v>241</v>
-      </c>
-      <c r="H5" s="194"/>
-      <c r="I5" s="197" t="s">
-        <v>222</v>
-      </c>
-      <c r="J5" s="198"/>
-      <c r="K5" s="199"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="195"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="33">
@@ -9579,15 +9573,15 @@
         <v>134</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="193" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="194"/>
-      <c r="I6" s="197" t="s">
+      <c r="G6" s="196" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" s="197"/>
+      <c r="I6" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="J6" s="198"/>
-      <c r="K6" s="199"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="195"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9598,11 +9592,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="195"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9613,11 +9607,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="199"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="195"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9628,11 +9622,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="199"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="195"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9643,11 +9637,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="199"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="195"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9658,11 +9652,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="199"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="195"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9673,11 +9667,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="199"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="195"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9688,11 +9682,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="199"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="195"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9703,11 +9697,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="199"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="195"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9718,11 +9712,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="199"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="195"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9733,11 +9727,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="199"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="195"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9748,11 +9742,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="199"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="195"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9763,11 +9757,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="199"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="195"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9778,11 +9772,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="199"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="195"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9793,11 +9787,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="198"/>
-      <c r="K20" s="199"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="195"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9808,11 +9802,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="198"/>
-      <c r="K21" s="199"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="195"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9823,11 +9817,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="199"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="195"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9838,11 +9832,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="199"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="195"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9853,11 +9847,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="198"/>
-      <c r="K24" s="199"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="195"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9868,11 +9862,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="199"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="195"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9883,11 +9877,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="198"/>
-      <c r="K26" s="199"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="195"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9898,11 +9892,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="198"/>
-      <c r="K27" s="199"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="195"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9913,11 +9907,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="198"/>
-      <c r="K28" s="199"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="195"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9928,11 +9922,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="198"/>
-      <c r="K29" s="199"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="195"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9943,11 +9937,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="198"/>
-      <c r="K30" s="199"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="195"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9958,11 +9952,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="198"/>
-      <c r="K31" s="199"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="195"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9973,11 +9967,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="198"/>
-      <c r="K32" s="199"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="195"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9995,11 +9989,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="198"/>
-      <c r="K33" s="199"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="195"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -10017,11 +10011,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="198"/>
-      <c r="K34" s="199"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="195"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -10039,11 +10033,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="198"/>
-      <c r="K35" s="199"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="195"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -10061,11 +10055,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="197"/>
-      <c r="J36" s="198"/>
-      <c r="K36" s="199"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="195"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -10083,11 +10077,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="162"/>
-      <c r="I37" s="197"/>
-      <c r="J37" s="198"/>
-      <c r="K37" s="199"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="195"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -10105,11 +10099,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="197"/>
-      <c r="J38" s="198"/>
-      <c r="K38" s="199"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="195"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -10127,11 +10121,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="198"/>
-      <c r="K39" s="199"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="195"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10149,11 +10143,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="162"/>
-      <c r="I40" s="197"/>
-      <c r="J40" s="198"/>
-      <c r="K40" s="199"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="194"/>
+      <c r="K40" s="195"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10171,11 +10165,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="197"/>
-      <c r="J41" s="198"/>
-      <c r="K41" s="199"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="193"/>
+      <c r="J41" s="194"/>
+      <c r="K41" s="195"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10193,11 +10187,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="198"/>
-      <c r="K42" s="199"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="194"/>
+      <c r="K42" s="195"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10215,11 +10209,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="162"/>
-      <c r="I43" s="197"/>
-      <c r="J43" s="198"/>
-      <c r="K43" s="199"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="194"/>
+      <c r="K43" s="195"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10237,11 +10231,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="160"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="197"/>
-      <c r="J44" s="198"/>
-      <c r="K44" s="199"/>
+      <c r="G44" s="159"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="193"/>
+      <c r="J44" s="194"/>
+      <c r="K44" s="195"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10259,11 +10253,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="160"/>
-      <c r="H45" s="162"/>
-      <c r="I45" s="197"/>
-      <c r="J45" s="198"/>
-      <c r="K45" s="199"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="193"/>
+      <c r="J45" s="194"/>
+      <c r="K45" s="195"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10281,11 +10275,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="162"/>
-      <c r="I46" s="197"/>
-      <c r="J46" s="198"/>
-      <c r="K46" s="199"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="194"/>
+      <c r="K46" s="195"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10303,11 +10297,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="160"/>
-      <c r="H47" s="162"/>
-      <c r="I47" s="197"/>
-      <c r="J47" s="198"/>
-      <c r="K47" s="199"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="194"/>
+      <c r="K47" s="195"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10325,11 +10319,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="162"/>
-      <c r="I48" s="197"/>
-      <c r="J48" s="198"/>
-      <c r="K48" s="199"/>
+      <c r="G48" s="159"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="194"/>
+      <c r="K48" s="195"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10347,11 +10341,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="162"/>
-      <c r="I49" s="197"/>
-      <c r="J49" s="198"/>
-      <c r="K49" s="199"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="161"/>
+      <c r="I49" s="193"/>
+      <c r="J49" s="194"/>
+      <c r="K49" s="195"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10369,11 +10363,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="162"/>
-      <c r="I50" s="197"/>
-      <c r="J50" s="198"/>
-      <c r="K50" s="199"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="193"/>
+      <c r="J50" s="194"/>
+      <c r="K50" s="195"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10391,11 +10385,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="198"/>
-      <c r="K51" s="199"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="194"/>
+      <c r="K51" s="195"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10413,11 +10407,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="162"/>
-      <c r="I52" s="197"/>
-      <c r="J52" s="198"/>
-      <c r="K52" s="199"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="193"/>
+      <c r="J52" s="194"/>
+      <c r="K52" s="195"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10435,11 +10429,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="162"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="198"/>
-      <c r="K53" s="199"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="193"/>
+      <c r="J53" s="194"/>
+      <c r="K53" s="195"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10457,11 +10451,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="162"/>
-      <c r="I54" s="197"/>
-      <c r="J54" s="198"/>
-      <c r="K54" s="199"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="194"/>
+      <c r="K54" s="195"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10479,11 +10473,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="162"/>
-      <c r="I55" s="197"/>
-      <c r="J55" s="198"/>
-      <c r="K55" s="199"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="193"/>
+      <c r="J55" s="194"/>
+      <c r="K55" s="195"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10501,11 +10495,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="197"/>
-      <c r="J56" s="198"/>
-      <c r="K56" s="199"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="194"/>
+      <c r="K56" s="195"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10517,6 +10511,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
@@ -10531,99 +10618,6 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10641,8 +10635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:N9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="K1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10671,16 +10665,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10715,14 +10709,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10761,7 +10755,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C4" s="123" t="s">
         <v>163</v>
@@ -10825,7 +10819,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
       <c r="G5" s="88" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>185</v>
@@ -10852,10 +10846,10 @@
         <v>106</v>
       </c>
       <c r="R5" s="75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -10874,7 +10868,7 @@
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
       <c r="G6" s="88" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>185</v>
@@ -10898,13 +10892,13 @@
         <v>188</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R6" s="75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -10923,7 +10917,7 @@
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
       <c r="G7" s="88" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>185</v>
@@ -10932,10 +10926,10 @@
         <v>55</v>
       </c>
       <c r="J7" s="132" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K7" s="200" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L7" s="201"/>
       <c r="M7" s="201"/>
@@ -10948,10 +10942,10 @@
       </c>
       <c r="Q7" s="76"/>
       <c r="R7" s="75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S7" s="82" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
@@ -10970,7 +10964,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
       <c r="G8" s="88" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>185</v>
@@ -10979,10 +10973,10 @@
         <v>55</v>
       </c>
       <c r="J8" s="132" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K8" s="200" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L8" s="201"/>
       <c r="M8" s="201"/>
@@ -10995,10 +10989,10 @@
       </c>
       <c r="Q8" s="76"/>
       <c r="R8" s="75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S8" s="82" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
@@ -11017,7 +11011,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
       <c r="G9" s="88" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H9" s="63" t="s">
         <v>185</v>
@@ -11026,28 +11020,28 @@
         <v>55</v>
       </c>
       <c r="J9" s="132" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K9" s="200" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L9" s="201"/>
       <c r="M9" s="201"/>
       <c r="N9" s="202"/>
       <c r="O9" s="126" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P9" s="126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q9" s="76" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="R9" s="75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S9" s="133" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
@@ -13121,47 +13115,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
@@ -13178,43 +13168,47 @@
     <mergeCell ref="K57:N57"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13244,7 +13238,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13260,10 +13254,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13293,8 +13287,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13480,7 +13474,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13551,7 +13545,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -13589,10 +13583,10 @@
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="73" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -13605,10 +13599,10 @@
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -13878,7 +13872,7 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="80" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C49" s="86"/>
       <c r="D49" s="43"/>
@@ -14376,10 +14370,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14409,8 +14403,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -14436,7 +14430,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
@@ -2384,24 +2384,25 @@
 @@FromEmployeeID @@ToEmployeeID Biến môi trường</t>
   </si>
   <si>
-    <t>Menu [Báo cáo] -&gt; MenuItem[Báo cáo Thống kê] 
+    <t>Nhận tham số @FormID từ màn hình Báo cáo biểu đồ CRMF3000 để mởi màn hình CRMF3010</t>
+  </si>
+  <si>
+    <t>Đổ nguồn DropdownCheckList đơn vị</t>
+  </si>
+  <si>
+    <t>Đổ nguồn DropdownCheckList chọn kỳ</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0003, @SQL0004 phụ thuộc vào @DivisionID của câu @SQL0001</t>
+  </si>
+  <si>
+    <t>@FormID</t>
+  </si>
+  <si>
+    <t>Menu [Báo cáo]
+ -&gt; MenuItem[Báo cáo biểu đồ_CRMF3000] 
 -&gt; Click vào Link Báo cáo KH mới theo nhân viên 
 -&gt;Pop [Báo cáo khách hàng mới theo nhân viên_CRMF3010]</t>
-  </si>
-  <si>
-    <t>Nhận tham số @FormID từ màn hình Báo cáo biểu đồ CRMF3000 để mởi màn hình CRMF3010</t>
-  </si>
-  <si>
-    <t>Đổ nguồn DropdownCheckList đơn vị</t>
-  </si>
-  <si>
-    <t>Đổ nguồn DropdownCheckList chọn kỳ</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0003, @SQL0004 phụ thuộc vào @DivisionID của câu @SQL0001</t>
-  </si>
-  <si>
-    <t>@FormID</t>
   </si>
 </sst>
 </file>
@@ -3269,9 +3270,27 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3317,23 +3336,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3374,9 +3378,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3438,6 +3439,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3445,18 +3458,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4407,65 +4408,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="142"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="144" t="s">
+      <c r="A1" s="148"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="143" t="s">
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143" t="s">
+      <c r="H1" s="149"/>
+      <c r="I1" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="143"/>
+      <c r="J1" s="149"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="143" t="s">
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="139" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="145" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="146"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="117"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="118"/>
       <c r="L13" s="118"/>
       <c r="M13" s="118"/>
@@ -4476,56 +4477,56 @@
       <c r="R13" s="118"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="141"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="141"/>
+      <c r="R15" s="141"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
       <c r="M16" s="119"/>
@@ -4536,384 +4537,384 @@
       <c r="R16" s="119"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="141"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="137"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="141"/>
+      <c r="R20" s="141"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="137"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="141"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="153"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="139"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="157"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="156"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="156"/>
-      <c r="AH28" s="156"/>
-      <c r="AI28" s="156"/>
-      <c r="AJ28" s="156"/>
-      <c r="AK28" s="156"/>
-      <c r="AL28" s="156"/>
-      <c r="AM28" s="156"/>
-      <c r="AN28" s="156"/>
-      <c r="AO28" s="156"/>
-      <c r="AP28" s="156"/>
-      <c r="AQ28" s="156"/>
-      <c r="AR28" s="156"/>
-      <c r="AS28" s="156"/>
-      <c r="AT28" s="156"/>
-      <c r="AU28" s="156"/>
-      <c r="AV28" s="156"/>
-      <c r="AW28" s="156"/>
-      <c r="AX28" s="156"/>
-      <c r="AY28" s="156"/>
-      <c r="AZ28" s="156"/>
-      <c r="BA28" s="156"/>
-      <c r="BB28" s="156"/>
-      <c r="BC28" s="156"/>
-      <c r="BD28" s="156"/>
-      <c r="BE28" s="156"/>
-      <c r="BF28" s="156"/>
-      <c r="BG28" s="156"/>
-      <c r="BH28" s="156"/>
-      <c r="BI28" s="156"/>
-      <c r="BJ28" s="156"/>
-      <c r="BK28" s="156"/>
-      <c r="BL28" s="156"/>
-      <c r="BM28" s="156"/>
-      <c r="BN28" s="156"/>
-      <c r="BO28" s="156"/>
-      <c r="BP28" s="156"/>
-      <c r="BQ28" s="156"/>
-      <c r="BR28" s="156"/>
-      <c r="BS28" s="156"/>
-      <c r="BT28" s="156"/>
-      <c r="BU28" s="156"/>
-      <c r="BV28" s="156"/>
-      <c r="BW28" s="156"/>
-      <c r="BX28" s="156"/>
-      <c r="BY28" s="156"/>
-      <c r="BZ28" s="156"/>
-      <c r="CA28" s="156"/>
-      <c r="CB28" s="156"/>
-      <c r="CC28" s="156"/>
-      <c r="CD28" s="156"/>
-      <c r="CE28" s="156"/>
-      <c r="CF28" s="156"/>
-      <c r="CG28" s="156"/>
-      <c r="CH28" s="156"/>
-      <c r="CI28" s="156"/>
-      <c r="CJ28" s="156"/>
-      <c r="CK28" s="156"/>
-      <c r="CL28" s="156"/>
-      <c r="CM28" s="156"/>
-      <c r="CN28" s="156"/>
-      <c r="CO28" s="156"/>
-      <c r="CP28" s="156"/>
-      <c r="CQ28" s="156"/>
-      <c r="CR28" s="156"/>
-      <c r="CS28" s="156"/>
-      <c r="CT28" s="156"/>
-      <c r="CU28" s="156"/>
-      <c r="CV28" s="156"/>
-      <c r="CW28" s="156"/>
-      <c r="CX28" s="156"/>
-      <c r="CY28" s="156"/>
-      <c r="CZ28" s="156"/>
-      <c r="DA28" s="156"/>
-      <c r="DB28" s="156"/>
-      <c r="DC28" s="156"/>
-      <c r="DD28" s="156"/>
-      <c r="DE28" s="156"/>
-      <c r="DF28" s="156"/>
-      <c r="DG28" s="156"/>
-      <c r="DH28" s="156"/>
-      <c r="DI28" s="156"/>
-      <c r="DJ28" s="156"/>
-      <c r="DK28" s="156"/>
-      <c r="DL28" s="156"/>
-      <c r="DM28" s="156"/>
-      <c r="DN28" s="156"/>
-      <c r="DO28" s="156"/>
-      <c r="DP28" s="156"/>
-      <c r="DQ28" s="156"/>
-      <c r="DR28" s="156"/>
-      <c r="DS28" s="156"/>
-      <c r="DT28" s="156"/>
-      <c r="DU28" s="156"/>
-      <c r="DV28" s="156"/>
-      <c r="DW28" s="156"/>
-      <c r="DX28" s="156"/>
-      <c r="DY28" s="156"/>
-      <c r="DZ28" s="156"/>
-      <c r="EA28" s="156"/>
-      <c r="EB28" s="156"/>
-      <c r="EC28" s="156"/>
-      <c r="ED28" s="156"/>
-      <c r="EE28" s="156"/>
-      <c r="EF28" s="156"/>
-      <c r="EG28" s="156"/>
-      <c r="EH28" s="156"/>
-      <c r="EI28" s="156"/>
-      <c r="EJ28" s="156"/>
-      <c r="EK28" s="156"/>
-      <c r="EL28" s="156"/>
-      <c r="EM28" s="156"/>
-      <c r="EN28" s="156"/>
-      <c r="EO28" s="156"/>
-      <c r="EP28" s="156"/>
-      <c r="EQ28" s="156"/>
-      <c r="ER28" s="156"/>
-      <c r="ES28" s="156"/>
-      <c r="ET28" s="156"/>
-      <c r="EU28" s="156"/>
-      <c r="EV28" s="156"/>
-      <c r="EW28" s="156"/>
-      <c r="EX28" s="156"/>
-      <c r="EY28" s="156"/>
-      <c r="EZ28" s="156"/>
-      <c r="FA28" s="156"/>
-      <c r="FB28" s="156"/>
-      <c r="FC28" s="156"/>
-      <c r="FD28" s="156"/>
-      <c r="FE28" s="156"/>
-      <c r="FF28" s="156"/>
-      <c r="FG28" s="156"/>
-      <c r="FH28" s="156"/>
-      <c r="FI28" s="156"/>
-      <c r="FJ28" s="156"/>
-      <c r="FK28" s="156"/>
-      <c r="FL28" s="156"/>
-      <c r="FM28" s="156"/>
-      <c r="FN28" s="156"/>
-      <c r="FO28" s="156"/>
-      <c r="FP28" s="156"/>
-      <c r="FQ28" s="156"/>
-      <c r="FR28" s="156"/>
-      <c r="FS28" s="156"/>
-      <c r="FT28" s="156"/>
-      <c r="FU28" s="156"/>
-      <c r="FV28" s="156"/>
-      <c r="FW28" s="156"/>
-      <c r="FX28" s="156"/>
-      <c r="FY28" s="156"/>
-      <c r="FZ28" s="156"/>
-      <c r="GA28" s="156"/>
-      <c r="GB28" s="156"/>
-      <c r="GC28" s="156"/>
-      <c r="GD28" s="156"/>
-      <c r="GE28" s="156"/>
-      <c r="GF28" s="156"/>
-      <c r="GG28" s="156"/>
-      <c r="GH28" s="156"/>
-      <c r="GI28" s="156"/>
-      <c r="GJ28" s="156"/>
-      <c r="GK28" s="156"/>
-      <c r="GL28" s="156"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="138"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="138"/>
+      <c r="Z28" s="138"/>
+      <c r="AA28" s="138"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="138"/>
+      <c r="AJ28" s="138"/>
+      <c r="AK28" s="138"/>
+      <c r="AL28" s="138"/>
+      <c r="AM28" s="138"/>
+      <c r="AN28" s="138"/>
+      <c r="AO28" s="138"/>
+      <c r="AP28" s="138"/>
+      <c r="AQ28" s="138"/>
+      <c r="AR28" s="138"/>
+      <c r="AS28" s="138"/>
+      <c r="AT28" s="138"/>
+      <c r="AU28" s="138"/>
+      <c r="AV28" s="138"/>
+      <c r="AW28" s="138"/>
+      <c r="AX28" s="138"/>
+      <c r="AY28" s="138"/>
+      <c r="AZ28" s="138"/>
+      <c r="BA28" s="138"/>
+      <c r="BB28" s="138"/>
+      <c r="BC28" s="138"/>
+      <c r="BD28" s="138"/>
+      <c r="BE28" s="138"/>
+      <c r="BF28" s="138"/>
+      <c r="BG28" s="138"/>
+      <c r="BH28" s="138"/>
+      <c r="BI28" s="138"/>
+      <c r="BJ28" s="138"/>
+      <c r="BK28" s="138"/>
+      <c r="BL28" s="138"/>
+      <c r="BM28" s="138"/>
+      <c r="BN28" s="138"/>
+      <c r="BO28" s="138"/>
+      <c r="BP28" s="138"/>
+      <c r="BQ28" s="138"/>
+      <c r="BR28" s="138"/>
+      <c r="BS28" s="138"/>
+      <c r="BT28" s="138"/>
+      <c r="BU28" s="138"/>
+      <c r="BV28" s="138"/>
+      <c r="BW28" s="138"/>
+      <c r="BX28" s="138"/>
+      <c r="BY28" s="138"/>
+      <c r="BZ28" s="138"/>
+      <c r="CA28" s="138"/>
+      <c r="CB28" s="138"/>
+      <c r="CC28" s="138"/>
+      <c r="CD28" s="138"/>
+      <c r="CE28" s="138"/>
+      <c r="CF28" s="138"/>
+      <c r="CG28" s="138"/>
+      <c r="CH28" s="138"/>
+      <c r="CI28" s="138"/>
+      <c r="CJ28" s="138"/>
+      <c r="CK28" s="138"/>
+      <c r="CL28" s="138"/>
+      <c r="CM28" s="138"/>
+      <c r="CN28" s="138"/>
+      <c r="CO28" s="138"/>
+      <c r="CP28" s="138"/>
+      <c r="CQ28" s="138"/>
+      <c r="CR28" s="138"/>
+      <c r="CS28" s="138"/>
+      <c r="CT28" s="138"/>
+      <c r="CU28" s="138"/>
+      <c r="CV28" s="138"/>
+      <c r="CW28" s="138"/>
+      <c r="CX28" s="138"/>
+      <c r="CY28" s="138"/>
+      <c r="CZ28" s="138"/>
+      <c r="DA28" s="138"/>
+      <c r="DB28" s="138"/>
+      <c r="DC28" s="138"/>
+      <c r="DD28" s="138"/>
+      <c r="DE28" s="138"/>
+      <c r="DF28" s="138"/>
+      <c r="DG28" s="138"/>
+      <c r="DH28" s="138"/>
+      <c r="DI28" s="138"/>
+      <c r="DJ28" s="138"/>
+      <c r="DK28" s="138"/>
+      <c r="DL28" s="138"/>
+      <c r="DM28" s="138"/>
+      <c r="DN28" s="138"/>
+      <c r="DO28" s="138"/>
+      <c r="DP28" s="138"/>
+      <c r="DQ28" s="138"/>
+      <c r="DR28" s="138"/>
+      <c r="DS28" s="138"/>
+      <c r="DT28" s="138"/>
+      <c r="DU28" s="138"/>
+      <c r="DV28" s="138"/>
+      <c r="DW28" s="138"/>
+      <c r="DX28" s="138"/>
+      <c r="DY28" s="138"/>
+      <c r="DZ28" s="138"/>
+      <c r="EA28" s="138"/>
+      <c r="EB28" s="138"/>
+      <c r="EC28" s="138"/>
+      <c r="ED28" s="138"/>
+      <c r="EE28" s="138"/>
+      <c r="EF28" s="138"/>
+      <c r="EG28" s="138"/>
+      <c r="EH28" s="138"/>
+      <c r="EI28" s="138"/>
+      <c r="EJ28" s="138"/>
+      <c r="EK28" s="138"/>
+      <c r="EL28" s="138"/>
+      <c r="EM28" s="138"/>
+      <c r="EN28" s="138"/>
+      <c r="EO28" s="138"/>
+      <c r="EP28" s="138"/>
+      <c r="EQ28" s="138"/>
+      <c r="ER28" s="138"/>
+      <c r="ES28" s="138"/>
+      <c r="ET28" s="138"/>
+      <c r="EU28" s="138"/>
+      <c r="EV28" s="138"/>
+      <c r="EW28" s="138"/>
+      <c r="EX28" s="138"/>
+      <c r="EY28" s="138"/>
+      <c r="EZ28" s="138"/>
+      <c r="FA28" s="138"/>
+      <c r="FB28" s="138"/>
+      <c r="FC28" s="138"/>
+      <c r="FD28" s="138"/>
+      <c r="FE28" s="138"/>
+      <c r="FF28" s="138"/>
+      <c r="FG28" s="138"/>
+      <c r="FH28" s="138"/>
+      <c r="FI28" s="138"/>
+      <c r="FJ28" s="138"/>
+      <c r="FK28" s="138"/>
+      <c r="FL28" s="138"/>
+      <c r="FM28" s="138"/>
+      <c r="FN28" s="138"/>
+      <c r="FO28" s="138"/>
+      <c r="FP28" s="138"/>
+      <c r="FQ28" s="138"/>
+      <c r="FR28" s="138"/>
+      <c r="FS28" s="138"/>
+      <c r="FT28" s="138"/>
+      <c r="FU28" s="138"/>
+      <c r="FV28" s="138"/>
+      <c r="FW28" s="138"/>
+      <c r="FX28" s="138"/>
+      <c r="FY28" s="138"/>
+      <c r="FZ28" s="138"/>
+      <c r="GA28" s="138"/>
+      <c r="GB28" s="138"/>
+      <c r="GC28" s="138"/>
+      <c r="GD28" s="138"/>
+      <c r="GE28" s="138"/>
+      <c r="GF28" s="138"/>
+      <c r="GG28" s="138"/>
+      <c r="GH28" s="138"/>
+      <c r="GI28" s="138"/>
+      <c r="GJ28" s="138"/>
+      <c r="GK28" s="138"/>
+      <c r="GL28" s="138"/>
       <c r="GM28" s="120"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="155"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="139"/>
+      <c r="R29" s="139"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="158"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
       <c r="K30" s="121"/>
       <c r="L30" s="121"/>
       <c r="M30" s="121"/>
@@ -4924,16 +4925,16 @@
       <c r="R30" s="121"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="158"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
       <c r="K31" s="121"/>
       <c r="L31" s="121"/>
       <c r="M31" s="121"/>
@@ -4945,28 +4946,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4980,6 +4959,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5534,10 +5535,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5564,8 +5565,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5604,14 +5605,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="128">
@@ -5626,14 +5627,14 @@
       <c r="D5" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="E5" s="168" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="91">
@@ -5644,12 +5645,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="92">
@@ -5660,12 +5661,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="93">
@@ -5676,12 +5677,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="94">
@@ -5692,12 +5693,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="162"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="95">
@@ -5708,12 +5709,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="96">
@@ -5724,12 +5725,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="97">
@@ -5740,12 +5741,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="98">
@@ -5756,12 +5757,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="161"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="99">
@@ -5772,12 +5773,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="161"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5788,12 +5789,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="91">
@@ -5804,12 +5805,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="92">
@@ -5820,12 +5821,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="93">
@@ -5836,12 +5837,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="94">
@@ -5852,12 +5853,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="95">
@@ -5868,12 +5869,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="96">
@@ -5884,12 +5885,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="97">
@@ -5900,12 +5901,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="98">
@@ -5916,12 +5917,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="99">
@@ -5932,12 +5933,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5948,12 +5949,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5964,12 +5965,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="91">
@@ -5980,12 +5981,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="92">
@@ -5996,12 +5997,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="93">
@@ -6012,12 +6013,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="94">
@@ -6028,12 +6029,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="95">
@@ -6044,12 +6045,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="96">
@@ -6060,12 +6061,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="97">
@@ -6076,12 +6077,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="98">
@@ -6092,12 +6093,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="99">
@@ -6108,12 +6109,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6124,12 +6125,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="91">
@@ -6140,12 +6141,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="159"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="92">
@@ -6156,12 +6157,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="93">
@@ -6172,12 +6173,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="159"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="94">
@@ -6188,12 +6189,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="159"/>
+      <c r="J40" s="159"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="95">
@@ -6204,12 +6205,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="159"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="96">
@@ -6220,32 +6221,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6261,14 +6253,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6293,8 +6294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J43"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6313,10 +6314,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6346,8 +6347,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6490,7 +6491,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="176" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="J12" s="177"/>
     </row>
@@ -6923,13 +6924,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6961,11 +6962,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9439,7 +9440,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="135"/>
@@ -9473,7 +9474,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
+      <c r="A2" s="196"/>
       <c r="B2" s="136"/>
       <c r="C2" s="125"/>
       <c r="D2" s="31" t="s">
@@ -9523,15 +9524,15 @@
       <c r="F4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165" t="s">
+      <c r="H4" s="166"/>
+      <c r="I4" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="33">
@@ -9545,18 +9546,18 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="131" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="196" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" s="197"/>
-      <c r="I5" s="193" t="s">
+      <c r="G5" s="193" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="194"/>
+      <c r="I5" s="197" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="194"/>
-      <c r="K5" s="195"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="199"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="33">
@@ -9573,15 +9574,15 @@
         <v>134</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="196" t="s">
+      <c r="G6" s="193" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="197"/>
-      <c r="I6" s="193" t="s">
+      <c r="H6" s="194"/>
+      <c r="I6" s="197" t="s">
         <v>181</v>
       </c>
-      <c r="J6" s="194"/>
-      <c r="K6" s="195"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="199"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9592,11 +9593,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="195"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="198"/>
+      <c r="K7" s="199"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9607,11 +9608,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="195"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="199"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9622,11 +9623,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="199"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9637,11 +9638,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="195"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="199"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9652,11 +9653,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="195"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="199"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9667,11 +9668,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="195"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="199"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9682,11 +9683,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="195"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="199"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9697,11 +9698,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="195"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="199"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9712,11 +9713,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="195"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="199"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9727,11 +9728,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="195"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="199"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9742,11 +9743,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="195"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="199"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9757,11 +9758,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="195"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="199"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9772,11 +9773,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="195"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="199"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9787,11 +9788,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="195"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="199"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9802,11 +9803,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="195"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="199"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9817,11 +9818,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="195"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="199"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9832,11 +9833,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="195"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="199"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9847,11 +9848,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="195"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="199"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9862,11 +9863,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="195"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="199"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9877,11 +9878,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="195"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="199"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9892,11 +9893,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="195"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="199"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9907,11 +9908,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="195"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="199"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9922,11 +9923,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="195"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="198"/>
+      <c r="K29" s="199"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9937,11 +9938,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="195"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="199"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9952,11 +9953,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="195"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="199"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9967,11 +9968,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="195"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="199"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9989,11 +9990,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="195"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="199"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -10011,11 +10012,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="195"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="199"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -10033,11 +10034,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="195"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="199"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -10055,11 +10056,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="195"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="199"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -10077,11 +10078,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="195"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="198"/>
+      <c r="K37" s="199"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -10099,11 +10100,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="195"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="199"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -10121,11 +10122,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="195"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="199"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10143,11 +10144,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="195"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="199"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10165,11 +10166,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="195"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="162"/>
+      <c r="I41" s="197"/>
+      <c r="J41" s="198"/>
+      <c r="K41" s="199"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10187,11 +10188,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="195"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="198"/>
+      <c r="K42" s="199"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10209,11 +10210,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="195"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="197"/>
+      <c r="J43" s="198"/>
+      <c r="K43" s="199"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10231,11 +10232,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="195"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="197"/>
+      <c r="J44" s="198"/>
+      <c r="K44" s="199"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10253,11 +10254,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="194"/>
-      <c r="K45" s="195"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="162"/>
+      <c r="I45" s="197"/>
+      <c r="J45" s="198"/>
+      <c r="K45" s="199"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10275,11 +10276,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="194"/>
-      <c r="K46" s="195"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="197"/>
+      <c r="J46" s="198"/>
+      <c r="K46" s="199"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10297,11 +10298,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="194"/>
-      <c r="K47" s="195"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="197"/>
+      <c r="J47" s="198"/>
+      <c r="K47" s="199"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10319,11 +10320,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="193"/>
-      <c r="J48" s="194"/>
-      <c r="K48" s="195"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="197"/>
+      <c r="J48" s="198"/>
+      <c r="K48" s="199"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10341,11 +10342,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="193"/>
-      <c r="J49" s="194"/>
-      <c r="K49" s="195"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="162"/>
+      <c r="I49" s="197"/>
+      <c r="J49" s="198"/>
+      <c r="K49" s="199"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10363,11 +10364,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="193"/>
-      <c r="J50" s="194"/>
-      <c r="K50" s="195"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="197"/>
+      <c r="J50" s="198"/>
+      <c r="K50" s="199"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10385,11 +10386,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
-      <c r="K51" s="195"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="162"/>
+      <c r="I51" s="197"/>
+      <c r="J51" s="198"/>
+      <c r="K51" s="199"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10407,11 +10408,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="194"/>
-      <c r="K52" s="195"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="162"/>
+      <c r="I52" s="197"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="199"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10429,11 +10430,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="193"/>
-      <c r="J53" s="194"/>
-      <c r="K53" s="195"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="162"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="198"/>
+      <c r="K53" s="199"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10451,11 +10452,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="194"/>
-      <c r="K54" s="195"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="197"/>
+      <c r="J54" s="198"/>
+      <c r="K54" s="199"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10473,11 +10474,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="193"/>
-      <c r="J55" s="194"/>
-      <c r="K55" s="195"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="197"/>
+      <c r="J55" s="198"/>
+      <c r="K55" s="199"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10495,11 +10496,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="194"/>
-      <c r="K56" s="195"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="197"/>
+      <c r="J56" s="198"/>
+      <c r="K56" s="199"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10511,25 +10512,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -10544,80 +10600,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10665,16 +10666,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10709,14 +10710,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10819,7 +10820,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
       <c r="G5" s="88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>185</v>
@@ -10849,7 +10850,7 @@
         <v>191</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -10868,7 +10869,7 @@
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
       <c r="G6" s="88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>185</v>
@@ -10898,7 +10899,7 @@
         <v>191</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -13115,11 +13116,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="K87:N87"/>
@@ -13136,79 +13205,11 @@
     <mergeCell ref="K74:N74"/>
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13238,7 +13239,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13254,10 +13255,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13287,8 +13288,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13545,7 +13546,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -14370,10 +14371,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14403,8 +14404,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="243">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3270,114 +3270,114 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3439,6 +3439,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3449,15 +3458,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4408,65 +4408,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="148"/>
-      <c r="B1" s="148"/>
-      <c r="C1" s="150" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="149" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149" t="s">
+      <c r="H1" s="143"/>
+      <c r="I1" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="149"/>
+      <c r="J1" s="143"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="149" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="148"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="145" t="s">
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="146"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="117"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="147"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
       <c r="K13" s="118"/>
       <c r="L13" s="118"/>
       <c r="M13" s="118"/>
@@ -4477,56 +4477,56 @@
       <c r="R13" s="118"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="141"/>
-      <c r="R15" s="141"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
       <c r="M16" s="119"/>
@@ -4537,384 +4537,384 @@
       <c r="R16" s="119"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="141"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="141"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="137"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="142"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="153"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="139"/>
-      <c r="Q26" s="139"/>
-      <c r="R26" s="139"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="140"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="138"/>
-      <c r="Z28" s="138"/>
-      <c r="AA28" s="138"/>
-      <c r="AB28" s="138"/>
-      <c r="AC28" s="138"/>
-      <c r="AD28" s="138"/>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="138"/>
-      <c r="AG28" s="138"/>
-      <c r="AH28" s="138"/>
-      <c r="AI28" s="138"/>
-      <c r="AJ28" s="138"/>
-      <c r="AK28" s="138"/>
-      <c r="AL28" s="138"/>
-      <c r="AM28" s="138"/>
-      <c r="AN28" s="138"/>
-      <c r="AO28" s="138"/>
-      <c r="AP28" s="138"/>
-      <c r="AQ28" s="138"/>
-      <c r="AR28" s="138"/>
-      <c r="AS28" s="138"/>
-      <c r="AT28" s="138"/>
-      <c r="AU28" s="138"/>
-      <c r="AV28" s="138"/>
-      <c r="AW28" s="138"/>
-      <c r="AX28" s="138"/>
-      <c r="AY28" s="138"/>
-      <c r="AZ28" s="138"/>
-      <c r="BA28" s="138"/>
-      <c r="BB28" s="138"/>
-      <c r="BC28" s="138"/>
-      <c r="BD28" s="138"/>
-      <c r="BE28" s="138"/>
-      <c r="BF28" s="138"/>
-      <c r="BG28" s="138"/>
-      <c r="BH28" s="138"/>
-      <c r="BI28" s="138"/>
-      <c r="BJ28" s="138"/>
-      <c r="BK28" s="138"/>
-      <c r="BL28" s="138"/>
-      <c r="BM28" s="138"/>
-      <c r="BN28" s="138"/>
-      <c r="BO28" s="138"/>
-      <c r="BP28" s="138"/>
-      <c r="BQ28" s="138"/>
-      <c r="BR28" s="138"/>
-      <c r="BS28" s="138"/>
-      <c r="BT28" s="138"/>
-      <c r="BU28" s="138"/>
-      <c r="BV28" s="138"/>
-      <c r="BW28" s="138"/>
-      <c r="BX28" s="138"/>
-      <c r="BY28" s="138"/>
-      <c r="BZ28" s="138"/>
-      <c r="CA28" s="138"/>
-      <c r="CB28" s="138"/>
-      <c r="CC28" s="138"/>
-      <c r="CD28" s="138"/>
-      <c r="CE28" s="138"/>
-      <c r="CF28" s="138"/>
-      <c r="CG28" s="138"/>
-      <c r="CH28" s="138"/>
-      <c r="CI28" s="138"/>
-      <c r="CJ28" s="138"/>
-      <c r="CK28" s="138"/>
-      <c r="CL28" s="138"/>
-      <c r="CM28" s="138"/>
-      <c r="CN28" s="138"/>
-      <c r="CO28" s="138"/>
-      <c r="CP28" s="138"/>
-      <c r="CQ28" s="138"/>
-      <c r="CR28" s="138"/>
-      <c r="CS28" s="138"/>
-      <c r="CT28" s="138"/>
-      <c r="CU28" s="138"/>
-      <c r="CV28" s="138"/>
-      <c r="CW28" s="138"/>
-      <c r="CX28" s="138"/>
-      <c r="CY28" s="138"/>
-      <c r="CZ28" s="138"/>
-      <c r="DA28" s="138"/>
-      <c r="DB28" s="138"/>
-      <c r="DC28" s="138"/>
-      <c r="DD28" s="138"/>
-      <c r="DE28" s="138"/>
-      <c r="DF28" s="138"/>
-      <c r="DG28" s="138"/>
-      <c r="DH28" s="138"/>
-      <c r="DI28" s="138"/>
-      <c r="DJ28" s="138"/>
-      <c r="DK28" s="138"/>
-      <c r="DL28" s="138"/>
-      <c r="DM28" s="138"/>
-      <c r="DN28" s="138"/>
-      <c r="DO28" s="138"/>
-      <c r="DP28" s="138"/>
-      <c r="DQ28" s="138"/>
-      <c r="DR28" s="138"/>
-      <c r="DS28" s="138"/>
-      <c r="DT28" s="138"/>
-      <c r="DU28" s="138"/>
-      <c r="DV28" s="138"/>
-      <c r="DW28" s="138"/>
-      <c r="DX28" s="138"/>
-      <c r="DY28" s="138"/>
-      <c r="DZ28" s="138"/>
-      <c r="EA28" s="138"/>
-      <c r="EB28" s="138"/>
-      <c r="EC28" s="138"/>
-      <c r="ED28" s="138"/>
-      <c r="EE28" s="138"/>
-      <c r="EF28" s="138"/>
-      <c r="EG28" s="138"/>
-      <c r="EH28" s="138"/>
-      <c r="EI28" s="138"/>
-      <c r="EJ28" s="138"/>
-      <c r="EK28" s="138"/>
-      <c r="EL28" s="138"/>
-      <c r="EM28" s="138"/>
-      <c r="EN28" s="138"/>
-      <c r="EO28" s="138"/>
-      <c r="EP28" s="138"/>
-      <c r="EQ28" s="138"/>
-      <c r="ER28" s="138"/>
-      <c r="ES28" s="138"/>
-      <c r="ET28" s="138"/>
-      <c r="EU28" s="138"/>
-      <c r="EV28" s="138"/>
-      <c r="EW28" s="138"/>
-      <c r="EX28" s="138"/>
-      <c r="EY28" s="138"/>
-      <c r="EZ28" s="138"/>
-      <c r="FA28" s="138"/>
-      <c r="FB28" s="138"/>
-      <c r="FC28" s="138"/>
-      <c r="FD28" s="138"/>
-      <c r="FE28" s="138"/>
-      <c r="FF28" s="138"/>
-      <c r="FG28" s="138"/>
-      <c r="FH28" s="138"/>
-      <c r="FI28" s="138"/>
-      <c r="FJ28" s="138"/>
-      <c r="FK28" s="138"/>
-      <c r="FL28" s="138"/>
-      <c r="FM28" s="138"/>
-      <c r="FN28" s="138"/>
-      <c r="FO28" s="138"/>
-      <c r="FP28" s="138"/>
-      <c r="FQ28" s="138"/>
-      <c r="FR28" s="138"/>
-      <c r="FS28" s="138"/>
-      <c r="FT28" s="138"/>
-      <c r="FU28" s="138"/>
-      <c r="FV28" s="138"/>
-      <c r="FW28" s="138"/>
-      <c r="FX28" s="138"/>
-      <c r="FY28" s="138"/>
-      <c r="FZ28" s="138"/>
-      <c r="GA28" s="138"/>
-      <c r="GB28" s="138"/>
-      <c r="GC28" s="138"/>
-      <c r="GD28" s="138"/>
-      <c r="GE28" s="138"/>
-      <c r="GF28" s="138"/>
-      <c r="GG28" s="138"/>
-      <c r="GH28" s="138"/>
-      <c r="GI28" s="138"/>
-      <c r="GJ28" s="138"/>
-      <c r="GK28" s="138"/>
-      <c r="GL28" s="138"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="156"/>
+      <c r="AH28" s="156"/>
+      <c r="AI28" s="156"/>
+      <c r="AJ28" s="156"/>
+      <c r="AK28" s="156"/>
+      <c r="AL28" s="156"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="156"/>
+      <c r="AO28" s="156"/>
+      <c r="AP28" s="156"/>
+      <c r="AQ28" s="156"/>
+      <c r="AR28" s="156"/>
+      <c r="AS28" s="156"/>
+      <c r="AT28" s="156"/>
+      <c r="AU28" s="156"/>
+      <c r="AV28" s="156"/>
+      <c r="AW28" s="156"/>
+      <c r="AX28" s="156"/>
+      <c r="AY28" s="156"/>
+      <c r="AZ28" s="156"/>
+      <c r="BA28" s="156"/>
+      <c r="BB28" s="156"/>
+      <c r="BC28" s="156"/>
+      <c r="BD28" s="156"/>
+      <c r="BE28" s="156"/>
+      <c r="BF28" s="156"/>
+      <c r="BG28" s="156"/>
+      <c r="BH28" s="156"/>
+      <c r="BI28" s="156"/>
+      <c r="BJ28" s="156"/>
+      <c r="BK28" s="156"/>
+      <c r="BL28" s="156"/>
+      <c r="BM28" s="156"/>
+      <c r="BN28" s="156"/>
+      <c r="BO28" s="156"/>
+      <c r="BP28" s="156"/>
+      <c r="BQ28" s="156"/>
+      <c r="BR28" s="156"/>
+      <c r="BS28" s="156"/>
+      <c r="BT28" s="156"/>
+      <c r="BU28" s="156"/>
+      <c r="BV28" s="156"/>
+      <c r="BW28" s="156"/>
+      <c r="BX28" s="156"/>
+      <c r="BY28" s="156"/>
+      <c r="BZ28" s="156"/>
+      <c r="CA28" s="156"/>
+      <c r="CB28" s="156"/>
+      <c r="CC28" s="156"/>
+      <c r="CD28" s="156"/>
+      <c r="CE28" s="156"/>
+      <c r="CF28" s="156"/>
+      <c r="CG28" s="156"/>
+      <c r="CH28" s="156"/>
+      <c r="CI28" s="156"/>
+      <c r="CJ28" s="156"/>
+      <c r="CK28" s="156"/>
+      <c r="CL28" s="156"/>
+      <c r="CM28" s="156"/>
+      <c r="CN28" s="156"/>
+      <c r="CO28" s="156"/>
+      <c r="CP28" s="156"/>
+      <c r="CQ28" s="156"/>
+      <c r="CR28" s="156"/>
+      <c r="CS28" s="156"/>
+      <c r="CT28" s="156"/>
+      <c r="CU28" s="156"/>
+      <c r="CV28" s="156"/>
+      <c r="CW28" s="156"/>
+      <c r="CX28" s="156"/>
+      <c r="CY28" s="156"/>
+      <c r="CZ28" s="156"/>
+      <c r="DA28" s="156"/>
+      <c r="DB28" s="156"/>
+      <c r="DC28" s="156"/>
+      <c r="DD28" s="156"/>
+      <c r="DE28" s="156"/>
+      <c r="DF28" s="156"/>
+      <c r="DG28" s="156"/>
+      <c r="DH28" s="156"/>
+      <c r="DI28" s="156"/>
+      <c r="DJ28" s="156"/>
+      <c r="DK28" s="156"/>
+      <c r="DL28" s="156"/>
+      <c r="DM28" s="156"/>
+      <c r="DN28" s="156"/>
+      <c r="DO28" s="156"/>
+      <c r="DP28" s="156"/>
+      <c r="DQ28" s="156"/>
+      <c r="DR28" s="156"/>
+      <c r="DS28" s="156"/>
+      <c r="DT28" s="156"/>
+      <c r="DU28" s="156"/>
+      <c r="DV28" s="156"/>
+      <c r="DW28" s="156"/>
+      <c r="DX28" s="156"/>
+      <c r="DY28" s="156"/>
+      <c r="DZ28" s="156"/>
+      <c r="EA28" s="156"/>
+      <c r="EB28" s="156"/>
+      <c r="EC28" s="156"/>
+      <c r="ED28" s="156"/>
+      <c r="EE28" s="156"/>
+      <c r="EF28" s="156"/>
+      <c r="EG28" s="156"/>
+      <c r="EH28" s="156"/>
+      <c r="EI28" s="156"/>
+      <c r="EJ28" s="156"/>
+      <c r="EK28" s="156"/>
+      <c r="EL28" s="156"/>
+      <c r="EM28" s="156"/>
+      <c r="EN28" s="156"/>
+      <c r="EO28" s="156"/>
+      <c r="EP28" s="156"/>
+      <c r="EQ28" s="156"/>
+      <c r="ER28" s="156"/>
+      <c r="ES28" s="156"/>
+      <c r="ET28" s="156"/>
+      <c r="EU28" s="156"/>
+      <c r="EV28" s="156"/>
+      <c r="EW28" s="156"/>
+      <c r="EX28" s="156"/>
+      <c r="EY28" s="156"/>
+      <c r="EZ28" s="156"/>
+      <c r="FA28" s="156"/>
+      <c r="FB28" s="156"/>
+      <c r="FC28" s="156"/>
+      <c r="FD28" s="156"/>
+      <c r="FE28" s="156"/>
+      <c r="FF28" s="156"/>
+      <c r="FG28" s="156"/>
+      <c r="FH28" s="156"/>
+      <c r="FI28" s="156"/>
+      <c r="FJ28" s="156"/>
+      <c r="FK28" s="156"/>
+      <c r="FL28" s="156"/>
+      <c r="FM28" s="156"/>
+      <c r="FN28" s="156"/>
+      <c r="FO28" s="156"/>
+      <c r="FP28" s="156"/>
+      <c r="FQ28" s="156"/>
+      <c r="FR28" s="156"/>
+      <c r="FS28" s="156"/>
+      <c r="FT28" s="156"/>
+      <c r="FU28" s="156"/>
+      <c r="FV28" s="156"/>
+      <c r="FW28" s="156"/>
+      <c r="FX28" s="156"/>
+      <c r="FY28" s="156"/>
+      <c r="FZ28" s="156"/>
+      <c r="GA28" s="156"/>
+      <c r="GB28" s="156"/>
+      <c r="GC28" s="156"/>
+      <c r="GD28" s="156"/>
+      <c r="GE28" s="156"/>
+      <c r="GF28" s="156"/>
+      <c r="GG28" s="156"/>
+      <c r="GH28" s="156"/>
+      <c r="GI28" s="156"/>
+      <c r="GJ28" s="156"/>
+      <c r="GK28" s="156"/>
+      <c r="GL28" s="156"/>
       <c r="GM28" s="120"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="139"/>
-      <c r="Q29" s="139"/>
-      <c r="R29" s="139"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="155"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="137"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
       <c r="K30" s="121"/>
       <c r="L30" s="121"/>
       <c r="M30" s="121"/>
@@ -4925,16 +4925,16 @@
       <c r="R30" s="121"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="137"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
       <c r="K31" s="121"/>
       <c r="L31" s="121"/>
       <c r="M31" s="121"/>
@@ -4946,6 +4946,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4959,28 +4981,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5535,10 +5535,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5565,8 +5565,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5605,14 +5605,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="128">
@@ -5627,14 +5627,14 @@
       <c r="D5" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="168" t="s">
+      <c r="E5" s="167" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="91">
@@ -5645,12 +5645,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="92">
@@ -5661,12 +5661,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="162"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="93">
@@ -5677,12 +5677,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="164"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="94">
@@ -5693,12 +5693,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="95">
@@ -5709,12 +5709,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="161"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="96">
@@ -5725,12 +5725,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="162"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="161"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="97">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="98">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="162"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="161"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="99">
@@ -5773,12 +5773,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="161"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5789,12 +5789,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="91">
@@ -5805,12 +5805,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="92">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="93">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="94">
@@ -5853,12 +5853,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="95">
@@ -5869,12 +5869,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="96">
@@ -5885,12 +5885,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="97">
@@ -5901,12 +5901,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="98">
@@ -5917,12 +5917,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="99">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="159"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="91">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="92">
@@ -5997,12 +5997,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="93">
@@ -6013,12 +6013,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="159"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="94">
@@ -6029,12 +6029,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="95">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="159"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="96">
@@ -6061,12 +6061,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="97">
@@ -6077,12 +6077,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="98">
@@ -6093,12 +6093,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="159"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="99">
@@ -6109,12 +6109,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="159"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6125,12 +6125,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="91">
@@ -6141,12 +6141,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="159"/>
-      <c r="I37" s="159"/>
-      <c r="J37" s="159"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="92">
@@ -6157,12 +6157,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="159"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="159"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="93">
@@ -6173,12 +6173,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="159"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="159"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="94">
@@ -6189,12 +6189,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="159"/>
-      <c r="I40" s="159"/>
-      <c r="J40" s="159"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="172"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="95">
@@ -6205,12 +6205,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="159"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="96">
@@ -6221,23 +6221,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="159"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="159"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6253,23 +6262,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6294,8 +6294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6314,10 +6314,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6347,8 +6347,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6895,11 +6895,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6924,13 +6924,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6962,11 +6962,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7288,11 +7288,11 @@
       <c r="I11" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="J11" s="62">
-        <v>50</v>
-      </c>
+      <c r="J11" s="62"/>
       <c r="K11" s="62"/>
-      <c r="L11" s="40"/>
+      <c r="L11" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="M11" s="83"/>
       <c r="N11" s="69"/>
       <c r="O11" s="69"/>
@@ -7372,7 +7372,9 @@
         <v>50</v>
       </c>
       <c r="K13" s="62"/>
-      <c r="L13" s="40"/>
+      <c r="L13" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="M13" s="133"/>
       <c r="N13" s="133"/>
       <c r="O13" s="133"/>
@@ -7452,7 +7454,9 @@
         <v>50</v>
       </c>
       <c r="K15" s="62"/>
-      <c r="L15" s="40"/>
+      <c r="L15" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="M15" s="133"/>
       <c r="N15" s="133"/>
       <c r="O15" s="133"/>
@@ -9440,7 +9444,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="135"/>
@@ -9474,7 +9478,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="196"/>
+      <c r="A2" s="199"/>
       <c r="B2" s="136"/>
       <c r="C2" s="125"/>
       <c r="D2" s="31" t="s">
@@ -9524,15 +9528,15 @@
       <c r="F4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="166" t="s">
+      <c r="G4" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166" t="s">
+      <c r="H4" s="165"/>
+      <c r="I4" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="33">
@@ -9549,15 +9553,15 @@
         <v>241</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="193" t="s">
+      <c r="G5" s="196" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="194"/>
-      <c r="I5" s="197" t="s">
+      <c r="H5" s="197"/>
+      <c r="I5" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="198"/>
-      <c r="K5" s="199"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="195"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="33">
@@ -9574,15 +9578,15 @@
         <v>134</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="193" t="s">
+      <c r="G6" s="196" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="194"/>
-      <c r="I6" s="197" t="s">
+      <c r="H6" s="197"/>
+      <c r="I6" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="J6" s="198"/>
-      <c r="K6" s="199"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="195"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9593,11 +9597,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="195"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9608,11 +9612,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="199"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="195"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9623,11 +9627,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="199"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="195"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9638,11 +9642,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="199"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="195"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9653,11 +9657,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="199"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="195"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9668,11 +9672,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="199"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="195"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9683,11 +9687,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="199"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="195"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9698,11 +9702,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="199"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="195"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9713,11 +9717,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="199"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="195"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9728,11 +9732,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="199"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="195"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9743,11 +9747,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="199"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="195"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9758,11 +9762,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="199"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="195"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9773,11 +9777,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="199"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="195"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9788,11 +9792,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="198"/>
-      <c r="K20" s="199"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="195"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9803,11 +9807,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="198"/>
-      <c r="K21" s="199"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="195"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9818,11 +9822,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="199"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="195"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9833,11 +9837,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="199"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="195"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9848,11 +9852,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="198"/>
-      <c r="K24" s="199"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="195"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9863,11 +9867,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="199"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="195"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9878,11 +9882,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="198"/>
-      <c r="K26" s="199"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="195"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9893,11 +9897,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="198"/>
-      <c r="K27" s="199"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="195"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9908,11 +9912,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="198"/>
-      <c r="K28" s="199"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="195"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9923,11 +9927,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="198"/>
-      <c r="K29" s="199"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="195"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9938,11 +9942,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="198"/>
-      <c r="K30" s="199"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="195"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9953,11 +9957,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="198"/>
-      <c r="K31" s="199"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="195"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9968,11 +9972,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="198"/>
-      <c r="K32" s="199"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="195"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9990,11 +9994,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="198"/>
-      <c r="K33" s="199"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="195"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -10012,11 +10016,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="198"/>
-      <c r="K34" s="199"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="195"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -10034,11 +10038,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="198"/>
-      <c r="K35" s="199"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="195"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -10056,11 +10060,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="197"/>
-      <c r="J36" s="198"/>
-      <c r="K36" s="199"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="195"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -10078,11 +10082,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="162"/>
-      <c r="I37" s="197"/>
-      <c r="J37" s="198"/>
-      <c r="K37" s="199"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="195"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -10100,11 +10104,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="197"/>
-      <c r="J38" s="198"/>
-      <c r="K38" s="199"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="195"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -10122,11 +10126,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="198"/>
-      <c r="K39" s="199"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="195"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10144,11 +10148,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="162"/>
-      <c r="I40" s="197"/>
-      <c r="J40" s="198"/>
-      <c r="K40" s="199"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="194"/>
+      <c r="K40" s="195"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10166,11 +10170,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="197"/>
-      <c r="J41" s="198"/>
-      <c r="K41" s="199"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="193"/>
+      <c r="J41" s="194"/>
+      <c r="K41" s="195"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10188,11 +10192,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="198"/>
-      <c r="K42" s="199"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="194"/>
+      <c r="K42" s="195"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10210,11 +10214,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="162"/>
-      <c r="I43" s="197"/>
-      <c r="J43" s="198"/>
-      <c r="K43" s="199"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="194"/>
+      <c r="K43" s="195"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10232,11 +10236,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="160"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="197"/>
-      <c r="J44" s="198"/>
-      <c r="K44" s="199"/>
+      <c r="G44" s="159"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="193"/>
+      <c r="J44" s="194"/>
+      <c r="K44" s="195"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10254,11 +10258,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="160"/>
-      <c r="H45" s="162"/>
-      <c r="I45" s="197"/>
-      <c r="J45" s="198"/>
-      <c r="K45" s="199"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="193"/>
+      <c r="J45" s="194"/>
+      <c r="K45" s="195"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10276,11 +10280,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="162"/>
-      <c r="I46" s="197"/>
-      <c r="J46" s="198"/>
-      <c r="K46" s="199"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="194"/>
+      <c r="K46" s="195"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10298,11 +10302,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="160"/>
-      <c r="H47" s="162"/>
-      <c r="I47" s="197"/>
-      <c r="J47" s="198"/>
-      <c r="K47" s="199"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="194"/>
+      <c r="K47" s="195"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10320,11 +10324,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="162"/>
-      <c r="I48" s="197"/>
-      <c r="J48" s="198"/>
-      <c r="K48" s="199"/>
+      <c r="G48" s="159"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="194"/>
+      <c r="K48" s="195"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10342,11 +10346,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="162"/>
-      <c r="I49" s="197"/>
-      <c r="J49" s="198"/>
-      <c r="K49" s="199"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="161"/>
+      <c r="I49" s="193"/>
+      <c r="J49" s="194"/>
+      <c r="K49" s="195"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10364,11 +10368,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="162"/>
-      <c r="I50" s="197"/>
-      <c r="J50" s="198"/>
-      <c r="K50" s="199"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="193"/>
+      <c r="J50" s="194"/>
+      <c r="K50" s="195"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10386,11 +10390,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="198"/>
-      <c r="K51" s="199"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="194"/>
+      <c r="K51" s="195"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10408,11 +10412,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="162"/>
-      <c r="I52" s="197"/>
-      <c r="J52" s="198"/>
-      <c r="K52" s="199"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="193"/>
+      <c r="J52" s="194"/>
+      <c r="K52" s="195"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10430,11 +10434,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="162"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="198"/>
-      <c r="K53" s="199"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="193"/>
+      <c r="J53" s="194"/>
+      <c r="K53" s="195"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10452,11 +10456,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="162"/>
-      <c r="I54" s="197"/>
-      <c r="J54" s="198"/>
-      <c r="K54" s="199"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="194"/>
+      <c r="K54" s="195"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10474,11 +10478,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="162"/>
-      <c r="I55" s="197"/>
-      <c r="J55" s="198"/>
-      <c r="K55" s="199"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="193"/>
+      <c r="J55" s="194"/>
+      <c r="K55" s="195"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10496,11 +10500,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="197"/>
-      <c r="J56" s="198"/>
-      <c r="K56" s="199"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="194"/>
+      <c r="K56" s="195"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10512,6 +10516,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
@@ -10526,99 +10623,6 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10666,16 +10670,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10710,14 +10714,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13116,47 +13120,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
@@ -13173,43 +13173,47 @@
     <mergeCell ref="K57:N57"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13238,7 +13242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -13255,10 +13259,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13288,8 +13292,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -14371,10 +14375,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14404,8 +14408,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao KH moi theo nhan vien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVNThuviecPhuong\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao KH moi theo nhan vien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -512,6 +512,7 @@
   <authors>
     <author>vinhphong</author>
     <author>Le Thi Thu Hien</author>
+    <author>Dai suthuc</author>
   </authors>
   <commentList>
     <comment ref="P1" authorId="0" shapeId="0">
@@ -828,6 +829,30 @@
           </rPr>
           <t xml:space="preserve">Giá trị hiển thị mặc định cho item
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dai suthuc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Chưa đúng so với layout</t>
         </r>
       </text>
     </comment>
@@ -1551,7 +1576,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="245">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2404,6 +2429,12 @@
 -&gt; Click vào Link Báo cáo KH mới theo nhân viên 
 -&gt;Pop [Báo cáo khách hàng mới theo nhân viên_CRMF3010]</t>
   </si>
+  <si>
+    <t>Getdate()</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
 </sst>
 </file>
 
@@ -2416,7 +2447,7 @@
     <numFmt numFmtId="167" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="168" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2608,6 +2639,19 @@
       <sz val="15"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2928,7 +2972,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3270,9 +3314,27 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3318,23 +3380,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3375,9 +3422,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3387,24 +3431,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3439,6 +3465,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3447,18 +3485,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3483,6 +3509,76 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma [0] 2" xfId="4"/>
@@ -4408,65 +4504,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="142"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="144" t="s">
+      <c r="A1" s="148"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="143" t="s">
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143" t="s">
+      <c r="H1" s="149"/>
+      <c r="I1" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="143"/>
+      <c r="J1" s="149"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="143" t="s">
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="139" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="145" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="146"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="117"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="118"/>
       <c r="L13" s="118"/>
       <c r="M13" s="118"/>
@@ -4477,56 +4573,56 @@
       <c r="R13" s="118"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="141"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="141"/>
+      <c r="R15" s="141"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
       <c r="M16" s="119"/>
@@ -4537,384 +4633,384 @@
       <c r="R16" s="119"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="141"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="137"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="141"/>
+      <c r="R20" s="141"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="137"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="141"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="153"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="139"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="157"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="156"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="156"/>
-      <c r="AH28" s="156"/>
-      <c r="AI28" s="156"/>
-      <c r="AJ28" s="156"/>
-      <c r="AK28" s="156"/>
-      <c r="AL28" s="156"/>
-      <c r="AM28" s="156"/>
-      <c r="AN28" s="156"/>
-      <c r="AO28" s="156"/>
-      <c r="AP28" s="156"/>
-      <c r="AQ28" s="156"/>
-      <c r="AR28" s="156"/>
-      <c r="AS28" s="156"/>
-      <c r="AT28" s="156"/>
-      <c r="AU28" s="156"/>
-      <c r="AV28" s="156"/>
-      <c r="AW28" s="156"/>
-      <c r="AX28" s="156"/>
-      <c r="AY28" s="156"/>
-      <c r="AZ28" s="156"/>
-      <c r="BA28" s="156"/>
-      <c r="BB28" s="156"/>
-      <c r="BC28" s="156"/>
-      <c r="BD28" s="156"/>
-      <c r="BE28" s="156"/>
-      <c r="BF28" s="156"/>
-      <c r="BG28" s="156"/>
-      <c r="BH28" s="156"/>
-      <c r="BI28" s="156"/>
-      <c r="BJ28" s="156"/>
-      <c r="BK28" s="156"/>
-      <c r="BL28" s="156"/>
-      <c r="BM28" s="156"/>
-      <c r="BN28" s="156"/>
-      <c r="BO28" s="156"/>
-      <c r="BP28" s="156"/>
-      <c r="BQ28" s="156"/>
-      <c r="BR28" s="156"/>
-      <c r="BS28" s="156"/>
-      <c r="BT28" s="156"/>
-      <c r="BU28" s="156"/>
-      <c r="BV28" s="156"/>
-      <c r="BW28" s="156"/>
-      <c r="BX28" s="156"/>
-      <c r="BY28" s="156"/>
-      <c r="BZ28" s="156"/>
-      <c r="CA28" s="156"/>
-      <c r="CB28" s="156"/>
-      <c r="CC28" s="156"/>
-      <c r="CD28" s="156"/>
-      <c r="CE28" s="156"/>
-      <c r="CF28" s="156"/>
-      <c r="CG28" s="156"/>
-      <c r="CH28" s="156"/>
-      <c r="CI28" s="156"/>
-      <c r="CJ28" s="156"/>
-      <c r="CK28" s="156"/>
-      <c r="CL28" s="156"/>
-      <c r="CM28" s="156"/>
-      <c r="CN28" s="156"/>
-      <c r="CO28" s="156"/>
-      <c r="CP28" s="156"/>
-      <c r="CQ28" s="156"/>
-      <c r="CR28" s="156"/>
-      <c r="CS28" s="156"/>
-      <c r="CT28" s="156"/>
-      <c r="CU28" s="156"/>
-      <c r="CV28" s="156"/>
-      <c r="CW28" s="156"/>
-      <c r="CX28" s="156"/>
-      <c r="CY28" s="156"/>
-      <c r="CZ28" s="156"/>
-      <c r="DA28" s="156"/>
-      <c r="DB28" s="156"/>
-      <c r="DC28" s="156"/>
-      <c r="DD28" s="156"/>
-      <c r="DE28" s="156"/>
-      <c r="DF28" s="156"/>
-      <c r="DG28" s="156"/>
-      <c r="DH28" s="156"/>
-      <c r="DI28" s="156"/>
-      <c r="DJ28" s="156"/>
-      <c r="DK28" s="156"/>
-      <c r="DL28" s="156"/>
-      <c r="DM28" s="156"/>
-      <c r="DN28" s="156"/>
-      <c r="DO28" s="156"/>
-      <c r="DP28" s="156"/>
-      <c r="DQ28" s="156"/>
-      <c r="DR28" s="156"/>
-      <c r="DS28" s="156"/>
-      <c r="DT28" s="156"/>
-      <c r="DU28" s="156"/>
-      <c r="DV28" s="156"/>
-      <c r="DW28" s="156"/>
-      <c r="DX28" s="156"/>
-      <c r="DY28" s="156"/>
-      <c r="DZ28" s="156"/>
-      <c r="EA28" s="156"/>
-      <c r="EB28" s="156"/>
-      <c r="EC28" s="156"/>
-      <c r="ED28" s="156"/>
-      <c r="EE28" s="156"/>
-      <c r="EF28" s="156"/>
-      <c r="EG28" s="156"/>
-      <c r="EH28" s="156"/>
-      <c r="EI28" s="156"/>
-      <c r="EJ28" s="156"/>
-      <c r="EK28" s="156"/>
-      <c r="EL28" s="156"/>
-      <c r="EM28" s="156"/>
-      <c r="EN28" s="156"/>
-      <c r="EO28" s="156"/>
-      <c r="EP28" s="156"/>
-      <c r="EQ28" s="156"/>
-      <c r="ER28" s="156"/>
-      <c r="ES28" s="156"/>
-      <c r="ET28" s="156"/>
-      <c r="EU28" s="156"/>
-      <c r="EV28" s="156"/>
-      <c r="EW28" s="156"/>
-      <c r="EX28" s="156"/>
-      <c r="EY28" s="156"/>
-      <c r="EZ28" s="156"/>
-      <c r="FA28" s="156"/>
-      <c r="FB28" s="156"/>
-      <c r="FC28" s="156"/>
-      <c r="FD28" s="156"/>
-      <c r="FE28" s="156"/>
-      <c r="FF28" s="156"/>
-      <c r="FG28" s="156"/>
-      <c r="FH28" s="156"/>
-      <c r="FI28" s="156"/>
-      <c r="FJ28" s="156"/>
-      <c r="FK28" s="156"/>
-      <c r="FL28" s="156"/>
-      <c r="FM28" s="156"/>
-      <c r="FN28" s="156"/>
-      <c r="FO28" s="156"/>
-      <c r="FP28" s="156"/>
-      <c r="FQ28" s="156"/>
-      <c r="FR28" s="156"/>
-      <c r="FS28" s="156"/>
-      <c r="FT28" s="156"/>
-      <c r="FU28" s="156"/>
-      <c r="FV28" s="156"/>
-      <c r="FW28" s="156"/>
-      <c r="FX28" s="156"/>
-      <c r="FY28" s="156"/>
-      <c r="FZ28" s="156"/>
-      <c r="GA28" s="156"/>
-      <c r="GB28" s="156"/>
-      <c r="GC28" s="156"/>
-      <c r="GD28" s="156"/>
-      <c r="GE28" s="156"/>
-      <c r="GF28" s="156"/>
-      <c r="GG28" s="156"/>
-      <c r="GH28" s="156"/>
-      <c r="GI28" s="156"/>
-      <c r="GJ28" s="156"/>
-      <c r="GK28" s="156"/>
-      <c r="GL28" s="156"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="138"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="138"/>
+      <c r="Z28" s="138"/>
+      <c r="AA28" s="138"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="138"/>
+      <c r="AJ28" s="138"/>
+      <c r="AK28" s="138"/>
+      <c r="AL28" s="138"/>
+      <c r="AM28" s="138"/>
+      <c r="AN28" s="138"/>
+      <c r="AO28" s="138"/>
+      <c r="AP28" s="138"/>
+      <c r="AQ28" s="138"/>
+      <c r="AR28" s="138"/>
+      <c r="AS28" s="138"/>
+      <c r="AT28" s="138"/>
+      <c r="AU28" s="138"/>
+      <c r="AV28" s="138"/>
+      <c r="AW28" s="138"/>
+      <c r="AX28" s="138"/>
+      <c r="AY28" s="138"/>
+      <c r="AZ28" s="138"/>
+      <c r="BA28" s="138"/>
+      <c r="BB28" s="138"/>
+      <c r="BC28" s="138"/>
+      <c r="BD28" s="138"/>
+      <c r="BE28" s="138"/>
+      <c r="BF28" s="138"/>
+      <c r="BG28" s="138"/>
+      <c r="BH28" s="138"/>
+      <c r="BI28" s="138"/>
+      <c r="BJ28" s="138"/>
+      <c r="BK28" s="138"/>
+      <c r="BL28" s="138"/>
+      <c r="BM28" s="138"/>
+      <c r="BN28" s="138"/>
+      <c r="BO28" s="138"/>
+      <c r="BP28" s="138"/>
+      <c r="BQ28" s="138"/>
+      <c r="BR28" s="138"/>
+      <c r="BS28" s="138"/>
+      <c r="BT28" s="138"/>
+      <c r="BU28" s="138"/>
+      <c r="BV28" s="138"/>
+      <c r="BW28" s="138"/>
+      <c r="BX28" s="138"/>
+      <c r="BY28" s="138"/>
+      <c r="BZ28" s="138"/>
+      <c r="CA28" s="138"/>
+      <c r="CB28" s="138"/>
+      <c r="CC28" s="138"/>
+      <c r="CD28" s="138"/>
+      <c r="CE28" s="138"/>
+      <c r="CF28" s="138"/>
+      <c r="CG28" s="138"/>
+      <c r="CH28" s="138"/>
+      <c r="CI28" s="138"/>
+      <c r="CJ28" s="138"/>
+      <c r="CK28" s="138"/>
+      <c r="CL28" s="138"/>
+      <c r="CM28" s="138"/>
+      <c r="CN28" s="138"/>
+      <c r="CO28" s="138"/>
+      <c r="CP28" s="138"/>
+      <c r="CQ28" s="138"/>
+      <c r="CR28" s="138"/>
+      <c r="CS28" s="138"/>
+      <c r="CT28" s="138"/>
+      <c r="CU28" s="138"/>
+      <c r="CV28" s="138"/>
+      <c r="CW28" s="138"/>
+      <c r="CX28" s="138"/>
+      <c r="CY28" s="138"/>
+      <c r="CZ28" s="138"/>
+      <c r="DA28" s="138"/>
+      <c r="DB28" s="138"/>
+      <c r="DC28" s="138"/>
+      <c r="DD28" s="138"/>
+      <c r="DE28" s="138"/>
+      <c r="DF28" s="138"/>
+      <c r="DG28" s="138"/>
+      <c r="DH28" s="138"/>
+      <c r="DI28" s="138"/>
+      <c r="DJ28" s="138"/>
+      <c r="DK28" s="138"/>
+      <c r="DL28" s="138"/>
+      <c r="DM28" s="138"/>
+      <c r="DN28" s="138"/>
+      <c r="DO28" s="138"/>
+      <c r="DP28" s="138"/>
+      <c r="DQ28" s="138"/>
+      <c r="DR28" s="138"/>
+      <c r="DS28" s="138"/>
+      <c r="DT28" s="138"/>
+      <c r="DU28" s="138"/>
+      <c r="DV28" s="138"/>
+      <c r="DW28" s="138"/>
+      <c r="DX28" s="138"/>
+      <c r="DY28" s="138"/>
+      <c r="DZ28" s="138"/>
+      <c r="EA28" s="138"/>
+      <c r="EB28" s="138"/>
+      <c r="EC28" s="138"/>
+      <c r="ED28" s="138"/>
+      <c r="EE28" s="138"/>
+      <c r="EF28" s="138"/>
+      <c r="EG28" s="138"/>
+      <c r="EH28" s="138"/>
+      <c r="EI28" s="138"/>
+      <c r="EJ28" s="138"/>
+      <c r="EK28" s="138"/>
+      <c r="EL28" s="138"/>
+      <c r="EM28" s="138"/>
+      <c r="EN28" s="138"/>
+      <c r="EO28" s="138"/>
+      <c r="EP28" s="138"/>
+      <c r="EQ28" s="138"/>
+      <c r="ER28" s="138"/>
+      <c r="ES28" s="138"/>
+      <c r="ET28" s="138"/>
+      <c r="EU28" s="138"/>
+      <c r="EV28" s="138"/>
+      <c r="EW28" s="138"/>
+      <c r="EX28" s="138"/>
+      <c r="EY28" s="138"/>
+      <c r="EZ28" s="138"/>
+      <c r="FA28" s="138"/>
+      <c r="FB28" s="138"/>
+      <c r="FC28" s="138"/>
+      <c r="FD28" s="138"/>
+      <c r="FE28" s="138"/>
+      <c r="FF28" s="138"/>
+      <c r="FG28" s="138"/>
+      <c r="FH28" s="138"/>
+      <c r="FI28" s="138"/>
+      <c r="FJ28" s="138"/>
+      <c r="FK28" s="138"/>
+      <c r="FL28" s="138"/>
+      <c r="FM28" s="138"/>
+      <c r="FN28" s="138"/>
+      <c r="FO28" s="138"/>
+      <c r="FP28" s="138"/>
+      <c r="FQ28" s="138"/>
+      <c r="FR28" s="138"/>
+      <c r="FS28" s="138"/>
+      <c r="FT28" s="138"/>
+      <c r="FU28" s="138"/>
+      <c r="FV28" s="138"/>
+      <c r="FW28" s="138"/>
+      <c r="FX28" s="138"/>
+      <c r="FY28" s="138"/>
+      <c r="FZ28" s="138"/>
+      <c r="GA28" s="138"/>
+      <c r="GB28" s="138"/>
+      <c r="GC28" s="138"/>
+      <c r="GD28" s="138"/>
+      <c r="GE28" s="138"/>
+      <c r="GF28" s="138"/>
+      <c r="GG28" s="138"/>
+      <c r="GH28" s="138"/>
+      <c r="GI28" s="138"/>
+      <c r="GJ28" s="138"/>
+      <c r="GK28" s="138"/>
+      <c r="GL28" s="138"/>
       <c r="GM28" s="120"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="155"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="139"/>
+      <c r="R29" s="139"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="158"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
       <c r="K30" s="121"/>
       <c r="L30" s="121"/>
       <c r="M30" s="121"/>
@@ -4925,16 +5021,16 @@
       <c r="R30" s="121"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="158"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
       <c r="K31" s="121"/>
       <c r="L31" s="121"/>
       <c r="M31" s="121"/>
@@ -4946,28 +5042,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4981,6 +5055,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5007,14 +5103,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5207,11 +5303,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="205" t="s">
+      <c r="E27" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="206"/>
-      <c r="G27" s="207"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="201"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5535,10 +5631,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5565,8 +5661,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5605,14 +5701,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="128">
@@ -5627,14 +5723,14 @@
       <c r="D5" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="E5" s="168" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="91">
@@ -5645,12 +5741,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="92">
@@ -5661,12 +5757,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="93">
@@ -5677,12 +5773,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="94">
@@ -5693,12 +5789,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="162"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="95">
@@ -5709,12 +5805,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="96">
@@ -5725,12 +5821,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="97">
@@ -5741,12 +5837,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="98">
@@ -5757,12 +5853,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="161"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="99">
@@ -5773,12 +5869,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="161"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5789,12 +5885,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="91">
@@ -5805,12 +5901,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="92">
@@ -5821,12 +5917,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="93">
@@ -5837,12 +5933,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="94">
@@ -5853,12 +5949,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="95">
@@ -5869,12 +5965,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="96">
@@ -5885,12 +5981,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="97">
@@ -5901,12 +5997,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="98">
@@ -5917,12 +6013,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="99">
@@ -5933,12 +6029,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5949,12 +6045,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5965,12 +6061,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="91">
@@ -5981,12 +6077,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="92">
@@ -5997,12 +6093,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="93">
@@ -6013,12 +6109,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="94">
@@ -6029,12 +6125,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="95">
@@ -6045,12 +6141,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="96">
@@ -6061,12 +6157,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="97">
@@ -6077,12 +6173,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="98">
@@ -6093,12 +6189,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="99">
@@ -6109,12 +6205,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6125,12 +6221,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="91">
@@ -6141,12 +6237,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="159"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="92">
@@ -6157,12 +6253,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="93">
@@ -6173,12 +6269,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="159"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="94">
@@ -6189,12 +6285,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="159"/>
+      <c r="J40" s="159"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="95">
@@ -6205,12 +6301,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="159"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="96">
@@ -6221,32 +6317,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6262,14 +6349,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6294,8 +6390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6314,10 +6410,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6347,8 +6443,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6402,10 +6498,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="182" t="s">
+      <c r="I5" s="176" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="183"/>
+      <c r="J5" s="177"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6416,8 +6512,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="185"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="179"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6428,8 +6524,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="185"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6440,8 +6536,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="185"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6452,8 +6548,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="185"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6464,8 +6560,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="187"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="181"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6490,10 +6586,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="176" t="s">
+      <c r="I12" s="204" t="s">
         <v>242</v>
       </c>
-      <c r="J12" s="177"/>
+      <c r="J12" s="205"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6504,8 +6600,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="207"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6516,8 +6612,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="179"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="207"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6528,8 +6624,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="207"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6540,8 +6636,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="207"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6552,8 +6648,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="207"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6564,8 +6660,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="179"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="207"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6576,8 +6672,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="207"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6588,8 +6684,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="179"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="207"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6600,8 +6696,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="179"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="207"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6612,8 +6708,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="179"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="207"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6624,8 +6720,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="179"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="207"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6636,8 +6732,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="207"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6648,8 +6744,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6660,8 +6756,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="179"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="207"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6672,8 +6768,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="207"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6684,8 +6780,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="207"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6696,8 +6792,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="207"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6708,8 +6804,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="179"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="207"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6720,8 +6816,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="179"/>
+      <c r="I31" s="206"/>
+      <c r="J31" s="207"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6732,8 +6828,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="179"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="207"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6744,8 +6840,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="179"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="207"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6756,8 +6852,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="179"/>
+      <c r="I34" s="206"/>
+      <c r="J34" s="207"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6768,8 +6864,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="179"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="207"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6780,8 +6876,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
+      <c r="I36" s="206"/>
+      <c r="J36" s="207"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6792,8 +6888,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="179"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="207"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6804,8 +6900,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="179"/>
+      <c r="I38" s="206"/>
+      <c r="J38" s="207"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6816,8 +6912,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="179"/>
+      <c r="I39" s="206"/>
+      <c r="J39" s="207"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6828,8 +6924,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="179"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="207"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6840,8 +6936,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="178"/>
-      <c r="J41" s="179"/>
+      <c r="I41" s="206"/>
+      <c r="J41" s="207"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6852,8 +6948,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="179"/>
+      <c r="I42" s="206"/>
+      <c r="J42" s="207"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6864,8 +6960,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="181"/>
+      <c r="I43" s="208"/>
+      <c r="J43" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6877,7 +6973,7 @@
     <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
@@ -6895,11 +6991,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6908,15 +7004,15 @@
     <col min="2" max="2" width="7.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="23" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="23" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="23" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="23" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" style="23" customWidth="1"/>
     <col min="15" max="15" width="12" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
@@ -6924,13 +7020,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6938,15 +7034,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="188" t="s">
+      <c r="H1" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="189"/>
-      <c r="J1" s="190" t="s">
+      <c r="I1" s="183"/>
+      <c r="J1" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="186"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6962,11 +7058,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6974,16 +7070,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="188" t="s">
+      <c r="H2" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190" t="str">
+      <c r="I2" s="183"/>
+      <c r="J2" s="184" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo Khách hàng mới theo nhân viên</v>
       </c>
-      <c r="K2" s="191"/>
-      <c r="L2" s="192"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="186"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7095,7 +7191,9 @@
       <c r="D6" s="33">
         <v>2</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="203" t="s">
+        <v>164</v>
+      </c>
       <c r="F6" s="88" t="s">
         <v>174</v>
       </c>
@@ -7111,7 +7209,9 @@
       <c r="L6" s="40"/>
       <c r="M6" s="69"/>
       <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
+      <c r="O6" s="202">
+        <v>1</v>
+      </c>
       <c r="P6" s="88"/>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7149,7 +7249,9 @@
       </c>
       <c r="M7" s="88"/>
       <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
+      <c r="O7" s="202" t="s">
+        <v>243</v>
+      </c>
       <c r="P7" s="88"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7187,7 +7289,9 @@
       </c>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
+      <c r="O8" s="202" t="s">
+        <v>243</v>
+      </c>
       <c r="P8" s="88"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7203,7 +7307,9 @@
       <c r="D9" s="33">
         <v>5</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="203" t="s">
+        <v>166</v>
+      </c>
       <c r="F9" s="127" t="s">
         <v>174</v>
       </c>
@@ -7219,7 +7325,9 @@
       <c r="L9" s="40"/>
       <c r="M9" s="88"/>
       <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
+      <c r="O9" s="202">
+        <v>0</v>
+      </c>
       <c r="P9" s="88"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7255,7 +7363,9 @@
       <c r="L10" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="69"/>
+      <c r="M10" s="202" t="s">
+        <v>244</v>
+      </c>
       <c r="N10" s="69"/>
       <c r="O10" s="69"/>
       <c r="P10" s="88"/>
@@ -7293,7 +7403,9 @@
       <c r="L11" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M11" s="83"/>
+      <c r="M11" s="202" t="s">
+        <v>244</v>
+      </c>
       <c r="N11" s="69"/>
       <c r="O11" s="69"/>
       <c r="P11" s="88"/>
@@ -7314,7 +7426,7 @@
       <c r="E12" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="133" t="s">
+      <c r="F12" s="202" t="s">
         <v>204</v>
       </c>
       <c r="G12" s="133" t="s">
@@ -7336,7 +7448,7 @@
       <c r="M12" s="133"/>
       <c r="N12" s="133"/>
       <c r="O12" s="133"/>
-      <c r="P12" s="133" t="s">
+      <c r="P12" s="202" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7356,7 +7468,7 @@
       <c r="E13" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="F13" s="133" t="s">
+      <c r="F13" s="202" t="s">
         <v>209</v>
       </c>
       <c r="G13" s="133" t="s">
@@ -7378,7 +7490,7 @@
       <c r="M13" s="133"/>
       <c r="N13" s="133"/>
       <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
+      <c r="P13" s="202"/>
     </row>
     <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -7418,7 +7530,7 @@
       <c r="M14" s="133"/>
       <c r="N14" s="133"/>
       <c r="O14" s="133"/>
-      <c r="P14" s="133" t="s">
+      <c r="P14" s="202" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7460,7 +7572,7 @@
       <c r="M15" s="133"/>
       <c r="N15" s="133"/>
       <c r="O15" s="133"/>
-      <c r="P15" s="133"/>
+      <c r="P15" s="202"/>
     </row>
     <row r="16" spans="1:16" s="34" customFormat="1" ht="11.25">
       <c r="A16" s="33">
@@ -7492,7 +7604,7 @@
       <c r="M16" s="90"/>
       <c r="N16" s="69"/>
       <c r="O16" s="69"/>
-      <c r="P16" s="88"/>
+      <c r="P16" s="202"/>
     </row>
     <row r="17" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
@@ -7524,7 +7636,7 @@
       <c r="M17" s="90"/>
       <c r="N17" s="69"/>
       <c r="O17" s="69"/>
-      <c r="P17" s="88" t="s">
+      <c r="P17" s="202" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7546,7 +7658,7 @@
       <c r="M18" s="62"/>
       <c r="N18" s="69"/>
       <c r="O18" s="69"/>
-      <c r="P18" s="88"/>
+      <c r="P18" s="202"/>
     </row>
     <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9418,7 +9530,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G19" sqref="G19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9444,7 +9556,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="189" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="135"/>
@@ -9478,7 +9590,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
+      <c r="A2" s="190"/>
       <c r="B2" s="136"/>
       <c r="C2" s="125"/>
       <c r="D2" s="31" t="s">
@@ -9528,15 +9640,15 @@
       <c r="F4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165" t="s">
+      <c r="H4" s="166"/>
+      <c r="I4" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="33">
@@ -9553,40 +9665,40 @@
         <v>241</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="196" t="s">
+      <c r="G5" s="187" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="197"/>
-      <c r="I5" s="193" t="s">
+      <c r="H5" s="188"/>
+      <c r="I5" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="194"/>
-      <c r="K5" s="195"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="193"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="212">
         <v>51</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="212" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="131" t="s">
+      <c r="D6" s="212"/>
+      <c r="E6" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="196" t="s">
+      <c r="F6" s="214"/>
+      <c r="G6" s="210" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="197"/>
-      <c r="I6" s="193" t="s">
+      <c r="H6" s="211"/>
+      <c r="I6" s="215" t="s">
         <v>181</v>
       </c>
-      <c r="J6" s="194"/>
-      <c r="K6" s="195"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="217"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9597,11 +9709,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="195"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="193"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9612,11 +9724,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="195"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="193"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9627,11 +9739,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="193"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9642,11 +9754,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="195"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="193"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9657,11 +9769,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="195"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="191"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="193"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9672,11 +9784,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="195"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="193"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9687,11 +9799,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="195"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="193"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9702,11 +9814,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="195"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="193"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9717,11 +9829,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="195"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="193"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9732,11 +9844,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="195"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9747,11 +9859,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="195"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="193"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9762,11 +9874,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="195"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="193"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9777,11 +9889,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="195"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="193"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9792,11 +9904,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="195"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="192"/>
+      <c r="K20" s="193"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9807,11 +9919,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="195"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="193"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9822,11 +9934,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="195"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="193"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9837,11 +9949,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="195"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="192"/>
+      <c r="K23" s="193"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9852,11 +9964,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="195"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="192"/>
+      <c r="K24" s="193"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9867,11 +9979,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="195"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="192"/>
+      <c r="K25" s="193"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9882,11 +9994,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="195"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="192"/>
+      <c r="K26" s="193"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9897,11 +10009,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="195"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="192"/>
+      <c r="K27" s="193"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9912,11 +10024,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="195"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="191"/>
+      <c r="J28" s="192"/>
+      <c r="K28" s="193"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9927,11 +10039,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="195"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="192"/>
+      <c r="K29" s="193"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9942,11 +10054,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="195"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="191"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="193"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9957,11 +10069,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="195"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="191"/>
+      <c r="J31" s="192"/>
+      <c r="K31" s="193"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9972,11 +10084,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="195"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="192"/>
+      <c r="K32" s="193"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9994,11 +10106,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="195"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="192"/>
+      <c r="K33" s="193"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -10016,11 +10128,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="195"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="192"/>
+      <c r="K34" s="193"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -10038,11 +10150,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="195"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="192"/>
+      <c r="K35" s="193"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -10060,11 +10172,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="195"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="192"/>
+      <c r="K36" s="193"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -10082,11 +10194,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="195"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="192"/>
+      <c r="K37" s="193"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -10104,11 +10216,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="195"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="192"/>
+      <c r="K38" s="193"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -10126,11 +10238,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="195"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="193"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10148,11 +10260,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="195"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="192"/>
+      <c r="K40" s="193"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10170,11 +10282,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="195"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="162"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="192"/>
+      <c r="K41" s="193"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10192,11 +10304,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="195"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="192"/>
+      <c r="K42" s="193"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10214,11 +10326,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="195"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="192"/>
+      <c r="K43" s="193"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10236,11 +10348,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="195"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="191"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="193"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10258,11 +10370,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="194"/>
-      <c r="K45" s="195"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="162"/>
+      <c r="I45" s="191"/>
+      <c r="J45" s="192"/>
+      <c r="K45" s="193"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10280,11 +10392,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="194"/>
-      <c r="K46" s="195"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="191"/>
+      <c r="J46" s="192"/>
+      <c r="K46" s="193"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10302,11 +10414,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="194"/>
-      <c r="K47" s="195"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="191"/>
+      <c r="J47" s="192"/>
+      <c r="K47" s="193"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10324,11 +10436,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="193"/>
-      <c r="J48" s="194"/>
-      <c r="K48" s="195"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="191"/>
+      <c r="J48" s="192"/>
+      <c r="K48" s="193"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10346,11 +10458,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="193"/>
-      <c r="J49" s="194"/>
-      <c r="K49" s="195"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="162"/>
+      <c r="I49" s="191"/>
+      <c r="J49" s="192"/>
+      <c r="K49" s="193"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10368,11 +10480,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="193"/>
-      <c r="J50" s="194"/>
-      <c r="K50" s="195"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="191"/>
+      <c r="J50" s="192"/>
+      <c r="K50" s="193"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10390,11 +10502,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
-      <c r="K51" s="195"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="162"/>
+      <c r="I51" s="191"/>
+      <c r="J51" s="192"/>
+      <c r="K51" s="193"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10412,11 +10524,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="194"/>
-      <c r="K52" s="195"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="162"/>
+      <c r="I52" s="191"/>
+      <c r="J52" s="192"/>
+      <c r="K52" s="193"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10434,11 +10546,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="193"/>
-      <c r="J53" s="194"/>
-      <c r="K53" s="195"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="162"/>
+      <c r="I53" s="191"/>
+      <c r="J53" s="192"/>
+      <c r="K53" s="193"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10456,11 +10568,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="194"/>
-      <c r="K54" s="195"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="191"/>
+      <c r="J54" s="192"/>
+      <c r="K54" s="193"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10478,11 +10590,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="193"/>
-      <c r="J55" s="194"/>
-      <c r="K55" s="195"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="191"/>
+      <c r="J55" s="192"/>
+      <c r="K55" s="193"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10500,11 +10612,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="194"/>
-      <c r="K56" s="195"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="191"/>
+      <c r="J56" s="192"/>
+      <c r="K56" s="193"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10516,25 +10628,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -10549,80 +10716,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10640,8 +10752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="K1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="J1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10670,24 +10782,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="203" t="str">
+      <c r="J1" s="197" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="203"/>
+      <c r="K1" s="197"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10714,22 +10826,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="203" t="str">
+      <c r="J2" s="197" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="203"/>
+      <c r="K2" s="197"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10829,18 +10941,18 @@
       <c r="H5" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="218" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="200" t="s">
+      <c r="K5" s="194" t="s">
         <v>186</v>
       </c>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="202"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="196"/>
       <c r="O5" s="126" t="s">
         <v>189</v>
       </c>
@@ -10878,22 +10990,22 @@
       <c r="H6" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="218" t="s">
         <v>55</v>
       </c>
       <c r="J6" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="200" t="s">
+      <c r="K6" s="194" t="s">
         <v>182</v>
       </c>
-      <c r="L6" s="201"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="202"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="196"/>
       <c r="O6" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="126" t="s">
+      <c r="P6" s="223" t="s">
         <v>188</v>
       </c>
       <c r="Q6" s="76" t="s">
@@ -10933,23 +11045,23 @@
       <c r="J7" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="K7" s="200" t="s">
+      <c r="K7" s="219" t="s">
         <v>220</v>
       </c>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="202"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="221"/>
       <c r="O7" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="126" t="s">
+      <c r="P7" s="222" t="s">
         <v>188</v>
       </c>
       <c r="Q7" s="76"/>
       <c r="R7" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="S7" s="82" t="s">
+      <c r="S7" s="224" t="s">
         <v>222</v>
       </c>
       <c r="T7" s="64"/>
@@ -10980,23 +11092,23 @@
       <c r="J8" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="K8" s="200" t="s">
+      <c r="K8" s="219" t="s">
         <v>221</v>
       </c>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="202"/>
+      <c r="L8" s="220"/>
+      <c r="M8" s="220"/>
+      <c r="N8" s="221"/>
       <c r="O8" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="126" t="s">
+      <c r="P8" s="223" t="s">
         <v>190</v>
       </c>
       <c r="Q8" s="76"/>
       <c r="R8" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="S8" s="82" t="s">
+      <c r="S8" s="224" t="s">
         <v>223</v>
       </c>
       <c r="T8" s="64"/>
@@ -11021,18 +11133,18 @@
       <c r="H9" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="218" t="s">
         <v>55</v>
       </c>
       <c r="J9" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="K9" s="200" t="s">
+      <c r="K9" s="219" t="s">
         <v>234</v>
       </c>
-      <c r="L9" s="201"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="202"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="221"/>
       <c r="O9" s="126" t="s">
         <v>235</v>
       </c>
@@ -11064,10 +11176,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="82"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="202"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="196"/>
       <c r="O10" s="89"/>
       <c r="P10" s="89"/>
       <c r="Q10" s="76"/>
@@ -11089,10 +11201,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="202"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="195"/>
+      <c r="M11" s="195"/>
+      <c r="N11" s="196"/>
       <c r="O11" s="89"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="76"/>
@@ -11114,10 +11226,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="201"/>
-      <c r="N12" s="202"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="195"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="196"/>
       <c r="O12" s="85"/>
       <c r="P12" s="85"/>
       <c r="Q12" s="76"/>
@@ -11139,10 +11251,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="202"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="195"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="196"/>
       <c r="O13" s="85"/>
       <c r="P13" s="85"/>
       <c r="Q13" s="76"/>
@@ -11164,10 +11276,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="202"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="195"/>
+      <c r="M14" s="195"/>
+      <c r="N14" s="196"/>
       <c r="O14" s="81"/>
       <c r="P14" s="81"/>
       <c r="Q14" s="76"/>
@@ -11189,10 +11301,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="201"/>
-      <c r="N15" s="202"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="195"/>
+      <c r="M15" s="195"/>
+      <c r="N15" s="196"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
@@ -11214,10 +11326,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="201"/>
-      <c r="M16" s="201"/>
-      <c r="N16" s="202"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="195"/>
+      <c r="M16" s="195"/>
+      <c r="N16" s="196"/>
       <c r="O16" s="72"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="76"/>
@@ -11239,10 +11351,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="201"/>
-      <c r="N17" s="202"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="195"/>
+      <c r="M17" s="195"/>
+      <c r="N17" s="196"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -11264,10 +11376,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="202"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="195"/>
+      <c r="M18" s="195"/>
+      <c r="N18" s="196"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -11289,10 +11401,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="200"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="201"/>
-      <c r="N19" s="202"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="196"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -11314,10 +11426,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="200"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="201"/>
-      <c r="N20" s="202"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="195"/>
+      <c r="M20" s="195"/>
+      <c r="N20" s="196"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -11339,10 +11451,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="201"/>
-      <c r="N21" s="202"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="195"/>
+      <c r="M21" s="195"/>
+      <c r="N21" s="196"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -11364,10 +11476,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="200"/>
-      <c r="L22" s="201"/>
-      <c r="M22" s="201"/>
-      <c r="N22" s="202"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="195"/>
+      <c r="M22" s="195"/>
+      <c r="N22" s="196"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -11389,10 +11501,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="200"/>
-      <c r="L23" s="201"/>
-      <c r="M23" s="201"/>
-      <c r="N23" s="202"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="195"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="196"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -11414,10 +11526,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="200"/>
-      <c r="L24" s="201"/>
-      <c r="M24" s="201"/>
-      <c r="N24" s="202"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="195"/>
+      <c r="N24" s="196"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -11439,10 +11551,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="200"/>
-      <c r="L25" s="201"/>
-      <c r="M25" s="201"/>
-      <c r="N25" s="202"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="195"/>
+      <c r="M25" s="195"/>
+      <c r="N25" s="196"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -11464,10 +11576,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="201"/>
-      <c r="M26" s="201"/>
-      <c r="N26" s="202"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="195"/>
+      <c r="M26" s="195"/>
+      <c r="N26" s="196"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -11489,10 +11601,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="200"/>
-      <c r="L27" s="201"/>
-      <c r="M27" s="201"/>
-      <c r="N27" s="202"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="195"/>
+      <c r="M27" s="195"/>
+      <c r="N27" s="196"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -11514,10 +11626,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="200"/>
-      <c r="L28" s="201"/>
-      <c r="M28" s="201"/>
-      <c r="N28" s="202"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="195"/>
+      <c r="M28" s="195"/>
+      <c r="N28" s="196"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -11539,10 +11651,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="200"/>
-      <c r="L29" s="201"/>
-      <c r="M29" s="201"/>
-      <c r="N29" s="202"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="195"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="196"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -11564,10 +11676,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="200"/>
-      <c r="L30" s="201"/>
-      <c r="M30" s="201"/>
-      <c r="N30" s="202"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="195"/>
+      <c r="M30" s="195"/>
+      <c r="N30" s="196"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -11589,10 +11701,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="200"/>
-      <c r="L31" s="201"/>
-      <c r="M31" s="201"/>
-      <c r="N31" s="202"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="195"/>
+      <c r="M31" s="195"/>
+      <c r="N31" s="196"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -11614,10 +11726,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="200"/>
-      <c r="L32" s="201"/>
-      <c r="M32" s="201"/>
-      <c r="N32" s="202"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="195"/>
+      <c r="M32" s="195"/>
+      <c r="N32" s="196"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -11639,10 +11751,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="200"/>
-      <c r="L33" s="201"/>
-      <c r="M33" s="201"/>
-      <c r="N33" s="202"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="195"/>
+      <c r="M33" s="195"/>
+      <c r="N33" s="196"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -11664,10 +11776,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="82"/>
-      <c r="K34" s="200"/>
-      <c r="L34" s="201"/>
-      <c r="M34" s="201"/>
-      <c r="N34" s="202"/>
+      <c r="K34" s="194"/>
+      <c r="L34" s="195"/>
+      <c r="M34" s="195"/>
+      <c r="N34" s="196"/>
       <c r="O34" s="85"/>
       <c r="P34" s="85"/>
       <c r="Q34" s="76"/>
@@ -11689,10 +11801,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="200"/>
-      <c r="L35" s="201"/>
-      <c r="M35" s="201"/>
-      <c r="N35" s="202"/>
+      <c r="K35" s="194"/>
+      <c r="L35" s="195"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="196"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="76"/>
@@ -11714,10 +11826,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="200"/>
-      <c r="L36" s="201"/>
-      <c r="M36" s="201"/>
-      <c r="N36" s="202"/>
+      <c r="K36" s="194"/>
+      <c r="L36" s="195"/>
+      <c r="M36" s="195"/>
+      <c r="N36" s="196"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -11739,10 +11851,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="200"/>
-      <c r="L37" s="201"/>
-      <c r="M37" s="201"/>
-      <c r="N37" s="202"/>
+      <c r="K37" s="194"/>
+      <c r="L37" s="195"/>
+      <c r="M37" s="195"/>
+      <c r="N37" s="196"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -11764,10 +11876,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="200"/>
-      <c r="L38" s="201"/>
-      <c r="M38" s="201"/>
-      <c r="N38" s="202"/>
+      <c r="K38" s="194"/>
+      <c r="L38" s="195"/>
+      <c r="M38" s="195"/>
+      <c r="N38" s="196"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -11789,10 +11901,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="200"/>
-      <c r="L39" s="201"/>
-      <c r="M39" s="201"/>
-      <c r="N39" s="202"/>
+      <c r="K39" s="194"/>
+      <c r="L39" s="195"/>
+      <c r="M39" s="195"/>
+      <c r="N39" s="196"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -11814,10 +11926,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="200"/>
-      <c r="L40" s="201"/>
-      <c r="M40" s="201"/>
-      <c r="N40" s="202"/>
+      <c r="K40" s="194"/>
+      <c r="L40" s="195"/>
+      <c r="M40" s="195"/>
+      <c r="N40" s="196"/>
       <c r="O40" s="74"/>
       <c r="P40" s="74"/>
       <c r="Q40" s="76"/>
@@ -11839,10 +11951,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="200"/>
-      <c r="L41" s="201"/>
-      <c r="M41" s="201"/>
-      <c r="N41" s="202"/>
+      <c r="K41" s="194"/>
+      <c r="L41" s="195"/>
+      <c r="M41" s="195"/>
+      <c r="N41" s="196"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -11864,10 +11976,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="200"/>
-      <c r="L42" s="201"/>
-      <c r="M42" s="201"/>
-      <c r="N42" s="202"/>
+      <c r="K42" s="194"/>
+      <c r="L42" s="195"/>
+      <c r="M42" s="195"/>
+      <c r="N42" s="196"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -11889,10 +12001,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="200"/>
-      <c r="L43" s="201"/>
-      <c r="M43" s="201"/>
-      <c r="N43" s="202"/>
+      <c r="K43" s="194"/>
+      <c r="L43" s="195"/>
+      <c r="M43" s="195"/>
+      <c r="N43" s="196"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -11914,10 +12026,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="200"/>
-      <c r="L44" s="201"/>
-      <c r="M44" s="201"/>
-      <c r="N44" s="202"/>
+      <c r="K44" s="194"/>
+      <c r="L44" s="195"/>
+      <c r="M44" s="195"/>
+      <c r="N44" s="196"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -11939,10 +12051,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="200"/>
-      <c r="L45" s="201"/>
-      <c r="M45" s="201"/>
-      <c r="N45" s="202"/>
+      <c r="K45" s="194"/>
+      <c r="L45" s="195"/>
+      <c r="M45" s="195"/>
+      <c r="N45" s="196"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -11964,10 +12076,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="200"/>
-      <c r="L46" s="201"/>
-      <c r="M46" s="201"/>
-      <c r="N46" s="202"/>
+      <c r="K46" s="194"/>
+      <c r="L46" s="195"/>
+      <c r="M46" s="195"/>
+      <c r="N46" s="196"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -11989,10 +12101,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="200"/>
-      <c r="L47" s="201"/>
-      <c r="M47" s="201"/>
-      <c r="N47" s="202"/>
+      <c r="K47" s="194"/>
+      <c r="L47" s="195"/>
+      <c r="M47" s="195"/>
+      <c r="N47" s="196"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -12014,10 +12126,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="200"/>
-      <c r="L48" s="201"/>
-      <c r="M48" s="201"/>
-      <c r="N48" s="202"/>
+      <c r="K48" s="194"/>
+      <c r="L48" s="195"/>
+      <c r="M48" s="195"/>
+      <c r="N48" s="196"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -12039,10 +12151,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="200"/>
-      <c r="L49" s="201"/>
-      <c r="M49" s="201"/>
-      <c r="N49" s="202"/>
+      <c r="K49" s="194"/>
+      <c r="L49" s="195"/>
+      <c r="M49" s="195"/>
+      <c r="N49" s="196"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -12064,10 +12176,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="200"/>
-      <c r="L50" s="201"/>
-      <c r="M50" s="201"/>
-      <c r="N50" s="202"/>
+      <c r="K50" s="194"/>
+      <c r="L50" s="195"/>
+      <c r="M50" s="195"/>
+      <c r="N50" s="196"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -12089,10 +12201,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="200"/>
-      <c r="L51" s="201"/>
-      <c r="M51" s="201"/>
-      <c r="N51" s="202"/>
+      <c r="K51" s="194"/>
+      <c r="L51" s="195"/>
+      <c r="M51" s="195"/>
+      <c r="N51" s="196"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -12114,10 +12226,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="200"/>
-      <c r="L52" s="201"/>
-      <c r="M52" s="201"/>
-      <c r="N52" s="202"/>
+      <c r="K52" s="194"/>
+      <c r="L52" s="195"/>
+      <c r="M52" s="195"/>
+      <c r="N52" s="196"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -12139,10 +12251,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="200"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="K53" s="194"/>
+      <c r="L53" s="195"/>
+      <c r="M53" s="195"/>
+      <c r="N53" s="196"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -12164,10 +12276,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="200"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="K54" s="194"/>
+      <c r="L54" s="195"/>
+      <c r="M54" s="195"/>
+      <c r="N54" s="196"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -12189,10 +12301,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="200"/>
-      <c r="L55" s="201"/>
-      <c r="M55" s="201"/>
-      <c r="N55" s="202"/>
+      <c r="K55" s="194"/>
+      <c r="L55" s="195"/>
+      <c r="M55" s="195"/>
+      <c r="N55" s="196"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -12214,10 +12326,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="200"/>
-      <c r="L56" s="201"/>
-      <c r="M56" s="201"/>
-      <c r="N56" s="202"/>
+      <c r="K56" s="194"/>
+      <c r="L56" s="195"/>
+      <c r="M56" s="195"/>
+      <c r="N56" s="196"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -12239,10 +12351,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="200"/>
-      <c r="L57" s="201"/>
-      <c r="M57" s="201"/>
-      <c r="N57" s="202"/>
+      <c r="K57" s="194"/>
+      <c r="L57" s="195"/>
+      <c r="M57" s="195"/>
+      <c r="N57" s="196"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -12264,10 +12376,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="200"/>
-      <c r="L58" s="201"/>
-      <c r="M58" s="201"/>
-      <c r="N58" s="202"/>
+      <c r="K58" s="194"/>
+      <c r="L58" s="195"/>
+      <c r="M58" s="195"/>
+      <c r="N58" s="196"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -12289,10 +12401,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="200"/>
-      <c r="L59" s="201"/>
-      <c r="M59" s="201"/>
-      <c r="N59" s="202"/>
+      <c r="K59" s="194"/>
+      <c r="L59" s="195"/>
+      <c r="M59" s="195"/>
+      <c r="N59" s="196"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -12314,10 +12426,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="200"/>
-      <c r="L60" s="201"/>
-      <c r="M60" s="201"/>
-      <c r="N60" s="202"/>
+      <c r="K60" s="194"/>
+      <c r="L60" s="195"/>
+      <c r="M60" s="195"/>
+      <c r="N60" s="196"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -12339,10 +12451,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="200"/>
-      <c r="L61" s="201"/>
-      <c r="M61" s="201"/>
-      <c r="N61" s="202"/>
+      <c r="K61" s="194"/>
+      <c r="L61" s="195"/>
+      <c r="M61" s="195"/>
+      <c r="N61" s="196"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -12364,10 +12476,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="200"/>
-      <c r="L62" s="201"/>
-      <c r="M62" s="201"/>
-      <c r="N62" s="202"/>
+      <c r="K62" s="194"/>
+      <c r="L62" s="195"/>
+      <c r="M62" s="195"/>
+      <c r="N62" s="196"/>
       <c r="O62" s="84"/>
       <c r="P62" s="84"/>
       <c r="Q62" s="76"/>
@@ -12389,10 +12501,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="200"/>
-      <c r="L63" s="201"/>
-      <c r="M63" s="201"/>
-      <c r="N63" s="202"/>
+      <c r="K63" s="194"/>
+      <c r="L63" s="195"/>
+      <c r="M63" s="195"/>
+      <c r="N63" s="196"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
@@ -12414,10 +12526,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="200"/>
-      <c r="L64" s="201"/>
-      <c r="M64" s="201"/>
-      <c r="N64" s="202"/>
+      <c r="K64" s="194"/>
+      <c r="L64" s="195"/>
+      <c r="M64" s="195"/>
+      <c r="N64" s="196"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -12437,10 +12549,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="200"/>
-      <c r="L65" s="201"/>
-      <c r="M65" s="201"/>
-      <c r="N65" s="202"/>
+      <c r="K65" s="194"/>
+      <c r="L65" s="195"/>
+      <c r="M65" s="195"/>
+      <c r="N65" s="196"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
@@ -12460,10 +12572,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="200"/>
-      <c r="L66" s="201"/>
-      <c r="M66" s="201"/>
-      <c r="N66" s="202"/>
+      <c r="K66" s="194"/>
+      <c r="L66" s="195"/>
+      <c r="M66" s="195"/>
+      <c r="N66" s="196"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
@@ -12483,10 +12595,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="200"/>
-      <c r="L67" s="201"/>
-      <c r="M67" s="201"/>
-      <c r="N67" s="202"/>
+      <c r="K67" s="194"/>
+      <c r="L67" s="195"/>
+      <c r="M67" s="195"/>
+      <c r="N67" s="196"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
@@ -12506,10 +12618,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="200"/>
-      <c r="L68" s="201"/>
-      <c r="M68" s="201"/>
-      <c r="N68" s="202"/>
+      <c r="K68" s="194"/>
+      <c r="L68" s="195"/>
+      <c r="M68" s="195"/>
+      <c r="N68" s="196"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
@@ -12529,10 +12641,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="200"/>
-      <c r="L69" s="201"/>
-      <c r="M69" s="201"/>
-      <c r="N69" s="202"/>
+      <c r="K69" s="194"/>
+      <c r="L69" s="195"/>
+      <c r="M69" s="195"/>
+      <c r="N69" s="196"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
@@ -12552,10 +12664,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="200"/>
-      <c r="L70" s="201"/>
-      <c r="M70" s="201"/>
-      <c r="N70" s="202"/>
+      <c r="K70" s="194"/>
+      <c r="L70" s="195"/>
+      <c r="M70" s="195"/>
+      <c r="N70" s="196"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
@@ -12575,10 +12687,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="200"/>
-      <c r="L71" s="201"/>
-      <c r="M71" s="201"/>
-      <c r="N71" s="202"/>
+      <c r="K71" s="194"/>
+      <c r="L71" s="195"/>
+      <c r="M71" s="195"/>
+      <c r="N71" s="196"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
@@ -12598,10 +12710,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="200"/>
-      <c r="L72" s="201"/>
-      <c r="M72" s="201"/>
-      <c r="N72" s="202"/>
+      <c r="K72" s="194"/>
+      <c r="L72" s="195"/>
+      <c r="M72" s="195"/>
+      <c r="N72" s="196"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
@@ -12621,10 +12733,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="200"/>
-      <c r="L73" s="201"/>
-      <c r="M73" s="201"/>
-      <c r="N73" s="202"/>
+      <c r="K73" s="194"/>
+      <c r="L73" s="195"/>
+      <c r="M73" s="195"/>
+      <c r="N73" s="196"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
@@ -12644,10 +12756,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="200"/>
-      <c r="L74" s="201"/>
-      <c r="M74" s="201"/>
-      <c r="N74" s="202"/>
+      <c r="K74" s="194"/>
+      <c r="L74" s="195"/>
+      <c r="M74" s="195"/>
+      <c r="N74" s="196"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
@@ -12667,10 +12779,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="200"/>
-      <c r="L75" s="201"/>
-      <c r="M75" s="201"/>
-      <c r="N75" s="202"/>
+      <c r="K75" s="194"/>
+      <c r="L75" s="195"/>
+      <c r="M75" s="195"/>
+      <c r="N75" s="196"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
@@ -12690,10 +12802,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="200"/>
-      <c r="L76" s="201"/>
-      <c r="M76" s="201"/>
-      <c r="N76" s="202"/>
+      <c r="K76" s="194"/>
+      <c r="L76" s="195"/>
+      <c r="M76" s="195"/>
+      <c r="N76" s="196"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
@@ -12713,10 +12825,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="200"/>
-      <c r="L77" s="201"/>
-      <c r="M77" s="201"/>
-      <c r="N77" s="202"/>
+      <c r="K77" s="194"/>
+      <c r="L77" s="195"/>
+      <c r="M77" s="195"/>
+      <c r="N77" s="196"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
@@ -12736,10 +12848,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="200"/>
-      <c r="L78" s="201"/>
-      <c r="M78" s="201"/>
-      <c r="N78" s="202"/>
+      <c r="K78" s="194"/>
+      <c r="L78" s="195"/>
+      <c r="M78" s="195"/>
+      <c r="N78" s="196"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
@@ -12759,10 +12871,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="200"/>
-      <c r="L79" s="201"/>
-      <c r="M79" s="201"/>
-      <c r="N79" s="202"/>
+      <c r="K79" s="194"/>
+      <c r="L79" s="195"/>
+      <c r="M79" s="195"/>
+      <c r="N79" s="196"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
@@ -12782,10 +12894,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="200"/>
-      <c r="L80" s="201"/>
-      <c r="M80" s="201"/>
-      <c r="N80" s="202"/>
+      <c r="K80" s="194"/>
+      <c r="L80" s="195"/>
+      <c r="M80" s="195"/>
+      <c r="N80" s="196"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -12805,10 +12917,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="200"/>
-      <c r="L81" s="201"/>
-      <c r="M81" s="201"/>
-      <c r="N81" s="202"/>
+      <c r="K81" s="194"/>
+      <c r="L81" s="195"/>
+      <c r="M81" s="195"/>
+      <c r="N81" s="196"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -12828,10 +12940,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="200"/>
-      <c r="L82" s="201"/>
-      <c r="M82" s="201"/>
-      <c r="N82" s="202"/>
+      <c r="K82" s="194"/>
+      <c r="L82" s="195"/>
+      <c r="M82" s="195"/>
+      <c r="N82" s="196"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -12851,10 +12963,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="200"/>
-      <c r="L83" s="201"/>
-      <c r="M83" s="201"/>
-      <c r="N83" s="202"/>
+      <c r="K83" s="194"/>
+      <c r="L83" s="195"/>
+      <c r="M83" s="195"/>
+      <c r="N83" s="196"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -12874,10 +12986,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="200"/>
-      <c r="L84" s="201"/>
-      <c r="M84" s="201"/>
-      <c r="N84" s="202"/>
+      <c r="K84" s="194"/>
+      <c r="L84" s="195"/>
+      <c r="M84" s="195"/>
+      <c r="N84" s="196"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -12897,10 +13009,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="200"/>
-      <c r="L85" s="201"/>
-      <c r="M85" s="201"/>
-      <c r="N85" s="202"/>
+      <c r="K85" s="194"/>
+      <c r="L85" s="195"/>
+      <c r="M85" s="195"/>
+      <c r="N85" s="196"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -12920,10 +13032,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="200"/>
-      <c r="L86" s="201"/>
-      <c r="M86" s="201"/>
-      <c r="N86" s="202"/>
+      <c r="K86" s="194"/>
+      <c r="L86" s="195"/>
+      <c r="M86" s="195"/>
+      <c r="N86" s="196"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -12943,10 +13055,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="200"/>
-      <c r="L87" s="201"/>
-      <c r="M87" s="201"/>
-      <c r="N87" s="202"/>
+      <c r="K87" s="194"/>
+      <c r="L87" s="195"/>
+      <c r="M87" s="195"/>
+      <c r="N87" s="196"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -12966,10 +13078,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="200"/>
-      <c r="L88" s="201"/>
-      <c r="M88" s="201"/>
-      <c r="N88" s="202"/>
+      <c r="K88" s="194"/>
+      <c r="L88" s="195"/>
+      <c r="M88" s="195"/>
+      <c r="N88" s="196"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -12989,10 +13101,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="200"/>
-      <c r="L89" s="201"/>
-      <c r="M89" s="201"/>
-      <c r="N89" s="202"/>
+      <c r="K89" s="194"/>
+      <c r="L89" s="195"/>
+      <c r="M89" s="195"/>
+      <c r="N89" s="196"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -13012,10 +13124,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="200"/>
-      <c r="L90" s="201"/>
-      <c r="M90" s="201"/>
-      <c r="N90" s="202"/>
+      <c r="K90" s="194"/>
+      <c r="L90" s="195"/>
+      <c r="M90" s="195"/>
+      <c r="N90" s="196"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -13035,10 +13147,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="200"/>
-      <c r="L91" s="201"/>
-      <c r="M91" s="201"/>
-      <c r="N91" s="202"/>
+      <c r="K91" s="194"/>
+      <c r="L91" s="195"/>
+      <c r="M91" s="195"/>
+      <c r="N91" s="196"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -13058,10 +13170,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="200"/>
-      <c r="L92" s="201"/>
-      <c r="M92" s="201"/>
-      <c r="N92" s="202"/>
+      <c r="K92" s="194"/>
+      <c r="L92" s="195"/>
+      <c r="M92" s="195"/>
+      <c r="N92" s="196"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -13081,10 +13193,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="200"/>
-      <c r="L93" s="201"/>
-      <c r="M93" s="201"/>
-      <c r="N93" s="202"/>
+      <c r="K93" s="194"/>
+      <c r="L93" s="195"/>
+      <c r="M93" s="195"/>
+      <c r="N93" s="196"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -13104,10 +13216,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="200"/>
-      <c r="L94" s="201"/>
-      <c r="M94" s="201"/>
-      <c r="N94" s="202"/>
+      <c r="K94" s="194"/>
+      <c r="L94" s="195"/>
+      <c r="M94" s="195"/>
+      <c r="N94" s="196"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -13120,11 +13232,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="K87:N87"/>
@@ -13141,79 +13321,11 @@
     <mergeCell ref="K74:N74"/>
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13243,7 +13355,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C12" sqref="C12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13259,10 +13371,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13292,8 +13404,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13350,10 +13462,10 @@
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="43"/>
@@ -13362,10 +13474,10 @@
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
@@ -13429,9 +13541,9 @@
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="80"/>
       <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="C12" s="225"/>
+      <c r="D12" s="225"/>
+      <c r="E12" s="225"/>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
@@ -13441,9 +13553,9 @@
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="80"/>
       <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="225"/>
+      <c r="E13" s="225"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
@@ -14375,10 +14487,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14408,8 +14520,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2392,11 +2392,11 @@
     <t>Tham khảo sheet Code Standar</t>
   </si>
   <si>
-    <t>Thực thi  truyền các tham số từ màn hình xuống store CRMR30101 để mở tab mới Load màn hình báo cáo xem trước khi In 
-Tham khảo Store CRMR30101 để truyền tham số</t>
-  </si>
-  <si>
     <t>Màn hình này để mở tab báo cáo khách hàng mới theo nhân viên xem trước khi in</t>
+  </si>
+  <si>
+    <t>Thực thi  truyền các tham số từ màn hình xuống store CRMP30101 để mở tab mới Load màn hình báo cáo xem trước khi In 
+Tham khảo Store CRMP30101 để truyền tham số</t>
   </si>
 </sst>
 </file>
@@ -3241,114 +3241,114 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3410,6 +3410,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3420,15 +3429,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4394,65 +4394,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="136"/>
-      <c r="B1" s="136"/>
-      <c r="C1" s="138" t="s">
+      <c r="A1" s="130"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="137" t="s">
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137" t="s">
+      <c r="H1" s="131"/>
+      <c r="I1" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="137"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="137" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="133" t="s">
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="134"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="135"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -4463,56 +4463,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -4523,384 +4523,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="130"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="126"/>
-      <c r="T28" s="126"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="126"/>
-      <c r="Z28" s="126"/>
-      <c r="AA28" s="126"/>
-      <c r="AB28" s="126"/>
-      <c r="AC28" s="126"/>
-      <c r="AD28" s="126"/>
-      <c r="AE28" s="126"/>
-      <c r="AF28" s="126"/>
-      <c r="AG28" s="126"/>
-      <c r="AH28" s="126"/>
-      <c r="AI28" s="126"/>
-      <c r="AJ28" s="126"/>
-      <c r="AK28" s="126"/>
-      <c r="AL28" s="126"/>
-      <c r="AM28" s="126"/>
-      <c r="AN28" s="126"/>
-      <c r="AO28" s="126"/>
-      <c r="AP28" s="126"/>
-      <c r="AQ28" s="126"/>
-      <c r="AR28" s="126"/>
-      <c r="AS28" s="126"/>
-      <c r="AT28" s="126"/>
-      <c r="AU28" s="126"/>
-      <c r="AV28" s="126"/>
-      <c r="AW28" s="126"/>
-      <c r="AX28" s="126"/>
-      <c r="AY28" s="126"/>
-      <c r="AZ28" s="126"/>
-      <c r="BA28" s="126"/>
-      <c r="BB28" s="126"/>
-      <c r="BC28" s="126"/>
-      <c r="BD28" s="126"/>
-      <c r="BE28" s="126"/>
-      <c r="BF28" s="126"/>
-      <c r="BG28" s="126"/>
-      <c r="BH28" s="126"/>
-      <c r="BI28" s="126"/>
-      <c r="BJ28" s="126"/>
-      <c r="BK28" s="126"/>
-      <c r="BL28" s="126"/>
-      <c r="BM28" s="126"/>
-      <c r="BN28" s="126"/>
-      <c r="BO28" s="126"/>
-      <c r="BP28" s="126"/>
-      <c r="BQ28" s="126"/>
-      <c r="BR28" s="126"/>
-      <c r="BS28" s="126"/>
-      <c r="BT28" s="126"/>
-      <c r="BU28" s="126"/>
-      <c r="BV28" s="126"/>
-      <c r="BW28" s="126"/>
-      <c r="BX28" s="126"/>
-      <c r="BY28" s="126"/>
-      <c r="BZ28" s="126"/>
-      <c r="CA28" s="126"/>
-      <c r="CB28" s="126"/>
-      <c r="CC28" s="126"/>
-      <c r="CD28" s="126"/>
-      <c r="CE28" s="126"/>
-      <c r="CF28" s="126"/>
-      <c r="CG28" s="126"/>
-      <c r="CH28" s="126"/>
-      <c r="CI28" s="126"/>
-      <c r="CJ28" s="126"/>
-      <c r="CK28" s="126"/>
-      <c r="CL28" s="126"/>
-      <c r="CM28" s="126"/>
-      <c r="CN28" s="126"/>
-      <c r="CO28" s="126"/>
-      <c r="CP28" s="126"/>
-      <c r="CQ28" s="126"/>
-      <c r="CR28" s="126"/>
-      <c r="CS28" s="126"/>
-      <c r="CT28" s="126"/>
-      <c r="CU28" s="126"/>
-      <c r="CV28" s="126"/>
-      <c r="CW28" s="126"/>
-      <c r="CX28" s="126"/>
-      <c r="CY28" s="126"/>
-      <c r="CZ28" s="126"/>
-      <c r="DA28" s="126"/>
-      <c r="DB28" s="126"/>
-      <c r="DC28" s="126"/>
-      <c r="DD28" s="126"/>
-      <c r="DE28" s="126"/>
-      <c r="DF28" s="126"/>
-      <c r="DG28" s="126"/>
-      <c r="DH28" s="126"/>
-      <c r="DI28" s="126"/>
-      <c r="DJ28" s="126"/>
-      <c r="DK28" s="126"/>
-      <c r="DL28" s="126"/>
-      <c r="DM28" s="126"/>
-      <c r="DN28" s="126"/>
-      <c r="DO28" s="126"/>
-      <c r="DP28" s="126"/>
-      <c r="DQ28" s="126"/>
-      <c r="DR28" s="126"/>
-      <c r="DS28" s="126"/>
-      <c r="DT28" s="126"/>
-      <c r="DU28" s="126"/>
-      <c r="DV28" s="126"/>
-      <c r="DW28" s="126"/>
-      <c r="DX28" s="126"/>
-      <c r="DY28" s="126"/>
-      <c r="DZ28" s="126"/>
-      <c r="EA28" s="126"/>
-      <c r="EB28" s="126"/>
-      <c r="EC28" s="126"/>
-      <c r="ED28" s="126"/>
-      <c r="EE28" s="126"/>
-      <c r="EF28" s="126"/>
-      <c r="EG28" s="126"/>
-      <c r="EH28" s="126"/>
-      <c r="EI28" s="126"/>
-      <c r="EJ28" s="126"/>
-      <c r="EK28" s="126"/>
-      <c r="EL28" s="126"/>
-      <c r="EM28" s="126"/>
-      <c r="EN28" s="126"/>
-      <c r="EO28" s="126"/>
-      <c r="EP28" s="126"/>
-      <c r="EQ28" s="126"/>
-      <c r="ER28" s="126"/>
-      <c r="ES28" s="126"/>
-      <c r="ET28" s="126"/>
-      <c r="EU28" s="126"/>
-      <c r="EV28" s="126"/>
-      <c r="EW28" s="126"/>
-      <c r="EX28" s="126"/>
-      <c r="EY28" s="126"/>
-      <c r="EZ28" s="126"/>
-      <c r="FA28" s="126"/>
-      <c r="FB28" s="126"/>
-      <c r="FC28" s="126"/>
-      <c r="FD28" s="126"/>
-      <c r="FE28" s="126"/>
-      <c r="FF28" s="126"/>
-      <c r="FG28" s="126"/>
-      <c r="FH28" s="126"/>
-      <c r="FI28" s="126"/>
-      <c r="FJ28" s="126"/>
-      <c r="FK28" s="126"/>
-      <c r="FL28" s="126"/>
-      <c r="FM28" s="126"/>
-      <c r="FN28" s="126"/>
-      <c r="FO28" s="126"/>
-      <c r="FP28" s="126"/>
-      <c r="FQ28" s="126"/>
-      <c r="FR28" s="126"/>
-      <c r="FS28" s="126"/>
-      <c r="FT28" s="126"/>
-      <c r="FU28" s="126"/>
-      <c r="FV28" s="126"/>
-      <c r="FW28" s="126"/>
-      <c r="FX28" s="126"/>
-      <c r="FY28" s="126"/>
-      <c r="FZ28" s="126"/>
-      <c r="GA28" s="126"/>
-      <c r="GB28" s="126"/>
-      <c r="GC28" s="126"/>
-      <c r="GD28" s="126"/>
-      <c r="GE28" s="126"/>
-      <c r="GF28" s="126"/>
-      <c r="GG28" s="126"/>
-      <c r="GH28" s="126"/>
-      <c r="GI28" s="126"/>
-      <c r="GJ28" s="126"/>
-      <c r="GK28" s="126"/>
-      <c r="GL28" s="126"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="144"/>
+      <c r="T28" s="144"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="144"/>
+      <c r="W28" s="144"/>
+      <c r="X28" s="144"/>
+      <c r="Y28" s="144"/>
+      <c r="Z28" s="144"/>
+      <c r="AA28" s="144"/>
+      <c r="AB28" s="144"/>
+      <c r="AC28" s="144"/>
+      <c r="AD28" s="144"/>
+      <c r="AE28" s="144"/>
+      <c r="AF28" s="144"/>
+      <c r="AG28" s="144"/>
+      <c r="AH28" s="144"/>
+      <c r="AI28" s="144"/>
+      <c r="AJ28" s="144"/>
+      <c r="AK28" s="144"/>
+      <c r="AL28" s="144"/>
+      <c r="AM28" s="144"/>
+      <c r="AN28" s="144"/>
+      <c r="AO28" s="144"/>
+      <c r="AP28" s="144"/>
+      <c r="AQ28" s="144"/>
+      <c r="AR28" s="144"/>
+      <c r="AS28" s="144"/>
+      <c r="AT28" s="144"/>
+      <c r="AU28" s="144"/>
+      <c r="AV28" s="144"/>
+      <c r="AW28" s="144"/>
+      <c r="AX28" s="144"/>
+      <c r="AY28" s="144"/>
+      <c r="AZ28" s="144"/>
+      <c r="BA28" s="144"/>
+      <c r="BB28" s="144"/>
+      <c r="BC28" s="144"/>
+      <c r="BD28" s="144"/>
+      <c r="BE28" s="144"/>
+      <c r="BF28" s="144"/>
+      <c r="BG28" s="144"/>
+      <c r="BH28" s="144"/>
+      <c r="BI28" s="144"/>
+      <c r="BJ28" s="144"/>
+      <c r="BK28" s="144"/>
+      <c r="BL28" s="144"/>
+      <c r="BM28" s="144"/>
+      <c r="BN28" s="144"/>
+      <c r="BO28" s="144"/>
+      <c r="BP28" s="144"/>
+      <c r="BQ28" s="144"/>
+      <c r="BR28" s="144"/>
+      <c r="BS28" s="144"/>
+      <c r="BT28" s="144"/>
+      <c r="BU28" s="144"/>
+      <c r="BV28" s="144"/>
+      <c r="BW28" s="144"/>
+      <c r="BX28" s="144"/>
+      <c r="BY28" s="144"/>
+      <c r="BZ28" s="144"/>
+      <c r="CA28" s="144"/>
+      <c r="CB28" s="144"/>
+      <c r="CC28" s="144"/>
+      <c r="CD28" s="144"/>
+      <c r="CE28" s="144"/>
+      <c r="CF28" s="144"/>
+      <c r="CG28" s="144"/>
+      <c r="CH28" s="144"/>
+      <c r="CI28" s="144"/>
+      <c r="CJ28" s="144"/>
+      <c r="CK28" s="144"/>
+      <c r="CL28" s="144"/>
+      <c r="CM28" s="144"/>
+      <c r="CN28" s="144"/>
+      <c r="CO28" s="144"/>
+      <c r="CP28" s="144"/>
+      <c r="CQ28" s="144"/>
+      <c r="CR28" s="144"/>
+      <c r="CS28" s="144"/>
+      <c r="CT28" s="144"/>
+      <c r="CU28" s="144"/>
+      <c r="CV28" s="144"/>
+      <c r="CW28" s="144"/>
+      <c r="CX28" s="144"/>
+      <c r="CY28" s="144"/>
+      <c r="CZ28" s="144"/>
+      <c r="DA28" s="144"/>
+      <c r="DB28" s="144"/>
+      <c r="DC28" s="144"/>
+      <c r="DD28" s="144"/>
+      <c r="DE28" s="144"/>
+      <c r="DF28" s="144"/>
+      <c r="DG28" s="144"/>
+      <c r="DH28" s="144"/>
+      <c r="DI28" s="144"/>
+      <c r="DJ28" s="144"/>
+      <c r="DK28" s="144"/>
+      <c r="DL28" s="144"/>
+      <c r="DM28" s="144"/>
+      <c r="DN28" s="144"/>
+      <c r="DO28" s="144"/>
+      <c r="DP28" s="144"/>
+      <c r="DQ28" s="144"/>
+      <c r="DR28" s="144"/>
+      <c r="DS28" s="144"/>
+      <c r="DT28" s="144"/>
+      <c r="DU28" s="144"/>
+      <c r="DV28" s="144"/>
+      <c r="DW28" s="144"/>
+      <c r="DX28" s="144"/>
+      <c r="DY28" s="144"/>
+      <c r="DZ28" s="144"/>
+      <c r="EA28" s="144"/>
+      <c r="EB28" s="144"/>
+      <c r="EC28" s="144"/>
+      <c r="ED28" s="144"/>
+      <c r="EE28" s="144"/>
+      <c r="EF28" s="144"/>
+      <c r="EG28" s="144"/>
+      <c r="EH28" s="144"/>
+      <c r="EI28" s="144"/>
+      <c r="EJ28" s="144"/>
+      <c r="EK28" s="144"/>
+      <c r="EL28" s="144"/>
+      <c r="EM28" s="144"/>
+      <c r="EN28" s="144"/>
+      <c r="EO28" s="144"/>
+      <c r="EP28" s="144"/>
+      <c r="EQ28" s="144"/>
+      <c r="ER28" s="144"/>
+      <c r="ES28" s="144"/>
+      <c r="ET28" s="144"/>
+      <c r="EU28" s="144"/>
+      <c r="EV28" s="144"/>
+      <c r="EW28" s="144"/>
+      <c r="EX28" s="144"/>
+      <c r="EY28" s="144"/>
+      <c r="EZ28" s="144"/>
+      <c r="FA28" s="144"/>
+      <c r="FB28" s="144"/>
+      <c r="FC28" s="144"/>
+      <c r="FD28" s="144"/>
+      <c r="FE28" s="144"/>
+      <c r="FF28" s="144"/>
+      <c r="FG28" s="144"/>
+      <c r="FH28" s="144"/>
+      <c r="FI28" s="144"/>
+      <c r="FJ28" s="144"/>
+      <c r="FK28" s="144"/>
+      <c r="FL28" s="144"/>
+      <c r="FM28" s="144"/>
+      <c r="FN28" s="144"/>
+      <c r="FO28" s="144"/>
+      <c r="FP28" s="144"/>
+      <c r="FQ28" s="144"/>
+      <c r="FR28" s="144"/>
+      <c r="FS28" s="144"/>
+      <c r="FT28" s="144"/>
+      <c r="FU28" s="144"/>
+      <c r="FV28" s="144"/>
+      <c r="FW28" s="144"/>
+      <c r="FX28" s="144"/>
+      <c r="FY28" s="144"/>
+      <c r="FZ28" s="144"/>
+      <c r="GA28" s="144"/>
+      <c r="GB28" s="144"/>
+      <c r="GC28" s="144"/>
+      <c r="GD28" s="144"/>
+      <c r="GE28" s="144"/>
+      <c r="GF28" s="144"/>
+      <c r="GG28" s="144"/>
+      <c r="GH28" s="144"/>
+      <c r="GI28" s="144"/>
+      <c r="GJ28" s="144"/>
+      <c r="GK28" s="144"/>
+      <c r="GL28" s="144"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="143"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="143"/>
+      <c r="Q29" s="143"/>
+      <c r="R29" s="143"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -4911,16 +4911,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -4932,6 +4932,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4945,28 +4967,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5521,10 +5521,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5551,8 +5551,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5591,14 +5591,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="114">
@@ -5613,14 +5613,14 @@
       <c r="D5" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="156" t="s">
+      <c r="E5" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="79">
@@ -5631,12 +5631,12 @@
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="160"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="159"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="80">
@@ -5647,12 +5647,12 @@
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="81">
@@ -5663,12 +5663,12 @@
       </c>
       <c r="C8" s="73"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="152"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="82">
@@ -5679,12 +5679,12 @@
       </c>
       <c r="C9" s="73"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="150"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="83">
@@ -5695,12 +5695,12 @@
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="150"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="84">
@@ -5711,12 +5711,12 @@
       </c>
       <c r="C11" s="73"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="85">
@@ -5727,12 +5727,12 @@
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="149"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="86">
@@ -5743,12 +5743,12 @@
       </c>
       <c r="C13" s="73"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="150"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="87">
@@ -5759,12 +5759,12 @@
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="150"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="149"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="79">
@@ -5791,12 +5791,12 @@
       </c>
       <c r="C16" s="73"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="80">
@@ -5807,12 +5807,12 @@
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="81">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="C18" s="73"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="82">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="83">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="84">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="85">
@@ -5887,12 +5887,12 @@
       </c>
       <c r="C22" s="73"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="86">
@@ -5903,12 +5903,12 @@
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="87">
@@ -5919,12 +5919,12 @@
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5935,12 +5935,12 @@
       </c>
       <c r="C25" s="73"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5951,12 +5951,12 @@
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="79">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="80">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="81">
@@ -5999,12 +5999,12 @@
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="82">
@@ -6015,12 +6015,12 @@
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="83">
@@ -6031,12 +6031,12 @@
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="84">
@@ -6047,12 +6047,12 @@
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="85">
@@ -6063,12 +6063,12 @@
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="86">
@@ -6079,12 +6079,12 @@
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="87">
@@ -6095,12 +6095,12 @@
       </c>
       <c r="C35" s="73"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="79">
@@ -6127,12 +6127,12 @@
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="147"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="80">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="C38" s="73"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="81">
@@ -6159,12 +6159,12 @@
       </c>
       <c r="C39" s="73"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="82">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="83">
@@ -6191,12 +6191,12 @@
       </c>
       <c r="C41" s="73"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="147"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="84">
@@ -6207,23 +6207,32 @@
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6239,23 +6248,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6300,10 +6300,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6333,8 +6333,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6882,10 +6882,10 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6910,13 +6910,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6948,11 +6948,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9444,7 +9444,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119"/>
@@ -9481,7 +9481,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="184"/>
+      <c r="A2" s="187"/>
       <c r="B2" s="120"/>
       <c r="C2" s="112"/>
       <c r="D2" s="31" t="s">
@@ -9534,15 +9534,15 @@
       <c r="F4" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="153" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154" t="s">
+      <c r="H4" s="153"/>
+      <c r="I4" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="33">
@@ -9559,17 +9559,17 @@
         <v>221</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="181" t="s">
+      <c r="G5" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="182"/>
-      <c r="I5" s="185" t="s">
+      <c r="H5" s="185"/>
+      <c r="I5" s="181" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="186"/>
-      <c r="K5" s="187"/>
-    </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
+      <c r="J5" s="182"/>
+      <c r="K5" s="183"/>
+    </row>
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
@@ -9578,11 +9578,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="117"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="187"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="183"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9593,11 +9593,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="187"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="183"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9608,11 +9608,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="187"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="183"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9623,11 +9623,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="187"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="183"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9638,11 +9638,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="187"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="183"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9653,11 +9653,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="187"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="183"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9668,11 +9668,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="187"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="183"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9683,11 +9683,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="187"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="183"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9698,11 +9698,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="187"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="183"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9713,11 +9713,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="187"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="183"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9728,11 +9728,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="187"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="183"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9743,11 +9743,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="187"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="183"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9758,11 +9758,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="187"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="183"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9773,11 +9773,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="183"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9788,11 +9788,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="187"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="183"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9803,11 +9803,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="187"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="183"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9818,11 +9818,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="187"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="183"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9833,11 +9833,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="187"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="183"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9848,11 +9848,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="187"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="183"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9863,11 +9863,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="187"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="183"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9878,11 +9878,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="185"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="187"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="183"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9893,11 +9893,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="187"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="183"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9908,11 +9908,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9923,11 +9923,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="187"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="183"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9938,11 +9938,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="183"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9953,11 +9953,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="187"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="183"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9968,11 +9968,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="187"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="183"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9990,11 +9990,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="187"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="183"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -10012,11 +10012,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="187"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="183"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -10034,11 +10034,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="187"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="182"/>
+      <c r="K35" s="183"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -10056,11 +10056,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="187"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="181"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="183"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -10078,11 +10078,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="187"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="182"/>
+      <c r="K37" s="183"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -10100,11 +10100,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="187"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="182"/>
+      <c r="K38" s="183"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -10122,11 +10122,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="186"/>
-      <c r="K39" s="187"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="182"/>
+      <c r="K39" s="183"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10144,11 +10144,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="185"/>
-      <c r="J40" s="186"/>
-      <c r="K40" s="187"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="181"/>
+      <c r="J40" s="182"/>
+      <c r="K40" s="183"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10166,11 +10166,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="187"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="181"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="183"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10188,11 +10188,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="187"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="182"/>
+      <c r="K42" s="183"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10210,11 +10210,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="186"/>
-      <c r="K43" s="187"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="182"/>
+      <c r="K43" s="183"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10232,11 +10232,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="186"/>
-      <c r="K44" s="187"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="181"/>
+      <c r="J44" s="182"/>
+      <c r="K44" s="183"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10254,11 +10254,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="185"/>
-      <c r="J45" s="186"/>
-      <c r="K45" s="187"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="181"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="183"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10276,11 +10276,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="185"/>
-      <c r="J46" s="186"/>
-      <c r="K46" s="187"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="182"/>
+      <c r="K46" s="183"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10298,11 +10298,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="185"/>
-      <c r="J47" s="186"/>
-      <c r="K47" s="187"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="182"/>
+      <c r="K47" s="183"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10320,11 +10320,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="185"/>
-      <c r="J48" s="186"/>
-      <c r="K48" s="187"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="181"/>
+      <c r="J48" s="182"/>
+      <c r="K48" s="183"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10342,11 +10342,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="148"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="187"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="181"/>
+      <c r="J49" s="182"/>
+      <c r="K49" s="183"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10364,11 +10364,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="185"/>
-      <c r="J50" s="186"/>
-      <c r="K50" s="187"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="181"/>
+      <c r="J50" s="182"/>
+      <c r="K50" s="183"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10386,11 +10386,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="148"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="185"/>
-      <c r="J51" s="186"/>
-      <c r="K51" s="187"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="181"/>
+      <c r="J51" s="182"/>
+      <c r="K51" s="183"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10408,11 +10408,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="148"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="185"/>
-      <c r="J52" s="186"/>
-      <c r="K52" s="187"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="149"/>
+      <c r="I52" s="181"/>
+      <c r="J52" s="182"/>
+      <c r="K52" s="183"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10430,11 +10430,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="185"/>
-      <c r="J53" s="186"/>
-      <c r="K53" s="187"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="182"/>
+      <c r="K53" s="183"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10452,11 +10452,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="185"/>
-      <c r="J54" s="186"/>
-      <c r="K54" s="187"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="182"/>
+      <c r="K54" s="183"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10474,11 +10474,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="185"/>
-      <c r="J55" s="186"/>
-      <c r="K55" s="187"/>
+      <c r="G55" s="147"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="181"/>
+      <c r="J55" s="182"/>
+      <c r="K55" s="183"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10496,11 +10496,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="148"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="185"/>
-      <c r="J56" s="186"/>
-      <c r="K56" s="187"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="149"/>
+      <c r="I56" s="181"/>
+      <c r="J56" s="182"/>
+      <c r="K56" s="183"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10512,6 +10512,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
@@ -10526,99 +10619,6 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10637,7 +10637,7 @@
   <dimension ref="A1:U1048467"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="H1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:N16"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10666,16 +10666,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10710,14 +10710,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13092,47 +13092,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
@@ -13149,45 +13145,49 @@
     <mergeCell ref="K57:N57"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
       <formula1>"Select,Insert,Update,Delete"</formula1>
@@ -13214,8 +13214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13323,7 +13323,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -13849,7 +13849,7 @@
     </row>
     <row r="49" spans="1:10" ht="33.75" customHeight="1">
       <c r="B49" s="196" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C49" s="196"/>
       <c r="D49" s="196"/>
@@ -14331,7 +14331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -14348,10 +14348,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14381,8 +14381,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
@@ -1576,7 +1576,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="239">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2305,9 +2305,6 @@
     <t>Click vào Link Báo cáo Khách hàng mới theo nhân viên</t>
   </si>
   <si>
-    <t>Thực thi @SQL0001 , @SQL0002 đổ nguồn cho Dropdownchecklist</t>
-  </si>
-  <si>
     <t>Click vào BttnClose thực thi đóng màn hình CRMF3010 trở về màn hình CRMF3000</t>
   </si>
   <si>
@@ -2397,6 +2394,12 @@
   <si>
     <t>Thực thi  truyền các tham số từ màn hình xuống store CRMP30101 để mở tab mới Load màn hình báo cáo xem trước khi In 
 Tham khảo Store CRMP30101 để truyền tham số</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0001  đổ nguồn cho Dropdownchecklist</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0002  đổ nguồn cho Combobox</t>
   </si>
 </sst>
 </file>
@@ -5614,7 +5617,7 @@
         <v>161</v>
       </c>
       <c r="E5" s="155" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F5" s="156"/>
       <c r="G5" s="156"/>
@@ -6477,7 +6480,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="164" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J12" s="165"/>
     </row>
@@ -6989,7 +6992,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="114" t="s">
         <v>163</v>
@@ -7140,7 +7143,7 @@
       <c r="M7" s="121"/>
       <c r="N7" s="121"/>
       <c r="O7" s="121" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P7" s="121"/>
     </row>
@@ -7180,7 +7183,7 @@
       <c r="M8" s="121"/>
       <c r="N8" s="121"/>
       <c r="O8" s="121" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P8" s="121"/>
     </row>
@@ -7254,7 +7257,7 @@
         <v>150</v>
       </c>
       <c r="M10" s="121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N10" s="121"/>
       <c r="O10" s="121"/>
@@ -7286,7 +7289,7 @@
         <v>192</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
@@ -7294,14 +7297,14 @@
         <v>150</v>
       </c>
       <c r="M11" s="121" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N11" s="121"/>
       <c r="O11" s="121" t="s">
+        <v>227</v>
+      </c>
+      <c r="P11" s="121" t="s">
         <v>228</v>
-      </c>
-      <c r="P11" s="121" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8480,7 +8483,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>32</v>
@@ -9520,7 +9523,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="110" t="s">
         <v>32</v>
@@ -9556,11 +9559,11 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="117" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="184" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H5" s="185"/>
       <c r="I5" s="181" t="s">
@@ -10756,7 +10759,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="122" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="122" t="s">
         <v>163</v>
@@ -10820,13 +10823,13 @@
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
       <c r="G5" s="121" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H5" s="62" t="s">
         <v>184</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J5" s="118" t="s">
         <v>182</v>
@@ -10850,7 +10853,7 @@
         <v>189</v>
       </c>
       <c r="S5" s="121" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T5" s="63"/>
       <c r="U5" s="63"/>
@@ -10869,13 +10872,13 @@
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
       <c r="G6" s="121" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H6" s="62" t="s">
         <v>184</v>
       </c>
       <c r="I6" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J6" s="118" t="s">
         <v>183</v>
@@ -10899,7 +10902,7 @@
         <v>189</v>
       </c>
       <c r="S6" s="121" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T6" s="63"/>
       <c r="U6" s="63"/>
@@ -10930,7 +10933,7 @@
         <v>196</v>
       </c>
       <c r="K7" s="188" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L7" s="189"/>
       <c r="M7" s="189"/>
@@ -10939,14 +10942,14 @@
         <v>134</v>
       </c>
       <c r="P7" s="123" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="71"/>
       <c r="R7" s="70" t="s">
         <v>189</v>
       </c>
       <c r="S7" s="75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T7" s="63"/>
       <c r="U7" s="63"/>
@@ -10977,7 +10980,7 @@
         <v>197</v>
       </c>
       <c r="K8" s="188" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L8" s="189"/>
       <c r="M8" s="189"/>
@@ -10986,14 +10989,14 @@
         <v>134</v>
       </c>
       <c r="P8" s="113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="71"/>
       <c r="R8" s="70" t="s">
         <v>189</v>
       </c>
       <c r="S8" s="75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
@@ -13214,8 +13217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13323,7 +13326,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -13404,7 +13407,7 @@
       <c r="A12" s="74"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -13455,7 +13458,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13467,7 +13470,9 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="43" t="s">
+        <v>238</v>
+      </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -13526,7 +13531,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="74"/>
       <c r="C23" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -13576,10 +13581,10 @@
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" s="77"/>
       <c r="D27" s="43"/>
@@ -13849,7 +13854,7 @@
     </row>
     <row r="49" spans="1:10" ht="33.75" customHeight="1">
       <c r="B49" s="196" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C49" s="196"/>
       <c r="D49" s="196"/>
@@ -14408,7 +14413,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -3244,9 +3244,27 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3292,23 +3310,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3349,9 +3352,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3413,6 +3413,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3420,18 +3432,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4397,65 +4397,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="130"/>
-      <c r="B1" s="130"/>
-      <c r="C1" s="132" t="s">
+      <c r="A1" s="136"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="138" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="131" t="s">
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131" t="s">
+      <c r="H1" s="137"/>
+      <c r="I1" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="131"/>
+      <c r="J1" s="137"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="131" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="127" t="s">
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="128"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="134"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -4466,56 +4466,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="125"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -4526,384 +4526,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="143"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="144"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="144"/>
-      <c r="W28" s="144"/>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="144"/>
-      <c r="Z28" s="144"/>
-      <c r="AA28" s="144"/>
-      <c r="AB28" s="144"/>
-      <c r="AC28" s="144"/>
-      <c r="AD28" s="144"/>
-      <c r="AE28" s="144"/>
-      <c r="AF28" s="144"/>
-      <c r="AG28" s="144"/>
-      <c r="AH28" s="144"/>
-      <c r="AI28" s="144"/>
-      <c r="AJ28" s="144"/>
-      <c r="AK28" s="144"/>
-      <c r="AL28" s="144"/>
-      <c r="AM28" s="144"/>
-      <c r="AN28" s="144"/>
-      <c r="AO28" s="144"/>
-      <c r="AP28" s="144"/>
-      <c r="AQ28" s="144"/>
-      <c r="AR28" s="144"/>
-      <c r="AS28" s="144"/>
-      <c r="AT28" s="144"/>
-      <c r="AU28" s="144"/>
-      <c r="AV28" s="144"/>
-      <c r="AW28" s="144"/>
-      <c r="AX28" s="144"/>
-      <c r="AY28" s="144"/>
-      <c r="AZ28" s="144"/>
-      <c r="BA28" s="144"/>
-      <c r="BB28" s="144"/>
-      <c r="BC28" s="144"/>
-      <c r="BD28" s="144"/>
-      <c r="BE28" s="144"/>
-      <c r="BF28" s="144"/>
-      <c r="BG28" s="144"/>
-      <c r="BH28" s="144"/>
-      <c r="BI28" s="144"/>
-      <c r="BJ28" s="144"/>
-      <c r="BK28" s="144"/>
-      <c r="BL28" s="144"/>
-      <c r="BM28" s="144"/>
-      <c r="BN28" s="144"/>
-      <c r="BO28" s="144"/>
-      <c r="BP28" s="144"/>
-      <c r="BQ28" s="144"/>
-      <c r="BR28" s="144"/>
-      <c r="BS28" s="144"/>
-      <c r="BT28" s="144"/>
-      <c r="BU28" s="144"/>
-      <c r="BV28" s="144"/>
-      <c r="BW28" s="144"/>
-      <c r="BX28" s="144"/>
-      <c r="BY28" s="144"/>
-      <c r="BZ28" s="144"/>
-      <c r="CA28" s="144"/>
-      <c r="CB28" s="144"/>
-      <c r="CC28" s="144"/>
-      <c r="CD28" s="144"/>
-      <c r="CE28" s="144"/>
-      <c r="CF28" s="144"/>
-      <c r="CG28" s="144"/>
-      <c r="CH28" s="144"/>
-      <c r="CI28" s="144"/>
-      <c r="CJ28" s="144"/>
-      <c r="CK28" s="144"/>
-      <c r="CL28" s="144"/>
-      <c r="CM28" s="144"/>
-      <c r="CN28" s="144"/>
-      <c r="CO28" s="144"/>
-      <c r="CP28" s="144"/>
-      <c r="CQ28" s="144"/>
-      <c r="CR28" s="144"/>
-      <c r="CS28" s="144"/>
-      <c r="CT28" s="144"/>
-      <c r="CU28" s="144"/>
-      <c r="CV28" s="144"/>
-      <c r="CW28" s="144"/>
-      <c r="CX28" s="144"/>
-      <c r="CY28" s="144"/>
-      <c r="CZ28" s="144"/>
-      <c r="DA28" s="144"/>
-      <c r="DB28" s="144"/>
-      <c r="DC28" s="144"/>
-      <c r="DD28" s="144"/>
-      <c r="DE28" s="144"/>
-      <c r="DF28" s="144"/>
-      <c r="DG28" s="144"/>
-      <c r="DH28" s="144"/>
-      <c r="DI28" s="144"/>
-      <c r="DJ28" s="144"/>
-      <c r="DK28" s="144"/>
-      <c r="DL28" s="144"/>
-      <c r="DM28" s="144"/>
-      <c r="DN28" s="144"/>
-      <c r="DO28" s="144"/>
-      <c r="DP28" s="144"/>
-      <c r="DQ28" s="144"/>
-      <c r="DR28" s="144"/>
-      <c r="DS28" s="144"/>
-      <c r="DT28" s="144"/>
-      <c r="DU28" s="144"/>
-      <c r="DV28" s="144"/>
-      <c r="DW28" s="144"/>
-      <c r="DX28" s="144"/>
-      <c r="DY28" s="144"/>
-      <c r="DZ28" s="144"/>
-      <c r="EA28" s="144"/>
-      <c r="EB28" s="144"/>
-      <c r="EC28" s="144"/>
-      <c r="ED28" s="144"/>
-      <c r="EE28" s="144"/>
-      <c r="EF28" s="144"/>
-      <c r="EG28" s="144"/>
-      <c r="EH28" s="144"/>
-      <c r="EI28" s="144"/>
-      <c r="EJ28" s="144"/>
-      <c r="EK28" s="144"/>
-      <c r="EL28" s="144"/>
-      <c r="EM28" s="144"/>
-      <c r="EN28" s="144"/>
-      <c r="EO28" s="144"/>
-      <c r="EP28" s="144"/>
-      <c r="EQ28" s="144"/>
-      <c r="ER28" s="144"/>
-      <c r="ES28" s="144"/>
-      <c r="ET28" s="144"/>
-      <c r="EU28" s="144"/>
-      <c r="EV28" s="144"/>
-      <c r="EW28" s="144"/>
-      <c r="EX28" s="144"/>
-      <c r="EY28" s="144"/>
-      <c r="EZ28" s="144"/>
-      <c r="FA28" s="144"/>
-      <c r="FB28" s="144"/>
-      <c r="FC28" s="144"/>
-      <c r="FD28" s="144"/>
-      <c r="FE28" s="144"/>
-      <c r="FF28" s="144"/>
-      <c r="FG28" s="144"/>
-      <c r="FH28" s="144"/>
-      <c r="FI28" s="144"/>
-      <c r="FJ28" s="144"/>
-      <c r="FK28" s="144"/>
-      <c r="FL28" s="144"/>
-      <c r="FM28" s="144"/>
-      <c r="FN28" s="144"/>
-      <c r="FO28" s="144"/>
-      <c r="FP28" s="144"/>
-      <c r="FQ28" s="144"/>
-      <c r="FR28" s="144"/>
-      <c r="FS28" s="144"/>
-      <c r="FT28" s="144"/>
-      <c r="FU28" s="144"/>
-      <c r="FV28" s="144"/>
-      <c r="FW28" s="144"/>
-      <c r="FX28" s="144"/>
-      <c r="FY28" s="144"/>
-      <c r="FZ28" s="144"/>
-      <c r="GA28" s="144"/>
-      <c r="GB28" s="144"/>
-      <c r="GC28" s="144"/>
-      <c r="GD28" s="144"/>
-      <c r="GE28" s="144"/>
-      <c r="GF28" s="144"/>
-      <c r="GG28" s="144"/>
-      <c r="GH28" s="144"/>
-      <c r="GI28" s="144"/>
-      <c r="GJ28" s="144"/>
-      <c r="GK28" s="144"/>
-      <c r="GL28" s="144"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="126"/>
+      <c r="X28" s="126"/>
+      <c r="Y28" s="126"/>
+      <c r="Z28" s="126"/>
+      <c r="AA28" s="126"/>
+      <c r="AB28" s="126"/>
+      <c r="AC28" s="126"/>
+      <c r="AD28" s="126"/>
+      <c r="AE28" s="126"/>
+      <c r="AF28" s="126"/>
+      <c r="AG28" s="126"/>
+      <c r="AH28" s="126"/>
+      <c r="AI28" s="126"/>
+      <c r="AJ28" s="126"/>
+      <c r="AK28" s="126"/>
+      <c r="AL28" s="126"/>
+      <c r="AM28" s="126"/>
+      <c r="AN28" s="126"/>
+      <c r="AO28" s="126"/>
+      <c r="AP28" s="126"/>
+      <c r="AQ28" s="126"/>
+      <c r="AR28" s="126"/>
+      <c r="AS28" s="126"/>
+      <c r="AT28" s="126"/>
+      <c r="AU28" s="126"/>
+      <c r="AV28" s="126"/>
+      <c r="AW28" s="126"/>
+      <c r="AX28" s="126"/>
+      <c r="AY28" s="126"/>
+      <c r="AZ28" s="126"/>
+      <c r="BA28" s="126"/>
+      <c r="BB28" s="126"/>
+      <c r="BC28" s="126"/>
+      <c r="BD28" s="126"/>
+      <c r="BE28" s="126"/>
+      <c r="BF28" s="126"/>
+      <c r="BG28" s="126"/>
+      <c r="BH28" s="126"/>
+      <c r="BI28" s="126"/>
+      <c r="BJ28" s="126"/>
+      <c r="BK28" s="126"/>
+      <c r="BL28" s="126"/>
+      <c r="BM28" s="126"/>
+      <c r="BN28" s="126"/>
+      <c r="BO28" s="126"/>
+      <c r="BP28" s="126"/>
+      <c r="BQ28" s="126"/>
+      <c r="BR28" s="126"/>
+      <c r="BS28" s="126"/>
+      <c r="BT28" s="126"/>
+      <c r="BU28" s="126"/>
+      <c r="BV28" s="126"/>
+      <c r="BW28" s="126"/>
+      <c r="BX28" s="126"/>
+      <c r="BY28" s="126"/>
+      <c r="BZ28" s="126"/>
+      <c r="CA28" s="126"/>
+      <c r="CB28" s="126"/>
+      <c r="CC28" s="126"/>
+      <c r="CD28" s="126"/>
+      <c r="CE28" s="126"/>
+      <c r="CF28" s="126"/>
+      <c r="CG28" s="126"/>
+      <c r="CH28" s="126"/>
+      <c r="CI28" s="126"/>
+      <c r="CJ28" s="126"/>
+      <c r="CK28" s="126"/>
+      <c r="CL28" s="126"/>
+      <c r="CM28" s="126"/>
+      <c r="CN28" s="126"/>
+      <c r="CO28" s="126"/>
+      <c r="CP28" s="126"/>
+      <c r="CQ28" s="126"/>
+      <c r="CR28" s="126"/>
+      <c r="CS28" s="126"/>
+      <c r="CT28" s="126"/>
+      <c r="CU28" s="126"/>
+      <c r="CV28" s="126"/>
+      <c r="CW28" s="126"/>
+      <c r="CX28" s="126"/>
+      <c r="CY28" s="126"/>
+      <c r="CZ28" s="126"/>
+      <c r="DA28" s="126"/>
+      <c r="DB28" s="126"/>
+      <c r="DC28" s="126"/>
+      <c r="DD28" s="126"/>
+      <c r="DE28" s="126"/>
+      <c r="DF28" s="126"/>
+      <c r="DG28" s="126"/>
+      <c r="DH28" s="126"/>
+      <c r="DI28" s="126"/>
+      <c r="DJ28" s="126"/>
+      <c r="DK28" s="126"/>
+      <c r="DL28" s="126"/>
+      <c r="DM28" s="126"/>
+      <c r="DN28" s="126"/>
+      <c r="DO28" s="126"/>
+      <c r="DP28" s="126"/>
+      <c r="DQ28" s="126"/>
+      <c r="DR28" s="126"/>
+      <c r="DS28" s="126"/>
+      <c r="DT28" s="126"/>
+      <c r="DU28" s="126"/>
+      <c r="DV28" s="126"/>
+      <c r="DW28" s="126"/>
+      <c r="DX28" s="126"/>
+      <c r="DY28" s="126"/>
+      <c r="DZ28" s="126"/>
+      <c r="EA28" s="126"/>
+      <c r="EB28" s="126"/>
+      <c r="EC28" s="126"/>
+      <c r="ED28" s="126"/>
+      <c r="EE28" s="126"/>
+      <c r="EF28" s="126"/>
+      <c r="EG28" s="126"/>
+      <c r="EH28" s="126"/>
+      <c r="EI28" s="126"/>
+      <c r="EJ28" s="126"/>
+      <c r="EK28" s="126"/>
+      <c r="EL28" s="126"/>
+      <c r="EM28" s="126"/>
+      <c r="EN28" s="126"/>
+      <c r="EO28" s="126"/>
+      <c r="EP28" s="126"/>
+      <c r="EQ28" s="126"/>
+      <c r="ER28" s="126"/>
+      <c r="ES28" s="126"/>
+      <c r="ET28" s="126"/>
+      <c r="EU28" s="126"/>
+      <c r="EV28" s="126"/>
+      <c r="EW28" s="126"/>
+      <c r="EX28" s="126"/>
+      <c r="EY28" s="126"/>
+      <c r="EZ28" s="126"/>
+      <c r="FA28" s="126"/>
+      <c r="FB28" s="126"/>
+      <c r="FC28" s="126"/>
+      <c r="FD28" s="126"/>
+      <c r="FE28" s="126"/>
+      <c r="FF28" s="126"/>
+      <c r="FG28" s="126"/>
+      <c r="FH28" s="126"/>
+      <c r="FI28" s="126"/>
+      <c r="FJ28" s="126"/>
+      <c r="FK28" s="126"/>
+      <c r="FL28" s="126"/>
+      <c r="FM28" s="126"/>
+      <c r="FN28" s="126"/>
+      <c r="FO28" s="126"/>
+      <c r="FP28" s="126"/>
+      <c r="FQ28" s="126"/>
+      <c r="FR28" s="126"/>
+      <c r="FS28" s="126"/>
+      <c r="FT28" s="126"/>
+      <c r="FU28" s="126"/>
+      <c r="FV28" s="126"/>
+      <c r="FW28" s="126"/>
+      <c r="FX28" s="126"/>
+      <c r="FY28" s="126"/>
+      <c r="FZ28" s="126"/>
+      <c r="GA28" s="126"/>
+      <c r="GB28" s="126"/>
+      <c r="GC28" s="126"/>
+      <c r="GD28" s="126"/>
+      <c r="GE28" s="126"/>
+      <c r="GF28" s="126"/>
+      <c r="GG28" s="126"/>
+      <c r="GH28" s="126"/>
+      <c r="GI28" s="126"/>
+      <c r="GJ28" s="126"/>
+      <c r="GK28" s="126"/>
+      <c r="GL28" s="126"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="143"/>
-      <c r="O29" s="143"/>
-      <c r="P29" s="143"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="143"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="146"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -4914,16 +4914,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="146"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
+      <c r="A31" s="125"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="125"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -4935,28 +4935,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4970,6 +4948,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5524,10 +5524,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5554,8 +5554,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5594,14 +5594,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="114">
@@ -5616,14 +5616,14 @@
       <c r="D5" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="156" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="79">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="159"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="160"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="80">
@@ -5650,12 +5650,12 @@
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="81">
@@ -5666,12 +5666,12 @@
       </c>
       <c r="C8" s="73"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="152"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="82">
@@ -5682,12 +5682,12 @@
       </c>
       <c r="C9" s="73"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="83">
@@ -5698,12 +5698,12 @@
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="150"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="84">
@@ -5714,12 +5714,12 @@
       </c>
       <c r="C11" s="73"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="85">
@@ -5730,12 +5730,12 @@
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="86">
@@ -5746,12 +5746,12 @@
       </c>
       <c r="C13" s="73"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="150"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="87">
@@ -5762,12 +5762,12 @@
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="150"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5778,12 +5778,12 @@
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="79">
@@ -5794,12 +5794,12 @@
       </c>
       <c r="C16" s="73"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="80">
@@ -5810,12 +5810,12 @@
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="81">
@@ -5826,12 +5826,12 @@
       </c>
       <c r="C18" s="73"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="82">
@@ -5842,12 +5842,12 @@
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="83">
@@ -5858,12 +5858,12 @@
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="84">
@@ -5874,12 +5874,12 @@
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="85">
@@ -5890,12 +5890,12 @@
       </c>
       <c r="C22" s="73"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="86">
@@ -5906,12 +5906,12 @@
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="87">
@@ -5922,12 +5922,12 @@
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5938,12 +5938,12 @@
       </c>
       <c r="C25" s="73"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5954,12 +5954,12 @@
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="79">
@@ -5970,12 +5970,12 @@
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="80">
@@ -5986,12 +5986,12 @@
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="81">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="160"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="82">
@@ -6018,12 +6018,12 @@
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="83">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="84">
@@ -6050,12 +6050,12 @@
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="85">
@@ -6066,12 +6066,12 @@
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="86">
@@ -6082,12 +6082,12 @@
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="87">
@@ -6098,12 +6098,12 @@
       </c>
       <c r="C35" s="73"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6114,12 +6114,12 @@
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="79">
@@ -6130,12 +6130,12 @@
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="160"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="147"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="80">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="C38" s="73"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="81">
@@ -6162,12 +6162,12 @@
       </c>
       <c r="C39" s="73"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="82">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="83">
@@ -6194,12 +6194,12 @@
       </c>
       <c r="C41" s="73"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="84">
@@ -6210,32 +6210,23 @@
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="160"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6251,14 +6242,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6303,10 +6303,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6336,8 +6336,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6884,11 +6884,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6913,13 +6913,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6951,11 +6951,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7251,7 +7251,9 @@
       <c r="I10" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="J10" s="61"/>
+      <c r="J10" s="61">
+        <v>50</v>
+      </c>
       <c r="K10" s="61"/>
       <c r="L10" s="40" t="s">
         <v>150</v>
@@ -9447,7 +9449,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="183" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119"/>
@@ -9484,7 +9486,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="187"/>
+      <c r="A2" s="184"/>
       <c r="B2" s="120"/>
       <c r="C2" s="112"/>
       <c r="D2" s="31" t="s">
@@ -9537,15 +9539,15 @@
       <c r="F4" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153" t="s">
+      <c r="H4" s="154"/>
+      <c r="I4" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="33">
@@ -9562,15 +9564,15 @@
         <v>220</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="184" t="s">
+      <c r="G5" s="181" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="185"/>
-      <c r="I5" s="181" t="s">
+      <c r="H5" s="182"/>
+      <c r="I5" s="185" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="182"/>
-      <c r="K5" s="183"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="187"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9581,11 +9583,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="117"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="183"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="187"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9596,11 +9598,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="183"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="187"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9611,11 +9613,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="183"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="187"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9626,11 +9628,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="183"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="187"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9641,11 +9643,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="183"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="187"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9656,11 +9658,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="183"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="187"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9671,11 +9673,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="183"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="187"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9686,11 +9688,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="183"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="187"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9701,11 +9703,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="183"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="187"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9716,11 +9718,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="183"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="187"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9731,11 +9733,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="183"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="187"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9746,11 +9748,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="183"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="187"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9761,11 +9763,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="183"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="187"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9776,11 +9778,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="183"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="187"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9791,11 +9793,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="183"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="187"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9806,11 +9808,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="183"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="187"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9821,11 +9823,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="183"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="187"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9836,11 +9838,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="183"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="187"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9851,11 +9853,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="183"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="187"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9866,11 +9868,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="183"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="187"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9881,11 +9883,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="183"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="187"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9896,11 +9898,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="183"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9911,11 +9913,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="183"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9926,11 +9928,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="183"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="187"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9941,11 +9943,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="183"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9956,11 +9958,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="183"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="187"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9971,11 +9973,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="183"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="187"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9993,11 +9995,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="183"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="187"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -10015,11 +10017,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="182"/>
-      <c r="K34" s="183"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="187"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -10037,11 +10039,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="182"/>
-      <c r="K35" s="183"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="187"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -10059,11 +10061,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="181"/>
-      <c r="J36" s="182"/>
-      <c r="K36" s="183"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="186"/>
+      <c r="K36" s="187"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -10081,11 +10083,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="182"/>
-      <c r="K37" s="183"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="186"/>
+      <c r="K37" s="187"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -10103,11 +10105,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="181"/>
-      <c r="J38" s="182"/>
-      <c r="K38" s="183"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="187"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -10125,11 +10127,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="182"/>
-      <c r="K39" s="183"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="185"/>
+      <c r="J39" s="186"/>
+      <c r="K39" s="187"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10147,11 +10149,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="181"/>
-      <c r="J40" s="182"/>
-      <c r="K40" s="183"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="186"/>
+      <c r="K40" s="187"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10169,11 +10171,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="181"/>
-      <c r="J41" s="182"/>
-      <c r="K41" s="183"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="185"/>
+      <c r="J41" s="186"/>
+      <c r="K41" s="187"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10191,11 +10193,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="182"/>
-      <c r="K42" s="183"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="186"/>
+      <c r="K42" s="187"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10213,11 +10215,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="181"/>
-      <c r="J43" s="182"/>
-      <c r="K43" s="183"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="186"/>
+      <c r="K43" s="187"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10235,11 +10237,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="181"/>
-      <c r="J44" s="182"/>
-      <c r="K44" s="183"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="185"/>
+      <c r="J44" s="186"/>
+      <c r="K44" s="187"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10257,11 +10259,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="181"/>
-      <c r="J45" s="182"/>
-      <c r="K45" s="183"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="186"/>
+      <c r="K45" s="187"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10279,11 +10281,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="181"/>
-      <c r="J46" s="182"/>
-      <c r="K46" s="183"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="185"/>
+      <c r="J46" s="186"/>
+      <c r="K46" s="187"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10301,11 +10303,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="149"/>
-      <c r="I47" s="181"/>
-      <c r="J47" s="182"/>
-      <c r="K47" s="183"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="185"/>
+      <c r="J47" s="186"/>
+      <c r="K47" s="187"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10323,11 +10325,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="181"/>
-      <c r="J48" s="182"/>
-      <c r="K48" s="183"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="185"/>
+      <c r="J48" s="186"/>
+      <c r="K48" s="187"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10345,11 +10347,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="181"/>
-      <c r="J49" s="182"/>
-      <c r="K49" s="183"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="185"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="187"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10367,11 +10369,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="149"/>
-      <c r="I50" s="181"/>
-      <c r="J50" s="182"/>
-      <c r="K50" s="183"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="185"/>
+      <c r="J50" s="186"/>
+      <c r="K50" s="187"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10389,11 +10391,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="181"/>
-      <c r="J51" s="182"/>
-      <c r="K51" s="183"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="185"/>
+      <c r="J51" s="186"/>
+      <c r="K51" s="187"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10411,11 +10413,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="149"/>
-      <c r="I52" s="181"/>
-      <c r="J52" s="182"/>
-      <c r="K52" s="183"/>
+      <c r="G52" s="148"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="185"/>
+      <c r="J52" s="186"/>
+      <c r="K52" s="187"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10433,11 +10435,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="181"/>
-      <c r="J53" s="182"/>
-      <c r="K53" s="183"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="185"/>
+      <c r="J53" s="186"/>
+      <c r="K53" s="187"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10455,11 +10457,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="181"/>
-      <c r="J54" s="182"/>
-      <c r="K54" s="183"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="185"/>
+      <c r="J54" s="186"/>
+      <c r="K54" s="187"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10477,11 +10479,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="181"/>
-      <c r="J55" s="182"/>
-      <c r="K55" s="183"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="185"/>
+      <c r="J55" s="186"/>
+      <c r="K55" s="187"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10499,11 +10501,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="147"/>
-      <c r="H56" s="149"/>
-      <c r="I56" s="181"/>
-      <c r="J56" s="182"/>
-      <c r="K56" s="183"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="185"/>
+      <c r="J56" s="186"/>
+      <c r="K56" s="187"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10515,25 +10517,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -10548,80 +10605,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10669,16 +10671,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10713,14 +10715,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13095,11 +13097,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="K87:N87"/>
@@ -13116,79 +13186,11 @@
     <mergeCell ref="K74:N74"/>
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13217,7 +13219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -14353,10 +14355,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14386,8 +14388,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -3226,114 +3226,114 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3395,6 +3395,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3405,15 +3414,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3535,19 +3535,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3567,8 +3567,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2400300" y="1466850"/>
-          <a:ext cx="4438650" cy="3152775"/>
+          <a:off x="3028950" y="1219200"/>
+          <a:ext cx="4105275" cy="2533650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4379,65 +4379,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="136"/>
-      <c r="B1" s="136"/>
-      <c r="C1" s="138" t="s">
+      <c r="A1" s="130"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="137" t="s">
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137" t="s">
+      <c r="H1" s="131"/>
+      <c r="I1" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="137"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="137" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="133" t="s">
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="134"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="135"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -4448,56 +4448,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -4508,384 +4508,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="130"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="126"/>
-      <c r="T28" s="126"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="126"/>
-      <c r="Z28" s="126"/>
-      <c r="AA28" s="126"/>
-      <c r="AB28" s="126"/>
-      <c r="AC28" s="126"/>
-      <c r="AD28" s="126"/>
-      <c r="AE28" s="126"/>
-      <c r="AF28" s="126"/>
-      <c r="AG28" s="126"/>
-      <c r="AH28" s="126"/>
-      <c r="AI28" s="126"/>
-      <c r="AJ28" s="126"/>
-      <c r="AK28" s="126"/>
-      <c r="AL28" s="126"/>
-      <c r="AM28" s="126"/>
-      <c r="AN28" s="126"/>
-      <c r="AO28" s="126"/>
-      <c r="AP28" s="126"/>
-      <c r="AQ28" s="126"/>
-      <c r="AR28" s="126"/>
-      <c r="AS28" s="126"/>
-      <c r="AT28" s="126"/>
-      <c r="AU28" s="126"/>
-      <c r="AV28" s="126"/>
-      <c r="AW28" s="126"/>
-      <c r="AX28" s="126"/>
-      <c r="AY28" s="126"/>
-      <c r="AZ28" s="126"/>
-      <c r="BA28" s="126"/>
-      <c r="BB28" s="126"/>
-      <c r="BC28" s="126"/>
-      <c r="BD28" s="126"/>
-      <c r="BE28" s="126"/>
-      <c r="BF28" s="126"/>
-      <c r="BG28" s="126"/>
-      <c r="BH28" s="126"/>
-      <c r="BI28" s="126"/>
-      <c r="BJ28" s="126"/>
-      <c r="BK28" s="126"/>
-      <c r="BL28" s="126"/>
-      <c r="BM28" s="126"/>
-      <c r="BN28" s="126"/>
-      <c r="BO28" s="126"/>
-      <c r="BP28" s="126"/>
-      <c r="BQ28" s="126"/>
-      <c r="BR28" s="126"/>
-      <c r="BS28" s="126"/>
-      <c r="BT28" s="126"/>
-      <c r="BU28" s="126"/>
-      <c r="BV28" s="126"/>
-      <c r="BW28" s="126"/>
-      <c r="BX28" s="126"/>
-      <c r="BY28" s="126"/>
-      <c r="BZ28" s="126"/>
-      <c r="CA28" s="126"/>
-      <c r="CB28" s="126"/>
-      <c r="CC28" s="126"/>
-      <c r="CD28" s="126"/>
-      <c r="CE28" s="126"/>
-      <c r="CF28" s="126"/>
-      <c r="CG28" s="126"/>
-      <c r="CH28" s="126"/>
-      <c r="CI28" s="126"/>
-      <c r="CJ28" s="126"/>
-      <c r="CK28" s="126"/>
-      <c r="CL28" s="126"/>
-      <c r="CM28" s="126"/>
-      <c r="CN28" s="126"/>
-      <c r="CO28" s="126"/>
-      <c r="CP28" s="126"/>
-      <c r="CQ28" s="126"/>
-      <c r="CR28" s="126"/>
-      <c r="CS28" s="126"/>
-      <c r="CT28" s="126"/>
-      <c r="CU28" s="126"/>
-      <c r="CV28" s="126"/>
-      <c r="CW28" s="126"/>
-      <c r="CX28" s="126"/>
-      <c r="CY28" s="126"/>
-      <c r="CZ28" s="126"/>
-      <c r="DA28" s="126"/>
-      <c r="DB28" s="126"/>
-      <c r="DC28" s="126"/>
-      <c r="DD28" s="126"/>
-      <c r="DE28" s="126"/>
-      <c r="DF28" s="126"/>
-      <c r="DG28" s="126"/>
-      <c r="DH28" s="126"/>
-      <c r="DI28" s="126"/>
-      <c r="DJ28" s="126"/>
-      <c r="DK28" s="126"/>
-      <c r="DL28" s="126"/>
-      <c r="DM28" s="126"/>
-      <c r="DN28" s="126"/>
-      <c r="DO28" s="126"/>
-      <c r="DP28" s="126"/>
-      <c r="DQ28" s="126"/>
-      <c r="DR28" s="126"/>
-      <c r="DS28" s="126"/>
-      <c r="DT28" s="126"/>
-      <c r="DU28" s="126"/>
-      <c r="DV28" s="126"/>
-      <c r="DW28" s="126"/>
-      <c r="DX28" s="126"/>
-      <c r="DY28" s="126"/>
-      <c r="DZ28" s="126"/>
-      <c r="EA28" s="126"/>
-      <c r="EB28" s="126"/>
-      <c r="EC28" s="126"/>
-      <c r="ED28" s="126"/>
-      <c r="EE28" s="126"/>
-      <c r="EF28" s="126"/>
-      <c r="EG28" s="126"/>
-      <c r="EH28" s="126"/>
-      <c r="EI28" s="126"/>
-      <c r="EJ28" s="126"/>
-      <c r="EK28" s="126"/>
-      <c r="EL28" s="126"/>
-      <c r="EM28" s="126"/>
-      <c r="EN28" s="126"/>
-      <c r="EO28" s="126"/>
-      <c r="EP28" s="126"/>
-      <c r="EQ28" s="126"/>
-      <c r="ER28" s="126"/>
-      <c r="ES28" s="126"/>
-      <c r="ET28" s="126"/>
-      <c r="EU28" s="126"/>
-      <c r="EV28" s="126"/>
-      <c r="EW28" s="126"/>
-      <c r="EX28" s="126"/>
-      <c r="EY28" s="126"/>
-      <c r="EZ28" s="126"/>
-      <c r="FA28" s="126"/>
-      <c r="FB28" s="126"/>
-      <c r="FC28" s="126"/>
-      <c r="FD28" s="126"/>
-      <c r="FE28" s="126"/>
-      <c r="FF28" s="126"/>
-      <c r="FG28" s="126"/>
-      <c r="FH28" s="126"/>
-      <c r="FI28" s="126"/>
-      <c r="FJ28" s="126"/>
-      <c r="FK28" s="126"/>
-      <c r="FL28" s="126"/>
-      <c r="FM28" s="126"/>
-      <c r="FN28" s="126"/>
-      <c r="FO28" s="126"/>
-      <c r="FP28" s="126"/>
-      <c r="FQ28" s="126"/>
-      <c r="FR28" s="126"/>
-      <c r="FS28" s="126"/>
-      <c r="FT28" s="126"/>
-      <c r="FU28" s="126"/>
-      <c r="FV28" s="126"/>
-      <c r="FW28" s="126"/>
-      <c r="FX28" s="126"/>
-      <c r="FY28" s="126"/>
-      <c r="FZ28" s="126"/>
-      <c r="GA28" s="126"/>
-      <c r="GB28" s="126"/>
-      <c r="GC28" s="126"/>
-      <c r="GD28" s="126"/>
-      <c r="GE28" s="126"/>
-      <c r="GF28" s="126"/>
-      <c r="GG28" s="126"/>
-      <c r="GH28" s="126"/>
-      <c r="GI28" s="126"/>
-      <c r="GJ28" s="126"/>
-      <c r="GK28" s="126"/>
-      <c r="GL28" s="126"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="144"/>
+      <c r="T28" s="144"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="144"/>
+      <c r="W28" s="144"/>
+      <c r="X28" s="144"/>
+      <c r="Y28" s="144"/>
+      <c r="Z28" s="144"/>
+      <c r="AA28" s="144"/>
+      <c r="AB28" s="144"/>
+      <c r="AC28" s="144"/>
+      <c r="AD28" s="144"/>
+      <c r="AE28" s="144"/>
+      <c r="AF28" s="144"/>
+      <c r="AG28" s="144"/>
+      <c r="AH28" s="144"/>
+      <c r="AI28" s="144"/>
+      <c r="AJ28" s="144"/>
+      <c r="AK28" s="144"/>
+      <c r="AL28" s="144"/>
+      <c r="AM28" s="144"/>
+      <c r="AN28" s="144"/>
+      <c r="AO28" s="144"/>
+      <c r="AP28" s="144"/>
+      <c r="AQ28" s="144"/>
+      <c r="AR28" s="144"/>
+      <c r="AS28" s="144"/>
+      <c r="AT28" s="144"/>
+      <c r="AU28" s="144"/>
+      <c r="AV28" s="144"/>
+      <c r="AW28" s="144"/>
+      <c r="AX28" s="144"/>
+      <c r="AY28" s="144"/>
+      <c r="AZ28" s="144"/>
+      <c r="BA28" s="144"/>
+      <c r="BB28" s="144"/>
+      <c r="BC28" s="144"/>
+      <c r="BD28" s="144"/>
+      <c r="BE28" s="144"/>
+      <c r="BF28" s="144"/>
+      <c r="BG28" s="144"/>
+      <c r="BH28" s="144"/>
+      <c r="BI28" s="144"/>
+      <c r="BJ28" s="144"/>
+      <c r="BK28" s="144"/>
+      <c r="BL28" s="144"/>
+      <c r="BM28" s="144"/>
+      <c r="BN28" s="144"/>
+      <c r="BO28" s="144"/>
+      <c r="BP28" s="144"/>
+      <c r="BQ28" s="144"/>
+      <c r="BR28" s="144"/>
+      <c r="BS28" s="144"/>
+      <c r="BT28" s="144"/>
+      <c r="BU28" s="144"/>
+      <c r="BV28" s="144"/>
+      <c r="BW28" s="144"/>
+      <c r="BX28" s="144"/>
+      <c r="BY28" s="144"/>
+      <c r="BZ28" s="144"/>
+      <c r="CA28" s="144"/>
+      <c r="CB28" s="144"/>
+      <c r="CC28" s="144"/>
+      <c r="CD28" s="144"/>
+      <c r="CE28" s="144"/>
+      <c r="CF28" s="144"/>
+      <c r="CG28" s="144"/>
+      <c r="CH28" s="144"/>
+      <c r="CI28" s="144"/>
+      <c r="CJ28" s="144"/>
+      <c r="CK28" s="144"/>
+      <c r="CL28" s="144"/>
+      <c r="CM28" s="144"/>
+      <c r="CN28" s="144"/>
+      <c r="CO28" s="144"/>
+      <c r="CP28" s="144"/>
+      <c r="CQ28" s="144"/>
+      <c r="CR28" s="144"/>
+      <c r="CS28" s="144"/>
+      <c r="CT28" s="144"/>
+      <c r="CU28" s="144"/>
+      <c r="CV28" s="144"/>
+      <c r="CW28" s="144"/>
+      <c r="CX28" s="144"/>
+      <c r="CY28" s="144"/>
+      <c r="CZ28" s="144"/>
+      <c r="DA28" s="144"/>
+      <c r="DB28" s="144"/>
+      <c r="DC28" s="144"/>
+      <c r="DD28" s="144"/>
+      <c r="DE28" s="144"/>
+      <c r="DF28" s="144"/>
+      <c r="DG28" s="144"/>
+      <c r="DH28" s="144"/>
+      <c r="DI28" s="144"/>
+      <c r="DJ28" s="144"/>
+      <c r="DK28" s="144"/>
+      <c r="DL28" s="144"/>
+      <c r="DM28" s="144"/>
+      <c r="DN28" s="144"/>
+      <c r="DO28" s="144"/>
+      <c r="DP28" s="144"/>
+      <c r="DQ28" s="144"/>
+      <c r="DR28" s="144"/>
+      <c r="DS28" s="144"/>
+      <c r="DT28" s="144"/>
+      <c r="DU28" s="144"/>
+      <c r="DV28" s="144"/>
+      <c r="DW28" s="144"/>
+      <c r="DX28" s="144"/>
+      <c r="DY28" s="144"/>
+      <c r="DZ28" s="144"/>
+      <c r="EA28" s="144"/>
+      <c r="EB28" s="144"/>
+      <c r="EC28" s="144"/>
+      <c r="ED28" s="144"/>
+      <c r="EE28" s="144"/>
+      <c r="EF28" s="144"/>
+      <c r="EG28" s="144"/>
+      <c r="EH28" s="144"/>
+      <c r="EI28" s="144"/>
+      <c r="EJ28" s="144"/>
+      <c r="EK28" s="144"/>
+      <c r="EL28" s="144"/>
+      <c r="EM28" s="144"/>
+      <c r="EN28" s="144"/>
+      <c r="EO28" s="144"/>
+      <c r="EP28" s="144"/>
+      <c r="EQ28" s="144"/>
+      <c r="ER28" s="144"/>
+      <c r="ES28" s="144"/>
+      <c r="ET28" s="144"/>
+      <c r="EU28" s="144"/>
+      <c r="EV28" s="144"/>
+      <c r="EW28" s="144"/>
+      <c r="EX28" s="144"/>
+      <c r="EY28" s="144"/>
+      <c r="EZ28" s="144"/>
+      <c r="FA28" s="144"/>
+      <c r="FB28" s="144"/>
+      <c r="FC28" s="144"/>
+      <c r="FD28" s="144"/>
+      <c r="FE28" s="144"/>
+      <c r="FF28" s="144"/>
+      <c r="FG28" s="144"/>
+      <c r="FH28" s="144"/>
+      <c r="FI28" s="144"/>
+      <c r="FJ28" s="144"/>
+      <c r="FK28" s="144"/>
+      <c r="FL28" s="144"/>
+      <c r="FM28" s="144"/>
+      <c r="FN28" s="144"/>
+      <c r="FO28" s="144"/>
+      <c r="FP28" s="144"/>
+      <c r="FQ28" s="144"/>
+      <c r="FR28" s="144"/>
+      <c r="FS28" s="144"/>
+      <c r="FT28" s="144"/>
+      <c r="FU28" s="144"/>
+      <c r="FV28" s="144"/>
+      <c r="FW28" s="144"/>
+      <c r="FX28" s="144"/>
+      <c r="FY28" s="144"/>
+      <c r="FZ28" s="144"/>
+      <c r="GA28" s="144"/>
+      <c r="GB28" s="144"/>
+      <c r="GC28" s="144"/>
+      <c r="GD28" s="144"/>
+      <c r="GE28" s="144"/>
+      <c r="GF28" s="144"/>
+      <c r="GG28" s="144"/>
+      <c r="GH28" s="144"/>
+      <c r="GI28" s="144"/>
+      <c r="GJ28" s="144"/>
+      <c r="GK28" s="144"/>
+      <c r="GL28" s="144"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="143"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="143"/>
+      <c r="Q29" s="143"/>
+      <c r="R29" s="143"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -4896,16 +4896,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -4917,6 +4917,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4930,28 +4952,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5506,10 +5506,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5536,8 +5536,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5576,14 +5576,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="114">
@@ -5598,14 +5598,14 @@
       <c r="D5" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="156" t="s">
+      <c r="E5" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="79">
@@ -5616,12 +5616,12 @@
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="160"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="159"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="80">
@@ -5632,12 +5632,12 @@
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="81">
@@ -5648,12 +5648,12 @@
       </c>
       <c r="C8" s="73"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="152"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="82">
@@ -5664,12 +5664,12 @@
       </c>
       <c r="C9" s="73"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="150"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="83">
@@ -5680,12 +5680,12 @@
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="150"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="84">
@@ -5696,12 +5696,12 @@
       </c>
       <c r="C11" s="73"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="85">
@@ -5712,12 +5712,12 @@
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="149"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="86">
@@ -5728,12 +5728,12 @@
       </c>
       <c r="C13" s="73"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="150"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="87">
@@ -5744,12 +5744,12 @@
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="150"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="149"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5760,12 +5760,12 @@
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="79">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="C16" s="73"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="80">
@@ -5792,12 +5792,12 @@
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="81">
@@ -5808,12 +5808,12 @@
       </c>
       <c r="C18" s="73"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="82">
@@ -5824,12 +5824,12 @@
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="83">
@@ -5840,12 +5840,12 @@
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="84">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="85">
@@ -5872,12 +5872,12 @@
       </c>
       <c r="C22" s="73"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="86">
@@ -5888,12 +5888,12 @@
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="87">
@@ -5904,12 +5904,12 @@
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5920,12 +5920,12 @@
       </c>
       <c r="C25" s="73"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5936,12 +5936,12 @@
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="79">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="80">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="81">
@@ -5984,12 +5984,12 @@
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="82">
@@ -6000,12 +6000,12 @@
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="83">
@@ -6016,12 +6016,12 @@
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="84">
@@ -6032,12 +6032,12 @@
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="85">
@@ -6048,12 +6048,12 @@
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="86">
@@ -6064,12 +6064,12 @@
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="87">
@@ -6080,12 +6080,12 @@
       </c>
       <c r="C35" s="73"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6096,12 +6096,12 @@
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="79">
@@ -6112,12 +6112,12 @@
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="147"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="80">
@@ -6128,12 +6128,12 @@
       </c>
       <c r="C38" s="73"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="81">
@@ -6144,12 +6144,12 @@
       </c>
       <c r="C39" s="73"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="82">
@@ -6160,12 +6160,12 @@
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="83">
@@ -6176,12 +6176,12 @@
       </c>
       <c r="C41" s="73"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="147"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="84">
@@ -6192,23 +6192,32 @@
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6224,23 +6233,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6265,8 +6265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6285,10 +6285,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6318,8 +6318,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6866,11 +6866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6895,13 +6895,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6933,11 +6933,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9317,7 +9317,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119"/>
@@ -9354,7 +9354,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="184"/>
+      <c r="A2" s="187"/>
       <c r="B2" s="120"/>
       <c r="C2" s="112"/>
       <c r="D2" s="31" t="s">
@@ -9407,15 +9407,15 @@
       <c r="F4" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="153" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154" t="s">
+      <c r="H4" s="153"/>
+      <c r="I4" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="33">
@@ -9432,15 +9432,15 @@
         <v>215</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="181" t="s">
+      <c r="G5" s="184" t="s">
         <v>212</v>
       </c>
-      <c r="H5" s="182"/>
-      <c r="I5" s="185" t="s">
+      <c r="H5" s="185"/>
+      <c r="I5" s="181" t="s">
         <v>205</v>
       </c>
-      <c r="J5" s="186"/>
-      <c r="K5" s="187"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="183"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9451,11 +9451,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="117"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="187"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="183"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9466,11 +9466,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="187"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="183"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9481,11 +9481,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="187"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="183"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9496,11 +9496,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="187"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="183"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9511,11 +9511,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="187"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="183"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9526,11 +9526,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="187"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="183"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9541,11 +9541,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="187"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="183"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9556,11 +9556,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="187"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="183"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9571,11 +9571,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="187"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="183"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9586,11 +9586,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="187"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="183"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9601,11 +9601,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="187"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="183"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9616,11 +9616,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="187"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="183"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9631,11 +9631,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="187"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="183"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9646,11 +9646,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="183"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9661,11 +9661,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="187"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="183"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9676,11 +9676,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="187"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="183"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9691,11 +9691,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="187"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="183"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9706,11 +9706,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="187"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="183"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9721,11 +9721,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="187"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="183"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9736,11 +9736,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="187"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="183"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9751,11 +9751,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="185"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="187"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="183"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9766,11 +9766,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="187"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="183"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9781,11 +9781,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9796,11 +9796,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="187"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="183"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9811,11 +9811,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="183"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9826,11 +9826,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="187"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="183"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9841,11 +9841,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="187"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="183"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9863,11 +9863,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="187"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="183"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9885,11 +9885,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="187"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="183"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9907,11 +9907,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="187"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="182"/>
+      <c r="K35" s="183"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9929,11 +9929,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="187"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="181"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="183"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9951,11 +9951,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="187"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="182"/>
+      <c r="K37" s="183"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9973,11 +9973,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="187"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="182"/>
+      <c r="K38" s="183"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9995,11 +9995,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="186"/>
-      <c r="K39" s="187"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="182"/>
+      <c r="K39" s="183"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10017,11 +10017,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="185"/>
-      <c r="J40" s="186"/>
-      <c r="K40" s="187"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="181"/>
+      <c r="J40" s="182"/>
+      <c r="K40" s="183"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10039,11 +10039,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="187"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="181"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="183"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10061,11 +10061,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="187"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="182"/>
+      <c r="K42" s="183"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10083,11 +10083,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="186"/>
-      <c r="K43" s="187"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="182"/>
+      <c r="K43" s="183"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10105,11 +10105,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="186"/>
-      <c r="K44" s="187"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="181"/>
+      <c r="J44" s="182"/>
+      <c r="K44" s="183"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10127,11 +10127,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="185"/>
-      <c r="J45" s="186"/>
-      <c r="K45" s="187"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="181"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="183"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10149,11 +10149,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="185"/>
-      <c r="J46" s="186"/>
-      <c r="K46" s="187"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="182"/>
+      <c r="K46" s="183"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10171,11 +10171,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="185"/>
-      <c r="J47" s="186"/>
-      <c r="K47" s="187"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="182"/>
+      <c r="K47" s="183"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10193,11 +10193,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="185"/>
-      <c r="J48" s="186"/>
-      <c r="K48" s="187"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="181"/>
+      <c r="J48" s="182"/>
+      <c r="K48" s="183"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10215,11 +10215,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="148"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="187"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="181"/>
+      <c r="J49" s="182"/>
+      <c r="K49" s="183"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10237,11 +10237,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="185"/>
-      <c r="J50" s="186"/>
-      <c r="K50" s="187"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="181"/>
+      <c r="J50" s="182"/>
+      <c r="K50" s="183"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10259,11 +10259,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="148"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="185"/>
-      <c r="J51" s="186"/>
-      <c r="K51" s="187"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="181"/>
+      <c r="J51" s="182"/>
+      <c r="K51" s="183"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10281,11 +10281,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="148"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="185"/>
-      <c r="J52" s="186"/>
-      <c r="K52" s="187"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="149"/>
+      <c r="I52" s="181"/>
+      <c r="J52" s="182"/>
+      <c r="K52" s="183"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10303,11 +10303,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="185"/>
-      <c r="J53" s="186"/>
-      <c r="K53" s="187"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="182"/>
+      <c r="K53" s="183"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10325,11 +10325,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="185"/>
-      <c r="J54" s="186"/>
-      <c r="K54" s="187"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="182"/>
+      <c r="K54" s="183"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10347,11 +10347,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="185"/>
-      <c r="J55" s="186"/>
-      <c r="K55" s="187"/>
+      <c r="G55" s="147"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="181"/>
+      <c r="J55" s="182"/>
+      <c r="K55" s="183"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10369,11 +10369,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="148"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="185"/>
-      <c r="J56" s="186"/>
-      <c r="K56" s="187"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="149"/>
+      <c r="I56" s="181"/>
+      <c r="J56" s="182"/>
+      <c r="K56" s="183"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10385,6 +10385,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
@@ -10399,99 +10492,6 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10539,16 +10539,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10583,14 +10583,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12965,47 +12965,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
@@ -13022,43 +13018,47 @@
     <mergeCell ref="K57:N57"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -14223,10 +14223,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14256,8 +14256,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao KH moi theo nhan vien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVNThuviecPhuong\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao KH moi theo nhan vien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$Q$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$93</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
@@ -1576,7 +1576,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="229">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2199,15 +2199,9 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>SQL_CMN_000002</t>
-  </si>
-  <si>
     <t>@SQL0001</t>
   </si>
   <si>
-    <t>@SQL0002</t>
-  </si>
-  <si>
     <t>Select</t>
   </si>
   <si>
@@ -2224,9 +2218,6 @@
   </si>
   <si>
     <t>Load</t>
-  </si>
-  <si>
-    <t>Click RadioBttn</t>
   </si>
   <si>
     <t>Sử dụng màn hình này để:
@@ -2351,9 +2342,6 @@
     <t>Biến môi trường/ @@DivisionID</t>
   </si>
   <si>
-    <t>Đổ nguồn combobox chọn kỳ</t>
-  </si>
-  <si>
     <t>Đổ nguồn Combobox Khách hàng phụ thuộc
 nếu DivisionID từ DropdownChecklist đơn vị rỗng thì truyền biến môi trường vào để load combobox, ngược lại khác rỗng thì truyền DivisionID từ DropdownChecklist đơn vị để load combobox</t>
   </si>
@@ -2373,15 +2361,15 @@
   </si>
   <si>
     <t>Thực thi @SQL0001  đổ nguồn cho Dropdownchecklist</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0002  đổ nguồn cho Combobox</t>
   </si>
   <si>
     <t>Select EmployeeID, FullName
  From AT1103
 Where DivisionID In (@DivisionID) Or IsCommon = 1
 Order By EmployeeID</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -3226,9 +3214,27 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3274,23 +3280,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3331,9 +3322,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3395,6 +3383,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3403,18 +3403,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3439,9 +3427,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3453,6 +3438,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4379,65 +4367,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="130"/>
-      <c r="B1" s="130"/>
-      <c r="C1" s="132" t="s">
+      <c r="A1" s="136"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="138" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="131" t="s">
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131" t="s">
+      <c r="H1" s="137"/>
+      <c r="I1" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="131"/>
+      <c r="J1" s="137"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="131" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="127" t="s">
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="128"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="134"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -4448,56 +4436,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="125"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -4508,384 +4496,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="143"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="144"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="144"/>
-      <c r="W28" s="144"/>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="144"/>
-      <c r="Z28" s="144"/>
-      <c r="AA28" s="144"/>
-      <c r="AB28" s="144"/>
-      <c r="AC28" s="144"/>
-      <c r="AD28" s="144"/>
-      <c r="AE28" s="144"/>
-      <c r="AF28" s="144"/>
-      <c r="AG28" s="144"/>
-      <c r="AH28" s="144"/>
-      <c r="AI28" s="144"/>
-      <c r="AJ28" s="144"/>
-      <c r="AK28" s="144"/>
-      <c r="AL28" s="144"/>
-      <c r="AM28" s="144"/>
-      <c r="AN28" s="144"/>
-      <c r="AO28" s="144"/>
-      <c r="AP28" s="144"/>
-      <c r="AQ28" s="144"/>
-      <c r="AR28" s="144"/>
-      <c r="AS28" s="144"/>
-      <c r="AT28" s="144"/>
-      <c r="AU28" s="144"/>
-      <c r="AV28" s="144"/>
-      <c r="AW28" s="144"/>
-      <c r="AX28" s="144"/>
-      <c r="AY28" s="144"/>
-      <c r="AZ28" s="144"/>
-      <c r="BA28" s="144"/>
-      <c r="BB28" s="144"/>
-      <c r="BC28" s="144"/>
-      <c r="BD28" s="144"/>
-      <c r="BE28" s="144"/>
-      <c r="BF28" s="144"/>
-      <c r="BG28" s="144"/>
-      <c r="BH28" s="144"/>
-      <c r="BI28" s="144"/>
-      <c r="BJ28" s="144"/>
-      <c r="BK28" s="144"/>
-      <c r="BL28" s="144"/>
-      <c r="BM28" s="144"/>
-      <c r="BN28" s="144"/>
-      <c r="BO28" s="144"/>
-      <c r="BP28" s="144"/>
-      <c r="BQ28" s="144"/>
-      <c r="BR28" s="144"/>
-      <c r="BS28" s="144"/>
-      <c r="BT28" s="144"/>
-      <c r="BU28" s="144"/>
-      <c r="BV28" s="144"/>
-      <c r="BW28" s="144"/>
-      <c r="BX28" s="144"/>
-      <c r="BY28" s="144"/>
-      <c r="BZ28" s="144"/>
-      <c r="CA28" s="144"/>
-      <c r="CB28" s="144"/>
-      <c r="CC28" s="144"/>
-      <c r="CD28" s="144"/>
-      <c r="CE28" s="144"/>
-      <c r="CF28" s="144"/>
-      <c r="CG28" s="144"/>
-      <c r="CH28" s="144"/>
-      <c r="CI28" s="144"/>
-      <c r="CJ28" s="144"/>
-      <c r="CK28" s="144"/>
-      <c r="CL28" s="144"/>
-      <c r="CM28" s="144"/>
-      <c r="CN28" s="144"/>
-      <c r="CO28" s="144"/>
-      <c r="CP28" s="144"/>
-      <c r="CQ28" s="144"/>
-      <c r="CR28" s="144"/>
-      <c r="CS28" s="144"/>
-      <c r="CT28" s="144"/>
-      <c r="CU28" s="144"/>
-      <c r="CV28" s="144"/>
-      <c r="CW28" s="144"/>
-      <c r="CX28" s="144"/>
-      <c r="CY28" s="144"/>
-      <c r="CZ28" s="144"/>
-      <c r="DA28" s="144"/>
-      <c r="DB28" s="144"/>
-      <c r="DC28" s="144"/>
-      <c r="DD28" s="144"/>
-      <c r="DE28" s="144"/>
-      <c r="DF28" s="144"/>
-      <c r="DG28" s="144"/>
-      <c r="DH28" s="144"/>
-      <c r="DI28" s="144"/>
-      <c r="DJ28" s="144"/>
-      <c r="DK28" s="144"/>
-      <c r="DL28" s="144"/>
-      <c r="DM28" s="144"/>
-      <c r="DN28" s="144"/>
-      <c r="DO28" s="144"/>
-      <c r="DP28" s="144"/>
-      <c r="DQ28" s="144"/>
-      <c r="DR28" s="144"/>
-      <c r="DS28" s="144"/>
-      <c r="DT28" s="144"/>
-      <c r="DU28" s="144"/>
-      <c r="DV28" s="144"/>
-      <c r="DW28" s="144"/>
-      <c r="DX28" s="144"/>
-      <c r="DY28" s="144"/>
-      <c r="DZ28" s="144"/>
-      <c r="EA28" s="144"/>
-      <c r="EB28" s="144"/>
-      <c r="EC28" s="144"/>
-      <c r="ED28" s="144"/>
-      <c r="EE28" s="144"/>
-      <c r="EF28" s="144"/>
-      <c r="EG28" s="144"/>
-      <c r="EH28" s="144"/>
-      <c r="EI28" s="144"/>
-      <c r="EJ28" s="144"/>
-      <c r="EK28" s="144"/>
-      <c r="EL28" s="144"/>
-      <c r="EM28" s="144"/>
-      <c r="EN28" s="144"/>
-      <c r="EO28" s="144"/>
-      <c r="EP28" s="144"/>
-      <c r="EQ28" s="144"/>
-      <c r="ER28" s="144"/>
-      <c r="ES28" s="144"/>
-      <c r="ET28" s="144"/>
-      <c r="EU28" s="144"/>
-      <c r="EV28" s="144"/>
-      <c r="EW28" s="144"/>
-      <c r="EX28" s="144"/>
-      <c r="EY28" s="144"/>
-      <c r="EZ28" s="144"/>
-      <c r="FA28" s="144"/>
-      <c r="FB28" s="144"/>
-      <c r="FC28" s="144"/>
-      <c r="FD28" s="144"/>
-      <c r="FE28" s="144"/>
-      <c r="FF28" s="144"/>
-      <c r="FG28" s="144"/>
-      <c r="FH28" s="144"/>
-      <c r="FI28" s="144"/>
-      <c r="FJ28" s="144"/>
-      <c r="FK28" s="144"/>
-      <c r="FL28" s="144"/>
-      <c r="FM28" s="144"/>
-      <c r="FN28" s="144"/>
-      <c r="FO28" s="144"/>
-      <c r="FP28" s="144"/>
-      <c r="FQ28" s="144"/>
-      <c r="FR28" s="144"/>
-      <c r="FS28" s="144"/>
-      <c r="FT28" s="144"/>
-      <c r="FU28" s="144"/>
-      <c r="FV28" s="144"/>
-      <c r="FW28" s="144"/>
-      <c r="FX28" s="144"/>
-      <c r="FY28" s="144"/>
-      <c r="FZ28" s="144"/>
-      <c r="GA28" s="144"/>
-      <c r="GB28" s="144"/>
-      <c r="GC28" s="144"/>
-      <c r="GD28" s="144"/>
-      <c r="GE28" s="144"/>
-      <c r="GF28" s="144"/>
-      <c r="GG28" s="144"/>
-      <c r="GH28" s="144"/>
-      <c r="GI28" s="144"/>
-      <c r="GJ28" s="144"/>
-      <c r="GK28" s="144"/>
-      <c r="GL28" s="144"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="126"/>
+      <c r="X28" s="126"/>
+      <c r="Y28" s="126"/>
+      <c r="Z28" s="126"/>
+      <c r="AA28" s="126"/>
+      <c r="AB28" s="126"/>
+      <c r="AC28" s="126"/>
+      <c r="AD28" s="126"/>
+      <c r="AE28" s="126"/>
+      <c r="AF28" s="126"/>
+      <c r="AG28" s="126"/>
+      <c r="AH28" s="126"/>
+      <c r="AI28" s="126"/>
+      <c r="AJ28" s="126"/>
+      <c r="AK28" s="126"/>
+      <c r="AL28" s="126"/>
+      <c r="AM28" s="126"/>
+      <c r="AN28" s="126"/>
+      <c r="AO28" s="126"/>
+      <c r="AP28" s="126"/>
+      <c r="AQ28" s="126"/>
+      <c r="AR28" s="126"/>
+      <c r="AS28" s="126"/>
+      <c r="AT28" s="126"/>
+      <c r="AU28" s="126"/>
+      <c r="AV28" s="126"/>
+      <c r="AW28" s="126"/>
+      <c r="AX28" s="126"/>
+      <c r="AY28" s="126"/>
+      <c r="AZ28" s="126"/>
+      <c r="BA28" s="126"/>
+      <c r="BB28" s="126"/>
+      <c r="BC28" s="126"/>
+      <c r="BD28" s="126"/>
+      <c r="BE28" s="126"/>
+      <c r="BF28" s="126"/>
+      <c r="BG28" s="126"/>
+      <c r="BH28" s="126"/>
+      <c r="BI28" s="126"/>
+      <c r="BJ28" s="126"/>
+      <c r="BK28" s="126"/>
+      <c r="BL28" s="126"/>
+      <c r="BM28" s="126"/>
+      <c r="BN28" s="126"/>
+      <c r="BO28" s="126"/>
+      <c r="BP28" s="126"/>
+      <c r="BQ28" s="126"/>
+      <c r="BR28" s="126"/>
+      <c r="BS28" s="126"/>
+      <c r="BT28" s="126"/>
+      <c r="BU28" s="126"/>
+      <c r="BV28" s="126"/>
+      <c r="BW28" s="126"/>
+      <c r="BX28" s="126"/>
+      <c r="BY28" s="126"/>
+      <c r="BZ28" s="126"/>
+      <c r="CA28" s="126"/>
+      <c r="CB28" s="126"/>
+      <c r="CC28" s="126"/>
+      <c r="CD28" s="126"/>
+      <c r="CE28" s="126"/>
+      <c r="CF28" s="126"/>
+      <c r="CG28" s="126"/>
+      <c r="CH28" s="126"/>
+      <c r="CI28" s="126"/>
+      <c r="CJ28" s="126"/>
+      <c r="CK28" s="126"/>
+      <c r="CL28" s="126"/>
+      <c r="CM28" s="126"/>
+      <c r="CN28" s="126"/>
+      <c r="CO28" s="126"/>
+      <c r="CP28" s="126"/>
+      <c r="CQ28" s="126"/>
+      <c r="CR28" s="126"/>
+      <c r="CS28" s="126"/>
+      <c r="CT28" s="126"/>
+      <c r="CU28" s="126"/>
+      <c r="CV28" s="126"/>
+      <c r="CW28" s="126"/>
+      <c r="CX28" s="126"/>
+      <c r="CY28" s="126"/>
+      <c r="CZ28" s="126"/>
+      <c r="DA28" s="126"/>
+      <c r="DB28" s="126"/>
+      <c r="DC28" s="126"/>
+      <c r="DD28" s="126"/>
+      <c r="DE28" s="126"/>
+      <c r="DF28" s="126"/>
+      <c r="DG28" s="126"/>
+      <c r="DH28" s="126"/>
+      <c r="DI28" s="126"/>
+      <c r="DJ28" s="126"/>
+      <c r="DK28" s="126"/>
+      <c r="DL28" s="126"/>
+      <c r="DM28" s="126"/>
+      <c r="DN28" s="126"/>
+      <c r="DO28" s="126"/>
+      <c r="DP28" s="126"/>
+      <c r="DQ28" s="126"/>
+      <c r="DR28" s="126"/>
+      <c r="DS28" s="126"/>
+      <c r="DT28" s="126"/>
+      <c r="DU28" s="126"/>
+      <c r="DV28" s="126"/>
+      <c r="DW28" s="126"/>
+      <c r="DX28" s="126"/>
+      <c r="DY28" s="126"/>
+      <c r="DZ28" s="126"/>
+      <c r="EA28" s="126"/>
+      <c r="EB28" s="126"/>
+      <c r="EC28" s="126"/>
+      <c r="ED28" s="126"/>
+      <c r="EE28" s="126"/>
+      <c r="EF28" s="126"/>
+      <c r="EG28" s="126"/>
+      <c r="EH28" s="126"/>
+      <c r="EI28" s="126"/>
+      <c r="EJ28" s="126"/>
+      <c r="EK28" s="126"/>
+      <c r="EL28" s="126"/>
+      <c r="EM28" s="126"/>
+      <c r="EN28" s="126"/>
+      <c r="EO28" s="126"/>
+      <c r="EP28" s="126"/>
+      <c r="EQ28" s="126"/>
+      <c r="ER28" s="126"/>
+      <c r="ES28" s="126"/>
+      <c r="ET28" s="126"/>
+      <c r="EU28" s="126"/>
+      <c r="EV28" s="126"/>
+      <c r="EW28" s="126"/>
+      <c r="EX28" s="126"/>
+      <c r="EY28" s="126"/>
+      <c r="EZ28" s="126"/>
+      <c r="FA28" s="126"/>
+      <c r="FB28" s="126"/>
+      <c r="FC28" s="126"/>
+      <c r="FD28" s="126"/>
+      <c r="FE28" s="126"/>
+      <c r="FF28" s="126"/>
+      <c r="FG28" s="126"/>
+      <c r="FH28" s="126"/>
+      <c r="FI28" s="126"/>
+      <c r="FJ28" s="126"/>
+      <c r="FK28" s="126"/>
+      <c r="FL28" s="126"/>
+      <c r="FM28" s="126"/>
+      <c r="FN28" s="126"/>
+      <c r="FO28" s="126"/>
+      <c r="FP28" s="126"/>
+      <c r="FQ28" s="126"/>
+      <c r="FR28" s="126"/>
+      <c r="FS28" s="126"/>
+      <c r="FT28" s="126"/>
+      <c r="FU28" s="126"/>
+      <c r="FV28" s="126"/>
+      <c r="FW28" s="126"/>
+      <c r="FX28" s="126"/>
+      <c r="FY28" s="126"/>
+      <c r="FZ28" s="126"/>
+      <c r="GA28" s="126"/>
+      <c r="GB28" s="126"/>
+      <c r="GC28" s="126"/>
+      <c r="GD28" s="126"/>
+      <c r="GE28" s="126"/>
+      <c r="GF28" s="126"/>
+      <c r="GG28" s="126"/>
+      <c r="GH28" s="126"/>
+      <c r="GI28" s="126"/>
+      <c r="GJ28" s="126"/>
+      <c r="GK28" s="126"/>
+      <c r="GL28" s="126"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="143"/>
-      <c r="O29" s="143"/>
-      <c r="P29" s="143"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="143"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="146"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -4896,16 +4884,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="146"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
+      <c r="A31" s="125"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="125"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -4917,28 +4905,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4952,6 +4918,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4978,14 +4966,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5178,11 +5166,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="198" t="s">
+      <c r="E27" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="199"/>
-      <c r="G27" s="200"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="199"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5506,10 +5494,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5520,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5536,8 +5524,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5576,14 +5564,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="114">
@@ -5598,14 +5586,14 @@
       <c r="D5" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="155" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
+      <c r="E5" s="156" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="79">
@@ -5616,12 +5604,12 @@
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="159"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="160"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="80">
@@ -5632,12 +5620,12 @@
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="81">
@@ -5648,12 +5636,12 @@
       </c>
       <c r="C8" s="73"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="152"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="82">
@@ -5664,12 +5652,12 @@
       </c>
       <c r="C9" s="73"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="83">
@@ -5680,12 +5668,12 @@
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="150"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="84">
@@ -5696,12 +5684,12 @@
       </c>
       <c r="C11" s="73"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="85">
@@ -5712,12 +5700,12 @@
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="86">
@@ -5728,12 +5716,12 @@
       </c>
       <c r="C13" s="73"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="150"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="87">
@@ -5744,12 +5732,12 @@
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="150"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5760,12 +5748,12 @@
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="79">
@@ -5776,12 +5764,12 @@
       </c>
       <c r="C16" s="73"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="80">
@@ -5792,12 +5780,12 @@
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="81">
@@ -5808,12 +5796,12 @@
       </c>
       <c r="C18" s="73"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="82">
@@ -5824,12 +5812,12 @@
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="83">
@@ -5840,12 +5828,12 @@
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="84">
@@ -5856,12 +5844,12 @@
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="85">
@@ -5872,12 +5860,12 @@
       </c>
       <c r="C22" s="73"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="86">
@@ -5888,12 +5876,12 @@
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="87">
@@ -5904,12 +5892,12 @@
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5920,12 +5908,12 @@
       </c>
       <c r="C25" s="73"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5936,12 +5924,12 @@
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="79">
@@ -5952,12 +5940,12 @@
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="80">
@@ -5968,12 +5956,12 @@
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="81">
@@ -5984,12 +5972,12 @@
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="160"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="82">
@@ -6000,12 +5988,12 @@
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="83">
@@ -6016,12 +6004,12 @@
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="84">
@@ -6032,12 +6020,12 @@
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="85">
@@ -6048,12 +6036,12 @@
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="86">
@@ -6064,12 +6052,12 @@
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="87">
@@ -6080,12 +6068,12 @@
       </c>
       <c r="C35" s="73"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6096,12 +6084,12 @@
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="79">
@@ -6112,12 +6100,12 @@
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="160"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="147"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="80">
@@ -6128,12 +6116,12 @@
       </c>
       <c r="C38" s="73"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="81">
@@ -6144,12 +6132,12 @@
       </c>
       <c r="C39" s="73"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="82">
@@ -6160,12 +6148,12 @@
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="83">
@@ -6176,12 +6164,12 @@
       </c>
       <c r="C41" s="73"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="84">
@@ -6192,32 +6180,23 @@
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="160"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6233,14 +6212,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6266,7 +6254,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6285,10 +6273,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6318,8 +6306,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6374,7 +6362,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="170" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J5" s="171"/>
     </row>
@@ -6462,7 +6450,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="164" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J12" s="165"/>
     </row>
@@ -6870,7 +6858,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6895,13 +6883,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6914,7 +6902,7 @@
       </c>
       <c r="I1" s="177"/>
       <c r="J1" s="178" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K1" s="179"/>
       <c r="L1" s="180"/>
@@ -6933,11 +6921,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6974,7 +6962,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C4" s="114" t="s">
         <v>163</v>
@@ -7084,12 +7072,12 @@
       <c r="J6" s="61"/>
       <c r="K6" s="61"/>
       <c r="L6" s="40" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="M6" s="121"/>
       <c r="N6" s="121"/>
       <c r="O6" s="121" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P6" s="121"/>
     </row>
@@ -7124,12 +7112,12 @@
       <c r="J7" s="61"/>
       <c r="K7" s="61"/>
       <c r="L7" s="40" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="M7" s="121"/>
       <c r="N7" s="121"/>
       <c r="O7" s="121" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P7" s="121"/>
     </row>
@@ -7156,25 +7144,25 @@
         <v>172</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
       <c r="L8" s="40" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="M8" s="121" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N8" s="121"/>
       <c r="O8" s="121" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P8" s="121" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7191,13 +7179,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F9" s="121" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G9" s="121" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H9" s="40" t="s">
         <v>169</v>
@@ -7205,12 +7193,10 @@
       <c r="I9" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="J9" s="61">
-        <v>50</v>
-      </c>
+      <c r="J9" s="61"/>
       <c r="K9" s="61"/>
       <c r="L9" s="40" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="M9" s="121"/>
       <c r="N9" s="121"/>
@@ -7231,13 +7217,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="121" t="s">
-        <v>199</v>
-      </c>
       <c r="G10" s="121" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>169</v>
@@ -7245,12 +7231,10 @@
       <c r="I10" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="J10" s="61">
-        <v>50</v>
-      </c>
+      <c r="J10" s="61"/>
       <c r="K10" s="61"/>
       <c r="L10" s="40" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="M10" s="121"/>
       <c r="N10" s="121"/>
@@ -7271,13 +7255,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="121" t="s">
-        <v>200</v>
-      </c>
       <c r="G11" s="121" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H11" s="40" t="s">
         <v>169</v>
@@ -7285,12 +7269,10 @@
       <c r="I11" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="J11" s="61">
-        <v>50</v>
-      </c>
+      <c r="J11" s="61"/>
       <c r="K11" s="61"/>
       <c r="L11" s="40" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="M11" s="121"/>
       <c r="N11" s="121"/>
@@ -7311,13 +7293,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="121" t="s">
-        <v>201</v>
-      </c>
       <c r="G12" s="121" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>169</v>
@@ -7325,12 +7307,10 @@
       <c r="I12" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="J12" s="61">
-        <v>50</v>
-      </c>
+      <c r="J12" s="61"/>
       <c r="K12" s="61"/>
       <c r="L12" s="40" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="M12" s="121"/>
       <c r="N12" s="121"/>
@@ -7383,10 +7363,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F14" s="121" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G14" s="121"/>
       <c r="H14" s="40" t="s">
@@ -8353,7 +8333,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>32</v>
@@ -9317,7 +9297,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="183" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119"/>
@@ -9354,7 +9334,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="187"/>
+      <c r="A2" s="184"/>
       <c r="B2" s="120"/>
       <c r="C2" s="112"/>
       <c r="D2" s="31" t="s">
@@ -9393,7 +9373,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C4" s="110" t="s">
         <v>32</v>
@@ -9407,15 +9387,15 @@
       <c r="F4" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153" t="s">
+      <c r="H4" s="154"/>
+      <c r="I4" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="33">
@@ -9429,18 +9409,18 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="117" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="184" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="185"/>
-      <c r="I5" s="181" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="182"/>
-      <c r="K5" s="183"/>
+      <c r="G5" s="181" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="182"/>
+      <c r="I5" s="185" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="186"/>
+      <c r="K5" s="187"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9451,11 +9431,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="117"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="183"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="187"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9466,11 +9446,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="183"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="187"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9481,11 +9461,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="183"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="187"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9496,11 +9476,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="183"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="187"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9511,11 +9491,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="183"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="187"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9526,11 +9506,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="183"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="187"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9541,11 +9521,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="183"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="187"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9556,11 +9536,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="183"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="187"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9571,11 +9551,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="183"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="187"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9586,11 +9566,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="183"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="187"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9601,11 +9581,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="183"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="187"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9616,11 +9596,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="183"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="187"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9631,11 +9611,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="183"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="187"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9646,11 +9626,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="183"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="187"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9661,11 +9641,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="183"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="187"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9676,11 +9656,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="183"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="187"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9691,11 +9671,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="183"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="187"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9706,11 +9686,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="183"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="187"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9721,11 +9701,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="183"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="187"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9736,11 +9716,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="183"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="187"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9751,11 +9731,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="183"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="187"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9766,11 +9746,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="183"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9781,11 +9761,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="183"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9796,11 +9776,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="183"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="187"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9811,11 +9791,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="183"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9826,11 +9806,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="183"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="187"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9841,11 +9821,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="183"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="187"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9863,11 +9843,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="183"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="187"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9885,11 +9865,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="182"/>
-      <c r="K34" s="183"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="187"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9907,11 +9887,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="182"/>
-      <c r="K35" s="183"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="187"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9929,11 +9909,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="181"/>
-      <c r="J36" s="182"/>
-      <c r="K36" s="183"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="186"/>
+      <c r="K36" s="187"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9951,11 +9931,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="182"/>
-      <c r="K37" s="183"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="186"/>
+      <c r="K37" s="187"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9973,11 +9953,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="181"/>
-      <c r="J38" s="182"/>
-      <c r="K38" s="183"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="187"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9995,11 +9975,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="182"/>
-      <c r="K39" s="183"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="185"/>
+      <c r="J39" s="186"/>
+      <c r="K39" s="187"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10017,11 +9997,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="181"/>
-      <c r="J40" s="182"/>
-      <c r="K40" s="183"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="186"/>
+      <c r="K40" s="187"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10039,11 +10019,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="181"/>
-      <c r="J41" s="182"/>
-      <c r="K41" s="183"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="185"/>
+      <c r="J41" s="186"/>
+      <c r="K41" s="187"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10061,11 +10041,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="182"/>
-      <c r="K42" s="183"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="186"/>
+      <c r="K42" s="187"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10083,11 +10063,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="181"/>
-      <c r="J43" s="182"/>
-      <c r="K43" s="183"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="186"/>
+      <c r="K43" s="187"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10105,11 +10085,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="181"/>
-      <c r="J44" s="182"/>
-      <c r="K44" s="183"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="185"/>
+      <c r="J44" s="186"/>
+      <c r="K44" s="187"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10127,11 +10107,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="181"/>
-      <c r="J45" s="182"/>
-      <c r="K45" s="183"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="186"/>
+      <c r="K45" s="187"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10149,11 +10129,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="181"/>
-      <c r="J46" s="182"/>
-      <c r="K46" s="183"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="185"/>
+      <c r="J46" s="186"/>
+      <c r="K46" s="187"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10171,11 +10151,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="149"/>
-      <c r="I47" s="181"/>
-      <c r="J47" s="182"/>
-      <c r="K47" s="183"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="185"/>
+      <c r="J47" s="186"/>
+      <c r="K47" s="187"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10193,11 +10173,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="181"/>
-      <c r="J48" s="182"/>
-      <c r="K48" s="183"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="185"/>
+      <c r="J48" s="186"/>
+      <c r="K48" s="187"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10215,11 +10195,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="181"/>
-      <c r="J49" s="182"/>
-      <c r="K49" s="183"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="185"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="187"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10237,11 +10217,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="149"/>
-      <c r="I50" s="181"/>
-      <c r="J50" s="182"/>
-      <c r="K50" s="183"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="185"/>
+      <c r="J50" s="186"/>
+      <c r="K50" s="187"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10259,11 +10239,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="181"/>
-      <c r="J51" s="182"/>
-      <c r="K51" s="183"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="185"/>
+      <c r="J51" s="186"/>
+      <c r="K51" s="187"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10281,11 +10261,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="149"/>
-      <c r="I52" s="181"/>
-      <c r="J52" s="182"/>
-      <c r="K52" s="183"/>
+      <c r="G52" s="148"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="185"/>
+      <c r="J52" s="186"/>
+      <c r="K52" s="187"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10303,11 +10283,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="181"/>
-      <c r="J53" s="182"/>
-      <c r="K53" s="183"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="185"/>
+      <c r="J53" s="186"/>
+      <c r="K53" s="187"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10325,11 +10305,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="181"/>
-      <c r="J54" s="182"/>
-      <c r="K54" s="183"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="185"/>
+      <c r="J54" s="186"/>
+      <c r="K54" s="187"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10347,11 +10327,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="181"/>
-      <c r="J55" s="182"/>
-      <c r="K55" s="183"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="185"/>
+      <c r="J55" s="186"/>
+      <c r="K55" s="187"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10369,11 +10349,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="147"/>
-      <c r="H56" s="149"/>
-      <c r="I56" s="181"/>
-      <c r="J56" s="182"/>
-      <c r="K56" s="183"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="185"/>
+      <c r="J56" s="186"/>
+      <c r="K56" s="187"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10385,25 +10365,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -10418,80 +10453,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10507,10 +10487,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1048467"/>
+  <dimension ref="A1:U1048466"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="H1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10539,16 +10519,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10583,14 +10563,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10629,7 +10609,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="122" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C4" s="122" t="s">
         <v>163</v>
@@ -10688,49 +10668,49 @@
         <v>162</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
       <c r="G5" s="121" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J5" s="118" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K5" s="188" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L5" s="189"/>
       <c r="M5" s="189"/>
       <c r="N5" s="190"/>
       <c r="O5" s="113" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="113" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="71" t="s">
         <v>106</v>
       </c>
       <c r="R5" s="70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S5" s="121" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="T5" s="63"/>
       <c r="U5" s="63"/>
     </row>
-    <row r="6" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="6" spans="1:21" s="34" customFormat="1" ht="78.75">
       <c r="A6" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="33">
         <v>51</v>
@@ -10742,19 +10722,19 @@
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
       <c r="G6" s="121" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I6" s="62" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="J6" s="118" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K6" s="188" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="L6" s="189"/>
       <c r="M6" s="189"/>
@@ -10762,24 +10742,22 @@
       <c r="O6" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="113" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q6" s="71" t="s">
-        <v>185</v>
-      </c>
+      <c r="P6" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q6" s="71"/>
       <c r="R6" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="S6" s="121" t="s">
-        <v>224</v>
+        <v>182</v>
+      </c>
+      <c r="S6" s="75" t="s">
+        <v>221</v>
       </c>
       <c r="T6" s="63"/>
       <c r="U6" s="63"/>
     </row>
-    <row r="7" spans="1:21" s="34" customFormat="1" ht="78.75">
+    <row r="7" spans="1:21" s="34" customFormat="1" ht="67.5">
       <c r="A7" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="33">
         <v>51</v>
@@ -10791,19 +10769,19 @@
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
       <c r="G7" s="121" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I7" s="62" t="s">
         <v>55</v>
       </c>
       <c r="J7" s="118" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K7" s="188" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L7" s="189"/>
       <c r="M7" s="189"/>
@@ -10811,69 +10789,47 @@
       <c r="O7" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="123" t="s">
-        <v>223</v>
+      <c r="P7" s="113" t="s">
+        <v>220</v>
       </c>
       <c r="Q7" s="71"/>
       <c r="R7" s="70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S7" s="75" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T7" s="63"/>
       <c r="U7" s="63"/>
     </row>
-    <row r="8" spans="1:21" s="34" customFormat="1" ht="67.5">
+    <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A8" s="33">
-        <v>4</v>
-      </c>
-      <c r="B8" s="33">
-        <v>51</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>162</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="121" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="118" t="s">
-        <v>192</v>
-      </c>
-      <c r="K8" s="188" t="s">
-        <v>232</v>
-      </c>
+      <c r="G8" s="121"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="188"/>
       <c r="L8" s="189"/>
       <c r="M8" s="189"/>
       <c r="N8" s="190"/>
-      <c r="O8" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="P8" s="113" t="s">
-        <v>223</v>
-      </c>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
       <c r="Q8" s="71"/>
-      <c r="R8" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="S8" s="75" t="s">
-        <v>226</v>
-      </c>
+      <c r="R8" s="70"/>
+      <c r="S8" s="121"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
     </row>
-    <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -10883,7 +10839,7 @@
       <c r="G9" s="121"/>
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
-      <c r="J9" s="118"/>
+      <c r="J9" s="75"/>
       <c r="K9" s="188"/>
       <c r="L9" s="189"/>
       <c r="M9" s="189"/>
@@ -10892,13 +10848,13 @@
       <c r="P9" s="113"/>
       <c r="Q9" s="71"/>
       <c r="R9" s="70"/>
-      <c r="S9" s="121"/>
+      <c r="S9" s="75"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
     </row>
     <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -10923,7 +10879,7 @@
     </row>
     <row r="11" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -10946,9 +10902,9 @@
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
     </row>
-    <row r="12" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A12" s="33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -10971,9 +10927,9 @@
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
     </row>
-    <row r="13" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="13" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -10992,13 +10948,13 @@
       <c r="P13" s="113"/>
       <c r="Q13" s="71"/>
       <c r="R13" s="70"/>
-      <c r="S13" s="75"/>
+      <c r="S13" s="121"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
     </row>
     <row r="14" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -11023,23 +10979,23 @@
     </row>
     <row r="15" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="32"/>
       <c r="G15" s="121"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
-      <c r="J15" s="75"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="188"/>
       <c r="L15" s="189"/>
       <c r="M15" s="189"/>
       <c r="N15" s="190"/>
       <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
+      <c r="P15" s="121"/>
       <c r="Q15" s="71"/>
       <c r="R15" s="70"/>
       <c r="S15" s="121"/>
@@ -11048,13 +11004,13 @@
     </row>
     <row r="16" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="121"/>
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
@@ -11063,7 +11019,7 @@
       <c r="L16" s="189"/>
       <c r="M16" s="189"/>
       <c r="N16" s="190"/>
-      <c r="O16" s="113"/>
+      <c r="O16" s="121"/>
       <c r="P16" s="121"/>
       <c r="Q16" s="71"/>
       <c r="R16" s="70"/>
@@ -11073,7 +11029,7 @@
     </row>
     <row r="17" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -11098,7 +11054,7 @@
     </row>
     <row r="18" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -11123,7 +11079,7 @@
     </row>
     <row r="19" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -11148,7 +11104,7 @@
     </row>
     <row r="20" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -11173,7 +11129,7 @@
     </row>
     <row r="21" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -11198,7 +11154,7 @@
     </row>
     <row r="22" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -11223,7 +11179,7 @@
     </row>
     <row r="23" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -11248,7 +11204,7 @@
     </row>
     <row r="24" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -11273,7 +11229,7 @@
     </row>
     <row r="25" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -11298,7 +11254,7 @@
     </row>
     <row r="26" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -11323,7 +11279,7 @@
     </row>
     <row r="27" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -11348,7 +11304,7 @@
     </row>
     <row r="28" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -11373,7 +11329,7 @@
     </row>
     <row r="29" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -11398,7 +11354,7 @@
     </row>
     <row r="30" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -11423,7 +11379,7 @@
     </row>
     <row r="31" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -11448,7 +11404,7 @@
     </row>
     <row r="32" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -11473,23 +11429,23 @@
     </row>
     <row r="33" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="121"/>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
-      <c r="J33" s="40"/>
+      <c r="J33" s="75"/>
       <c r="K33" s="188"/>
       <c r="L33" s="189"/>
       <c r="M33" s="189"/>
       <c r="N33" s="190"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="121"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
       <c r="Q33" s="71"/>
       <c r="R33" s="70"/>
       <c r="S33" s="121"/>
@@ -11498,23 +11454,23 @@
     </row>
     <row r="34" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="32"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="121"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
-      <c r="J34" s="75"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="188"/>
       <c r="L34" s="189"/>
       <c r="M34" s="189"/>
       <c r="N34" s="190"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
       <c r="Q34" s="71"/>
       <c r="R34" s="70"/>
       <c r="S34" s="121"/>
@@ -11523,7 +11479,7 @@
     </row>
     <row r="35" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -11548,7 +11504,7 @@
     </row>
     <row r="36" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -11573,7 +11529,7 @@
     </row>
     <row r="37" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -11598,7 +11554,7 @@
     </row>
     <row r="38" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -11623,7 +11579,7 @@
     </row>
     <row r="39" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -11648,7 +11604,7 @@
     </row>
     <row r="40" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -11673,7 +11629,7 @@
     </row>
     <row r="41" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -11698,7 +11654,7 @@
     </row>
     <row r="42" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -11723,7 +11679,7 @@
     </row>
     <row r="43" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -11748,7 +11704,7 @@
     </row>
     <row r="44" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -11773,7 +11729,7 @@
     </row>
     <row r="45" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -11798,7 +11754,7 @@
     </row>
     <row r="46" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -11823,7 +11779,7 @@
     </row>
     <row r="47" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -11848,7 +11804,7 @@
     </row>
     <row r="48" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -11873,7 +11829,7 @@
     </row>
     <row r="49" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -11898,7 +11854,7 @@
     </row>
     <row r="50" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -11923,7 +11879,7 @@
     </row>
     <row r="51" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -11948,7 +11904,7 @@
     </row>
     <row r="52" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -11973,7 +11929,7 @@
     </row>
     <row r="53" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -11998,7 +11954,7 @@
     </row>
     <row r="54" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -12023,7 +11979,7 @@
     </row>
     <row r="55" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="33">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -12048,7 +12004,7 @@
     </row>
     <row r="56" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="33">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -12073,7 +12029,7 @@
     </row>
     <row r="57" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="33">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
@@ -12098,7 +12054,7 @@
     </row>
     <row r="58" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="33">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -12123,7 +12079,7 @@
     </row>
     <row r="59" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A59" s="33">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
@@ -12148,7 +12104,7 @@
     </row>
     <row r="60" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A60" s="33">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
@@ -12171,9 +12127,9 @@
       <c r="T60" s="63"/>
       <c r="U60" s="63"/>
     </row>
-    <row r="61" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="61" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A61" s="33">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
@@ -12198,7 +12154,7 @@
     </row>
     <row r="62" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A62" s="33">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
@@ -12221,9 +12177,9 @@
       <c r="T62" s="63"/>
       <c r="U62" s="63"/>
     </row>
-    <row r="63" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="63" spans="1:21" ht="24.75" customHeight="1">
       <c r="A63" s="33">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -12243,12 +12199,10 @@
       <c r="Q63" s="71"/>
       <c r="R63" s="70"/>
       <c r="S63" s="121"/>
-      <c r="T63" s="63"/>
-      <c r="U63" s="63"/>
-    </row>
-    <row r="64" spans="1:21" ht="24.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:21" ht="12" customHeight="1">
       <c r="A64" s="33">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
@@ -12271,7 +12225,7 @@
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1">
       <c r="A65" s="33">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
@@ -12294,7 +12248,7 @@
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1">
       <c r="A66" s="33">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
@@ -12317,7 +12271,7 @@
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
       <c r="A67" s="33">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
@@ -12340,7 +12294,7 @@
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1">
       <c r="A68" s="33">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" s="33"/>
       <c r="C68" s="33"/>
@@ -12363,7 +12317,7 @@
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1">
       <c r="A69" s="33">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -12386,7 +12340,7 @@
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1">
       <c r="A70" s="33">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
@@ -12409,7 +12363,7 @@
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1">
       <c r="A71" s="33">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
@@ -12432,7 +12386,7 @@
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1">
       <c r="A72" s="33">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
@@ -12455,7 +12409,7 @@
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1">
       <c r="A73" s="33">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -12478,7 +12432,7 @@
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1">
       <c r="A74" s="33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -12501,7 +12455,7 @@
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1">
       <c r="A75" s="33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
@@ -12524,7 +12478,7 @@
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1">
       <c r="A76" s="33">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
@@ -12547,7 +12501,7 @@
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1">
       <c r="A77" s="33">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
@@ -12570,7 +12524,7 @@
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1">
       <c r="A78" s="33">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
@@ -12593,7 +12547,7 @@
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1">
       <c r="A79" s="33">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
@@ -12616,7 +12570,7 @@
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1">
       <c r="A80" s="33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -12639,7 +12593,7 @@
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1">
       <c r="A81" s="33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
@@ -12662,7 +12616,7 @@
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1">
       <c r="A82" s="33">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
@@ -12685,7 +12639,7 @@
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1">
       <c r="A83" s="33">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -12708,7 +12662,7 @@
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1">
       <c r="A84" s="33">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -12731,7 +12685,7 @@
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1">
       <c r="A85" s="33">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -12754,7 +12708,7 @@
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1">
       <c r="A86" s="33">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -12777,7 +12731,7 @@
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1">
       <c r="A87" s="33">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
@@ -12800,7 +12754,7 @@
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1">
       <c r="A88" s="33">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -12823,7 +12777,7 @@
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1">
       <c r="A89" s="33">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
@@ -12846,7 +12800,7 @@
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1">
       <c r="A90" s="33">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -12869,7 +12823,7 @@
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1">
       <c r="A91" s="33">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
@@ -12892,7 +12846,7 @@
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1">
       <c r="A92" s="33">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -12915,7 +12869,7 @@
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1">
       <c r="A93" s="33">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
@@ -12936,60 +12890,73 @@
       <c r="R93" s="70"/>
       <c r="S93" s="121"/>
     </row>
-    <row r="94" spans="1:19" ht="12" customHeight="1">
-      <c r="A94" s="33">
-        <v>90</v>
-      </c>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="121"/>
-      <c r="H94" s="62"/>
-      <c r="I94" s="62"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="188"/>
-      <c r="L94" s="189"/>
-      <c r="M94" s="189"/>
-      <c r="N94" s="190"/>
-      <c r="O94" s="121"/>
-      <c r="P94" s="121"/>
-      <c r="Q94" s="71"/>
-      <c r="R94" s="70"/>
-      <c r="S94" s="121"/>
-    </row>
-    <row r="1048467" spans="17:17" ht="12" customHeight="1">
-      <c r="Q1048467" s="71"/>
+    <row r="1048466" spans="17:17" ht="12" customHeight="1">
+      <c r="Q1048466" s="71"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
+  <mergeCells count="93">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
     <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K5:N5"/>
     <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
     <mergeCell ref="K78:N78"/>
     <mergeCell ref="K79:N79"/>
     <mergeCell ref="K80:N80"/>
@@ -12998,77 +12965,40 @@
     <mergeCell ref="K83:N83"/>
     <mergeCell ref="K84:N84"/>
     <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K68:N68"/>
     <mergeCell ref="K69:N69"/>
     <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
     <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048466:Q1048576 Q5:Q93"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H93">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I93">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R93">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13087,8 +13017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13196,7 +13126,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -13277,7 +13207,7 @@
       <c r="A12" s="74"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -13328,7 +13258,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13340,9 +13270,7 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
-      <c r="C18" s="43" t="s">
-        <v>231</v>
-      </c>
+      <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -13401,7 +13329,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="74"/>
       <c r="C23" s="43" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -13451,10 +13379,10 @@
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C27" s="77"/>
       <c r="D27" s="43"/>
@@ -13723,15 +13651,15 @@
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="33.75" customHeight="1">
-      <c r="B49" s="196" t="s">
-        <v>229</v>
-      </c>
-      <c r="C49" s="196"/>
-      <c r="D49" s="196"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="196"/>
-      <c r="G49" s="196"/>
-      <c r="H49" s="196"/>
+      <c r="B49" s="200" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="200"/>
+      <c r="D49" s="200"/>
+      <c r="E49" s="200"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
+      <c r="H49" s="200"/>
       <c r="I49" s="43"/>
       <c r="J49" s="46"/>
     </row>
@@ -14223,10 +14151,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14256,8 +14184,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -14283,7 +14211,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMF3010_ Khach hang moi theo nhan vien.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVNThuviecPhuong\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao KH moi theo nhan vien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao KH moi theo nhan vien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2327,12 +2327,6 @@
     <t>ID SQL</t>
   </si>
   <si>
-    <t>Select AccountID, AccountName
- From CRMT10101
-Where DivisionID in (@DivisionID) or IsCommon = 1
-Order By AccountID</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -2363,13 +2357,31 @@
     <t>Thực thi @SQL0001  đổ nguồn cho Dropdownchecklist</t>
   </si>
   <si>
-    <t>Select EmployeeID, FullName
+    <t>O</t>
+  </si>
+  <si>
+    <t>Trường hợp DivisionID = null
+'Select AccountID, AccountName
+ From CRMT10101
+Where DivisionID=@DivisionID 
+Order By AccountID
+Trường hợp DivisionID not null
+Select AccountID, AccountName
+ From CRMT10101
+Where DivisionID in (@DivisionID)
+Order By AccountID</t>
+  </si>
+  <si>
+    <t>Trường Hợp DivisionID = null
+'Select EmployeeID, FullName
  From AT1103
-Where DivisionID In (@DivisionID) Or IsCommon = 1
+Where DivisionID = @DivisionID
+Order By EmployeeID
+Trường hợp DivisionID not null
+Select EmployeeID, FullName
+ From AT1103
+Where DivisionID In (@DivisionID) 
 Order By EmployeeID</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
 </sst>
 </file>
@@ -3214,114 +3226,114 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3383,6 +3395,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3394,15 +3415,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3427,6 +3439,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3438,9 +3453,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4367,65 +4379,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="136"/>
-      <c r="B1" s="136"/>
-      <c r="C1" s="138" t="s">
+      <c r="A1" s="130"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="137" t="s">
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137" t="s">
+      <c r="H1" s="131"/>
+      <c r="I1" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="137"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="137" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="133" t="s">
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="134"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="135"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -4436,56 +4448,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -4496,384 +4508,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="130"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="126"/>
-      <c r="T28" s="126"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="126"/>
-      <c r="Z28" s="126"/>
-      <c r="AA28" s="126"/>
-      <c r="AB28" s="126"/>
-      <c r="AC28" s="126"/>
-      <c r="AD28" s="126"/>
-      <c r="AE28" s="126"/>
-      <c r="AF28" s="126"/>
-      <c r="AG28" s="126"/>
-      <c r="AH28" s="126"/>
-      <c r="AI28" s="126"/>
-      <c r="AJ28" s="126"/>
-      <c r="AK28" s="126"/>
-      <c r="AL28" s="126"/>
-      <c r="AM28" s="126"/>
-      <c r="AN28" s="126"/>
-      <c r="AO28" s="126"/>
-      <c r="AP28" s="126"/>
-      <c r="AQ28" s="126"/>
-      <c r="AR28" s="126"/>
-      <c r="AS28" s="126"/>
-      <c r="AT28" s="126"/>
-      <c r="AU28" s="126"/>
-      <c r="AV28" s="126"/>
-      <c r="AW28" s="126"/>
-      <c r="AX28" s="126"/>
-      <c r="AY28" s="126"/>
-      <c r="AZ28" s="126"/>
-      <c r="BA28" s="126"/>
-      <c r="BB28" s="126"/>
-      <c r="BC28" s="126"/>
-      <c r="BD28" s="126"/>
-      <c r="BE28" s="126"/>
-      <c r="BF28" s="126"/>
-      <c r="BG28" s="126"/>
-      <c r="BH28" s="126"/>
-      <c r="BI28" s="126"/>
-      <c r="BJ28" s="126"/>
-      <c r="BK28" s="126"/>
-      <c r="BL28" s="126"/>
-      <c r="BM28" s="126"/>
-      <c r="BN28" s="126"/>
-      <c r="BO28" s="126"/>
-      <c r="BP28" s="126"/>
-      <c r="BQ28" s="126"/>
-      <c r="BR28" s="126"/>
-      <c r="BS28" s="126"/>
-      <c r="BT28" s="126"/>
-      <c r="BU28" s="126"/>
-      <c r="BV28" s="126"/>
-      <c r="BW28" s="126"/>
-      <c r="BX28" s="126"/>
-      <c r="BY28" s="126"/>
-      <c r="BZ28" s="126"/>
-      <c r="CA28" s="126"/>
-      <c r="CB28" s="126"/>
-      <c r="CC28" s="126"/>
-      <c r="CD28" s="126"/>
-      <c r="CE28" s="126"/>
-      <c r="CF28" s="126"/>
-      <c r="CG28" s="126"/>
-      <c r="CH28" s="126"/>
-      <c r="CI28" s="126"/>
-      <c r="CJ28" s="126"/>
-      <c r="CK28" s="126"/>
-      <c r="CL28" s="126"/>
-      <c r="CM28" s="126"/>
-      <c r="CN28" s="126"/>
-      <c r="CO28" s="126"/>
-      <c r="CP28" s="126"/>
-      <c r="CQ28" s="126"/>
-      <c r="CR28" s="126"/>
-      <c r="CS28" s="126"/>
-      <c r="CT28" s="126"/>
-      <c r="CU28" s="126"/>
-      <c r="CV28" s="126"/>
-      <c r="CW28" s="126"/>
-      <c r="CX28" s="126"/>
-      <c r="CY28" s="126"/>
-      <c r="CZ28" s="126"/>
-      <c r="DA28" s="126"/>
-      <c r="DB28" s="126"/>
-      <c r="DC28" s="126"/>
-      <c r="DD28" s="126"/>
-      <c r="DE28" s="126"/>
-      <c r="DF28" s="126"/>
-      <c r="DG28" s="126"/>
-      <c r="DH28" s="126"/>
-      <c r="DI28" s="126"/>
-      <c r="DJ28" s="126"/>
-      <c r="DK28" s="126"/>
-      <c r="DL28" s="126"/>
-      <c r="DM28" s="126"/>
-      <c r="DN28" s="126"/>
-      <c r="DO28" s="126"/>
-      <c r="DP28" s="126"/>
-      <c r="DQ28" s="126"/>
-      <c r="DR28" s="126"/>
-      <c r="DS28" s="126"/>
-      <c r="DT28" s="126"/>
-      <c r="DU28" s="126"/>
-      <c r="DV28" s="126"/>
-      <c r="DW28" s="126"/>
-      <c r="DX28" s="126"/>
-      <c r="DY28" s="126"/>
-      <c r="DZ28" s="126"/>
-      <c r="EA28" s="126"/>
-      <c r="EB28" s="126"/>
-      <c r="EC28" s="126"/>
-      <c r="ED28" s="126"/>
-      <c r="EE28" s="126"/>
-      <c r="EF28" s="126"/>
-      <c r="EG28" s="126"/>
-      <c r="EH28" s="126"/>
-      <c r="EI28" s="126"/>
-      <c r="EJ28" s="126"/>
-      <c r="EK28" s="126"/>
-      <c r="EL28" s="126"/>
-      <c r="EM28" s="126"/>
-      <c r="EN28" s="126"/>
-      <c r="EO28" s="126"/>
-      <c r="EP28" s="126"/>
-      <c r="EQ28" s="126"/>
-      <c r="ER28" s="126"/>
-      <c r="ES28" s="126"/>
-      <c r="ET28" s="126"/>
-      <c r="EU28" s="126"/>
-      <c r="EV28" s="126"/>
-      <c r="EW28" s="126"/>
-      <c r="EX28" s="126"/>
-      <c r="EY28" s="126"/>
-      <c r="EZ28" s="126"/>
-      <c r="FA28" s="126"/>
-      <c r="FB28" s="126"/>
-      <c r="FC28" s="126"/>
-      <c r="FD28" s="126"/>
-      <c r="FE28" s="126"/>
-      <c r="FF28" s="126"/>
-      <c r="FG28" s="126"/>
-      <c r="FH28" s="126"/>
-      <c r="FI28" s="126"/>
-      <c r="FJ28" s="126"/>
-      <c r="FK28" s="126"/>
-      <c r="FL28" s="126"/>
-      <c r="FM28" s="126"/>
-      <c r="FN28" s="126"/>
-      <c r="FO28" s="126"/>
-      <c r="FP28" s="126"/>
-      <c r="FQ28" s="126"/>
-      <c r="FR28" s="126"/>
-      <c r="FS28" s="126"/>
-      <c r="FT28" s="126"/>
-      <c r="FU28" s="126"/>
-      <c r="FV28" s="126"/>
-      <c r="FW28" s="126"/>
-      <c r="FX28" s="126"/>
-      <c r="FY28" s="126"/>
-      <c r="FZ28" s="126"/>
-      <c r="GA28" s="126"/>
-      <c r="GB28" s="126"/>
-      <c r="GC28" s="126"/>
-      <c r="GD28" s="126"/>
-      <c r="GE28" s="126"/>
-      <c r="GF28" s="126"/>
-      <c r="GG28" s="126"/>
-      <c r="GH28" s="126"/>
-      <c r="GI28" s="126"/>
-      <c r="GJ28" s="126"/>
-      <c r="GK28" s="126"/>
-      <c r="GL28" s="126"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="144"/>
+      <c r="T28" s="144"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="144"/>
+      <c r="W28" s="144"/>
+      <c r="X28" s="144"/>
+      <c r="Y28" s="144"/>
+      <c r="Z28" s="144"/>
+      <c r="AA28" s="144"/>
+      <c r="AB28" s="144"/>
+      <c r="AC28" s="144"/>
+      <c r="AD28" s="144"/>
+      <c r="AE28" s="144"/>
+      <c r="AF28" s="144"/>
+      <c r="AG28" s="144"/>
+      <c r="AH28" s="144"/>
+      <c r="AI28" s="144"/>
+      <c r="AJ28" s="144"/>
+      <c r="AK28" s="144"/>
+      <c r="AL28" s="144"/>
+      <c r="AM28" s="144"/>
+      <c r="AN28" s="144"/>
+      <c r="AO28" s="144"/>
+      <c r="AP28" s="144"/>
+      <c r="AQ28" s="144"/>
+      <c r="AR28" s="144"/>
+      <c r="AS28" s="144"/>
+      <c r="AT28" s="144"/>
+      <c r="AU28" s="144"/>
+      <c r="AV28" s="144"/>
+      <c r="AW28" s="144"/>
+      <c r="AX28" s="144"/>
+      <c r="AY28" s="144"/>
+      <c r="AZ28" s="144"/>
+      <c r="BA28" s="144"/>
+      <c r="BB28" s="144"/>
+      <c r="BC28" s="144"/>
+      <c r="BD28" s="144"/>
+      <c r="BE28" s="144"/>
+      <c r="BF28" s="144"/>
+      <c r="BG28" s="144"/>
+      <c r="BH28" s="144"/>
+      <c r="BI28" s="144"/>
+      <c r="BJ28" s="144"/>
+      <c r="BK28" s="144"/>
+      <c r="BL28" s="144"/>
+      <c r="BM28" s="144"/>
+      <c r="BN28" s="144"/>
+      <c r="BO28" s="144"/>
+      <c r="BP28" s="144"/>
+      <c r="BQ28" s="144"/>
+      <c r="BR28" s="144"/>
+      <c r="BS28" s="144"/>
+      <c r="BT28" s="144"/>
+      <c r="BU28" s="144"/>
+      <c r="BV28" s="144"/>
+      <c r="BW28" s="144"/>
+      <c r="BX28" s="144"/>
+      <c r="BY28" s="144"/>
+      <c r="BZ28" s="144"/>
+      <c r="CA28" s="144"/>
+      <c r="CB28" s="144"/>
+      <c r="CC28" s="144"/>
+      <c r="CD28" s="144"/>
+      <c r="CE28" s="144"/>
+      <c r="CF28" s="144"/>
+      <c r="CG28" s="144"/>
+      <c r="CH28" s="144"/>
+      <c r="CI28" s="144"/>
+      <c r="CJ28" s="144"/>
+      <c r="CK28" s="144"/>
+      <c r="CL28" s="144"/>
+      <c r="CM28" s="144"/>
+      <c r="CN28" s="144"/>
+      <c r="CO28" s="144"/>
+      <c r="CP28" s="144"/>
+      <c r="CQ28" s="144"/>
+      <c r="CR28" s="144"/>
+      <c r="CS28" s="144"/>
+      <c r="CT28" s="144"/>
+      <c r="CU28" s="144"/>
+      <c r="CV28" s="144"/>
+      <c r="CW28" s="144"/>
+      <c r="CX28" s="144"/>
+      <c r="CY28" s="144"/>
+      <c r="CZ28" s="144"/>
+      <c r="DA28" s="144"/>
+      <c r="DB28" s="144"/>
+      <c r="DC28" s="144"/>
+      <c r="DD28" s="144"/>
+      <c r="DE28" s="144"/>
+      <c r="DF28" s="144"/>
+      <c r="DG28" s="144"/>
+      <c r="DH28" s="144"/>
+      <c r="DI28" s="144"/>
+      <c r="DJ28" s="144"/>
+      <c r="DK28" s="144"/>
+      <c r="DL28" s="144"/>
+      <c r="DM28" s="144"/>
+      <c r="DN28" s="144"/>
+      <c r="DO28" s="144"/>
+      <c r="DP28" s="144"/>
+      <c r="DQ28" s="144"/>
+      <c r="DR28" s="144"/>
+      <c r="DS28" s="144"/>
+      <c r="DT28" s="144"/>
+      <c r="DU28" s="144"/>
+      <c r="DV28" s="144"/>
+      <c r="DW28" s="144"/>
+      <c r="DX28" s="144"/>
+      <c r="DY28" s="144"/>
+      <c r="DZ28" s="144"/>
+      <c r="EA28" s="144"/>
+      <c r="EB28" s="144"/>
+      <c r="EC28" s="144"/>
+      <c r="ED28" s="144"/>
+      <c r="EE28" s="144"/>
+      <c r="EF28" s="144"/>
+      <c r="EG28" s="144"/>
+      <c r="EH28" s="144"/>
+      <c r="EI28" s="144"/>
+      <c r="EJ28" s="144"/>
+      <c r="EK28" s="144"/>
+      <c r="EL28" s="144"/>
+      <c r="EM28" s="144"/>
+      <c r="EN28" s="144"/>
+      <c r="EO28" s="144"/>
+      <c r="EP28" s="144"/>
+      <c r="EQ28" s="144"/>
+      <c r="ER28" s="144"/>
+      <c r="ES28" s="144"/>
+      <c r="ET28" s="144"/>
+      <c r="EU28" s="144"/>
+      <c r="EV28" s="144"/>
+      <c r="EW28" s="144"/>
+      <c r="EX28" s="144"/>
+      <c r="EY28" s="144"/>
+      <c r="EZ28" s="144"/>
+      <c r="FA28" s="144"/>
+      <c r="FB28" s="144"/>
+      <c r="FC28" s="144"/>
+      <c r="FD28" s="144"/>
+      <c r="FE28" s="144"/>
+      <c r="FF28" s="144"/>
+      <c r="FG28" s="144"/>
+      <c r="FH28" s="144"/>
+      <c r="FI28" s="144"/>
+      <c r="FJ28" s="144"/>
+      <c r="FK28" s="144"/>
+      <c r="FL28" s="144"/>
+      <c r="FM28" s="144"/>
+      <c r="FN28" s="144"/>
+      <c r="FO28" s="144"/>
+      <c r="FP28" s="144"/>
+      <c r="FQ28" s="144"/>
+      <c r="FR28" s="144"/>
+      <c r="FS28" s="144"/>
+      <c r="FT28" s="144"/>
+      <c r="FU28" s="144"/>
+      <c r="FV28" s="144"/>
+      <c r="FW28" s="144"/>
+      <c r="FX28" s="144"/>
+      <c r="FY28" s="144"/>
+      <c r="FZ28" s="144"/>
+      <c r="GA28" s="144"/>
+      <c r="GB28" s="144"/>
+      <c r="GC28" s="144"/>
+      <c r="GD28" s="144"/>
+      <c r="GE28" s="144"/>
+      <c r="GF28" s="144"/>
+      <c r="GG28" s="144"/>
+      <c r="GH28" s="144"/>
+      <c r="GI28" s="144"/>
+      <c r="GJ28" s="144"/>
+      <c r="GK28" s="144"/>
+      <c r="GL28" s="144"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="143"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="143"/>
+      <c r="Q29" s="143"/>
+      <c r="R29" s="143"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -4884,16 +4896,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -4905,6 +4917,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4918,28 +4952,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4966,14 +4978,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5166,11 +5178,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="197" t="s">
+      <c r="E27" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="198"/>
-      <c r="G27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="200"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5494,10 +5506,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5524,8 +5536,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5564,14 +5576,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="114">
@@ -5586,14 +5598,14 @@
       <c r="D5" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="156" t="s">
+      <c r="E5" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="79">
@@ -5604,12 +5616,12 @@
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="160"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="159"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="80">
@@ -5620,12 +5632,12 @@
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="81">
@@ -5636,12 +5648,12 @@
       </c>
       <c r="C8" s="73"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="152"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="82">
@@ -5652,12 +5664,12 @@
       </c>
       <c r="C9" s="73"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="150"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="83">
@@ -5668,12 +5680,12 @@
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="150"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="84">
@@ -5684,12 +5696,12 @@
       </c>
       <c r="C11" s="73"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="85">
@@ -5700,12 +5712,12 @@
       </c>
       <c r="C12" s="73"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="149"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="86">
@@ -5716,12 +5728,12 @@
       </c>
       <c r="C13" s="73"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="150"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="87">
@@ -5732,12 +5744,12 @@
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="150"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="149"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5748,12 +5760,12 @@
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="79">
@@ -5764,12 +5776,12 @@
       </c>
       <c r="C16" s="73"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="80">
@@ -5780,12 +5792,12 @@
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="81">
@@ -5796,12 +5808,12 @@
       </c>
       <c r="C18" s="73"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="82">
@@ -5812,12 +5824,12 @@
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="83">
@@ -5828,12 +5840,12 @@
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="84">
@@ -5844,12 +5856,12 @@
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="85">
@@ -5860,12 +5872,12 @@
       </c>
       <c r="C22" s="73"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="86">
@@ -5876,12 +5888,12 @@
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="87">
@@ -5892,12 +5904,12 @@
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5908,12 +5920,12 @@
       </c>
       <c r="C25" s="73"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5924,12 +5936,12 @@
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="79">
@@ -5940,12 +5952,12 @@
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="80">
@@ -5956,12 +5968,12 @@
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="81">
@@ -5972,12 +5984,12 @@
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="82">
@@ -5988,12 +6000,12 @@
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="83">
@@ -6004,12 +6016,12 @@
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="84">
@@ -6020,12 +6032,12 @@
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="85">
@@ -6036,12 +6048,12 @@
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="86">
@@ -6052,12 +6064,12 @@
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="87">
@@ -6068,12 +6080,12 @@
       </c>
       <c r="C35" s="73"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6084,12 +6096,12 @@
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="79">
@@ -6100,12 +6112,12 @@
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="147"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="80">
@@ -6116,12 +6128,12 @@
       </c>
       <c r="C38" s="73"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="81">
@@ -6132,12 +6144,12 @@
       </c>
       <c r="C39" s="73"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="82">
@@ -6148,12 +6160,12 @@
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="83">
@@ -6164,12 +6176,12 @@
       </c>
       <c r="C41" s="73"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="147"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="84">
@@ -6180,23 +6192,32 @@
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6212,23 +6233,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6253,7 +6265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -6273,10 +6285,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6306,8 +6318,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6883,13 +6895,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6921,11 +6933,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7072,7 +7084,7 @@
       <c r="J6" s="61"/>
       <c r="K6" s="61"/>
       <c r="L6" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M6" s="121"/>
       <c r="N6" s="121"/>
@@ -7112,7 +7124,7 @@
       <c r="J7" s="61"/>
       <c r="K7" s="61"/>
       <c r="L7" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M7" s="121"/>
       <c r="N7" s="121"/>
@@ -7152,17 +7164,17 @@
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
       <c r="L8" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M8" s="121" t="s">
         <v>214</v>
       </c>
       <c r="N8" s="121"/>
       <c r="O8" s="121" t="s">
+        <v>217</v>
+      </c>
+      <c r="P8" s="121" t="s">
         <v>218</v>
-      </c>
-      <c r="P8" s="121" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7196,7 +7208,7 @@
       <c r="J9" s="61"/>
       <c r="K9" s="61"/>
       <c r="L9" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M9" s="121"/>
       <c r="N9" s="121"/>
@@ -7234,7 +7246,7 @@
       <c r="J10" s="61"/>
       <c r="K10" s="61"/>
       <c r="L10" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M10" s="121"/>
       <c r="N10" s="121"/>
@@ -7272,7 +7284,7 @@
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
       <c r="L11" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M11" s="121"/>
       <c r="N11" s="121"/>
@@ -7310,7 +7322,7 @@
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
       <c r="L12" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M12" s="121"/>
       <c r="N12" s="121"/>
@@ -9297,7 +9309,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119"/>
@@ -9334,7 +9346,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="184"/>
+      <c r="A2" s="187"/>
       <c r="B2" s="120"/>
       <c r="C2" s="112"/>
       <c r="D2" s="31" t="s">
@@ -9387,15 +9399,15 @@
       <c r="F4" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="153" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154" t="s">
+      <c r="H4" s="153"/>
+      <c r="I4" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="33">
@@ -9412,15 +9424,15 @@
         <v>212</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="181" t="s">
+      <c r="G5" s="184" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="182"/>
-      <c r="I5" s="185" t="s">
+      <c r="H5" s="185"/>
+      <c r="I5" s="181" t="s">
         <v>202</v>
       </c>
-      <c r="J5" s="186"/>
-      <c r="K5" s="187"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="183"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9431,11 +9443,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="117"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="187"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="183"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9446,11 +9458,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="187"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="183"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9461,11 +9473,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="187"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="183"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9476,11 +9488,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="187"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="183"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9491,11 +9503,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="187"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="183"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9506,11 +9518,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="187"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="183"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9521,11 +9533,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="187"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="183"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9536,11 +9548,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="187"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="183"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9551,11 +9563,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="187"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="183"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9566,11 +9578,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="187"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="183"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9581,11 +9593,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="187"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="183"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9596,11 +9608,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="187"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="183"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9611,11 +9623,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="187"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="183"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9626,11 +9638,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="183"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9641,11 +9653,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="187"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="183"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9656,11 +9668,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="187"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="183"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9671,11 +9683,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="187"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="183"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9686,11 +9698,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="187"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="183"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9701,11 +9713,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="187"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="183"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9716,11 +9728,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="187"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="183"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9731,11 +9743,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="185"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="187"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="183"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9746,11 +9758,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="187"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="183"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9761,11 +9773,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9776,11 +9788,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="187"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="183"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9791,11 +9803,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="183"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9806,11 +9818,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="187"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="183"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9821,11 +9833,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="187"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="183"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9843,11 +9855,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="187"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="183"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9865,11 +9877,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="187"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="183"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9887,11 +9899,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="187"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="182"/>
+      <c r="K35" s="183"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9909,11 +9921,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="187"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="181"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="183"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9931,11 +9943,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="187"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="182"/>
+      <c r="K37" s="183"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9953,11 +9965,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="187"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="182"/>
+      <c r="K38" s="183"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9975,11 +9987,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="186"/>
-      <c r="K39" s="187"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="182"/>
+      <c r="K39" s="183"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9997,11 +10009,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="185"/>
-      <c r="J40" s="186"/>
-      <c r="K40" s="187"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="181"/>
+      <c r="J40" s="182"/>
+      <c r="K40" s="183"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10019,11 +10031,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="187"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="181"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="183"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10041,11 +10053,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="187"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="182"/>
+      <c r="K42" s="183"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10063,11 +10075,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="186"/>
-      <c r="K43" s="187"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="182"/>
+      <c r="K43" s="183"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10085,11 +10097,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="186"/>
-      <c r="K44" s="187"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="181"/>
+      <c r="J44" s="182"/>
+      <c r="K44" s="183"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10107,11 +10119,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="185"/>
-      <c r="J45" s="186"/>
-      <c r="K45" s="187"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="181"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="183"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10129,11 +10141,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="185"/>
-      <c r="J46" s="186"/>
-      <c r="K46" s="187"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="182"/>
+      <c r="K46" s="183"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10151,11 +10163,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="185"/>
-      <c r="J47" s="186"/>
-      <c r="K47" s="187"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="182"/>
+      <c r="K47" s="183"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10173,11 +10185,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="185"/>
-      <c r="J48" s="186"/>
-      <c r="K48" s="187"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="181"/>
+      <c r="J48" s="182"/>
+      <c r="K48" s="183"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10195,11 +10207,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="148"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="187"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="181"/>
+      <c r="J49" s="182"/>
+      <c r="K49" s="183"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10217,11 +10229,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="185"/>
-      <c r="J50" s="186"/>
-      <c r="K50" s="187"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="181"/>
+      <c r="J50" s="182"/>
+      <c r="K50" s="183"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10239,11 +10251,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="148"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="185"/>
-      <c r="J51" s="186"/>
-      <c r="K51" s="187"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="181"/>
+      <c r="J51" s="182"/>
+      <c r="K51" s="183"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10261,11 +10273,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="148"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="185"/>
-      <c r="J52" s="186"/>
-      <c r="K52" s="187"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="149"/>
+      <c r="I52" s="181"/>
+      <c r="J52" s="182"/>
+      <c r="K52" s="183"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10283,11 +10295,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="185"/>
-      <c r="J53" s="186"/>
-      <c r="K53" s="187"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="182"/>
+      <c r="K53" s="183"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10305,11 +10317,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="185"/>
-      <c r="J54" s="186"/>
-      <c r="K54" s="187"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="182"/>
+      <c r="K54" s="183"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10327,11 +10339,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="185"/>
-      <c r="J55" s="186"/>
-      <c r="K55" s="187"/>
+      <c r="G55" s="147"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="181"/>
+      <c r="J55" s="182"/>
+      <c r="K55" s="183"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10349,11 +10361,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="148"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="185"/>
-      <c r="J56" s="186"/>
-      <c r="K56" s="187"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="149"/>
+      <c r="I56" s="181"/>
+      <c r="J56" s="182"/>
+      <c r="K56" s="183"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10365,6 +10377,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
@@ -10379,99 +10484,6 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10489,8 +10501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048466"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:N13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10519,16 +10531,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10563,14 +10575,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10708,7 +10720,7 @@
       <c r="T5" s="63"/>
       <c r="U5" s="63"/>
     </row>
-    <row r="6" spans="1:21" s="34" customFormat="1" ht="78.75">
+    <row r="6" spans="1:21" s="34" customFormat="1" ht="126" customHeight="1">
       <c r="A6" s="33">
         <v>3</v>
       </c>
@@ -10734,7 +10746,7 @@
         <v>188</v>
       </c>
       <c r="K6" s="188" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="L6" s="189"/>
       <c r="M6" s="189"/>
@@ -10743,19 +10755,19 @@
         <v>134</v>
       </c>
       <c r="P6" s="123" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="71"/>
       <c r="R6" s="70" t="s">
         <v>182</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T6" s="63"/>
       <c r="U6" s="63"/>
     </row>
-    <row r="7" spans="1:21" s="34" customFormat="1" ht="67.5">
+    <row r="7" spans="1:21" s="34" customFormat="1" ht="114" customHeight="1">
       <c r="A7" s="33">
         <v>4</v>
       </c>
@@ -10781,7 +10793,7 @@
         <v>189</v>
       </c>
       <c r="K7" s="188" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L7" s="189"/>
       <c r="M7" s="189"/>
@@ -10790,14 +10802,14 @@
         <v>134</v>
       </c>
       <c r="P7" s="113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="71"/>
       <c r="R7" s="70" t="s">
         <v>182</v>
       </c>
       <c r="S7" s="75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T7" s="63"/>
       <c r="U7" s="63"/>
@@ -12896,47 +12908,42 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="93">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K76:N76"/>
     <mergeCell ref="K58:N58"/>
     <mergeCell ref="K41:N41"/>
     <mergeCell ref="K42:N42"/>
@@ -12953,44 +12960,49 @@
     <mergeCell ref="K56:N56"/>
     <mergeCell ref="K50:N50"/>
     <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048466:Q1048576 Q5:Q93"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H93">
       <formula1>"Select,Insert,Update,Delete"</formula1>
@@ -13126,7 +13138,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -13207,7 +13219,7 @@
       <c r="A12" s="74"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -13258,7 +13270,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13651,15 +13663,15 @@
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="33.75" customHeight="1">
-      <c r="B49" s="200" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" s="200"/>
-      <c r="D49" s="200"/>
-      <c r="E49" s="200"/>
-      <c r="F49" s="200"/>
-      <c r="G49" s="200"/>
-      <c r="H49" s="200"/>
+      <c r="B49" s="196" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" s="196"/>
+      <c r="D49" s="196"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="196"/>
       <c r="I49" s="43"/>
       <c r="J49" s="46"/>
     </row>
@@ -14151,10 +14163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14184,8 +14196,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
